--- a/5_results/5_1_original/predictors_set_4.xlsx
+++ b/5_results/5_1_original/predictors_set_4.xlsx
@@ -668,7 +668,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CatBoost_r49</t>
+          <t>CatBoost_r198</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -678,37 +678,37 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9032258064516129</v>
+        <v>0.8709677419354839</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8680851063829788</v>
+        <v>0.8315217391304348</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9032258064516129</v>
+        <v>0.8709677419354839</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6</v>
       </c>
       <c r="K2" t="n">
         <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.2500834092404985</v>
+        <v>-0.2778827372363442</v>
       </c>
       <c r="M2" t="n">
-        <v>0.430005165927223</v>
+        <v>0.3750052724462556</v>
       </c>
       <c r="N2" t="n">
-        <v>0.838579709181826</v>
+        <v>0.8410829217079218</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -716,22 +716,22 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>0.005516290664672852</v>
+        <v>0.004006147384643555</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>0.002006292343139648</v>
       </c>
       <c r="R2" t="n">
-        <v>0.681887149810791</v>
+        <v>1.30355978012085</v>
       </c>
       <c r="S2" t="n">
-        <v>0.005516290664672852</v>
+        <v>0.004006147384643555</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>0.002006292343139648</v>
       </c>
       <c r="U2" t="n">
-        <v>0.681887149810791</v>
+        <v>1.30355978012085</v>
       </c>
       <c r="V2" t="n">
         <v>1</v>
@@ -740,7 +740,7 @@
         <v>1</v>
       </c>
       <c r="X2" t="n">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="Y2" t="n">
         <v>19</v>
@@ -752,16 +752,16 @@
         <v>1</v>
       </c>
       <c r="AB2" t="n">
-        <v>100859</v>
+        <v>342070</v>
       </c>
       <c r="AC2" t="n">
-        <v>100859</v>
+        <v>342070</v>
       </c>
       <c r="AD2" t="n">
-        <v>100859</v>
+        <v>342070</v>
       </c>
       <c r="AE2" t="n">
-        <v>100859</v>
+        <v>342070</v>
       </c>
       <c r="AF2" t="n">
         <v>0</v>
@@ -782,12 +782,12 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>{'iterations': 10000, 'learning_rate': 0.06028218319511302, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 4, 'grow_policy': 'SymmetricTree', 'l2_leaf_reg': 3.353268454214423, 'max_ctr_complexity': 1, 'one_hot_max_size': 10}</t>
+          <t>{'iterations': 10000, 'learning_rate': 0.04387418552563314, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 6, 'grow_policy': 'SymmetricTree', 'l2_leaf_reg': 3.637071465711953, 'max_ctr_complexity': 4, 'one_hot_max_size': 5}</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>{'iterations': 191}</t>
+          <t>{'iterations': 272}</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
@@ -818,7 +818,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CatBoost_r198</t>
+          <t>CatBoost_r49</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -828,37 +828,37 @@
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8709677419354839</v>
+        <v>0.9032258064516129</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9199999999999999</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F3" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8315217391304348</v>
+        <v>0.8680851063829788</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8709677419354839</v>
+        <v>0.9032258064516129</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="K3" t="n">
         <v>1</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.2778827372363442</v>
+        <v>-0.2500834092404985</v>
       </c>
       <c r="M3" t="n">
-        <v>0.3750052724462556</v>
+        <v>0.430005165927223</v>
       </c>
       <c r="N3" t="n">
-        <v>0.8410829217079218</v>
+        <v>0.838579709181826</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -866,22 +866,22 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>0.01547122001647949</v>
+        <v>0.006011247634887695</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.9502823352813721</v>
+        <v>0.7464463710784912</v>
       </c>
       <c r="S3" t="n">
-        <v>0.01547122001647949</v>
+        <v>0.006011247634887695</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0.9502823352813721</v>
+        <v>0.7464463710784912</v>
       </c>
       <c r="V3" t="n">
         <v>1</v>
@@ -890,7 +890,7 @@
         <v>1</v>
       </c>
       <c r="X3" t="n">
-        <v>101</v>
+        <v>53</v>
       </c>
       <c r="Y3" t="n">
         <v>19</v>
@@ -902,16 +902,16 @@
         <v>1</v>
       </c>
       <c r="AB3" t="n">
-        <v>342070</v>
+        <v>100859</v>
       </c>
       <c r="AC3" t="n">
-        <v>342070</v>
+        <v>100859</v>
       </c>
       <c r="AD3" t="n">
-        <v>342070</v>
+        <v>100859</v>
       </c>
       <c r="AE3" t="n">
-        <v>342070</v>
+        <v>100859</v>
       </c>
       <c r="AF3" t="n">
         <v>0</v>
@@ -932,12 +932,12 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>{'iterations': 10000, 'learning_rate': 0.04387418552563314, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 6, 'grow_policy': 'SymmetricTree', 'l2_leaf_reg': 3.637071465711953, 'max_ctr_complexity': 4, 'one_hot_max_size': 5}</t>
+          <t>{'iterations': 10000, 'learning_rate': 0.06028218319511302, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 4, 'grow_policy': 'SymmetricTree', 'l2_leaf_reg': 3.353268454214423, 'max_ctr_complexity': 1, 'one_hot_max_size': 10}</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>{'iterations': 272}</t>
+          <t>{'iterations': 191}</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
@@ -968,7 +968,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CatBoost_r69</t>
+          <t>CatBoost_r5_FULL</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -978,60 +978,54 @@
         <v>0.9933333333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9032258064516129</v>
+        <v>0.8709677419354839</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8680851063829788</v>
+        <v>0.8315217391304348</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9032258064516129</v>
+        <v>0.8709677419354839</v>
       </c>
       <c r="I4" t="n">
         <v>0.9761904761904761</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6</v>
       </c>
       <c r="K4" t="n">
         <v>1</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.2352307839262845</v>
+        <v>-0.262422377807441</v>
       </c>
       <c r="M4" t="n">
-        <v>0.4600230448481762</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0.8484237634140885</v>
-      </c>
+        <v>0.4054044073116004</v>
+      </c>
+      <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr">
         <is>
           <t>roc_auc</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>0.003698825836181641</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
+        <v>0.002006053924560547</v>
+      </c>
+      <c r="Q4" t="inlineStr"/>
       <c r="R4" t="n">
-        <v>0.7295713424682617</v>
+        <v>0.1824421882629395</v>
       </c>
       <c r="S4" t="n">
-        <v>0.003698825836181641</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
+        <v>0.002006053924560547</v>
+      </c>
+      <c r="T4" t="inlineStr"/>
       <c r="U4" t="n">
-        <v>0.7295713424682617</v>
+        <v>0.1824421882629395</v>
       </c>
       <c r="V4" t="n">
         <v>1</v>
@@ -1040,7 +1034,7 @@
         <v>1</v>
       </c>
       <c r="X4" t="n">
-        <v>35</v>
+        <v>178</v>
       </c>
       <c r="Y4" t="n">
         <v>19</v>
@@ -1052,16 +1046,16 @@
         <v>1</v>
       </c>
       <c r="AB4" t="n">
-        <v>146163</v>
+        <v>76386</v>
       </c>
       <c r="AC4" t="n">
-        <v>146163</v>
+        <v>76386</v>
       </c>
       <c r="AD4" t="n">
-        <v>146163</v>
+        <v>76386</v>
       </c>
       <c r="AE4" t="n">
-        <v>146163</v>
+        <v>76386</v>
       </c>
       <c r="AF4" t="n">
         <v>0</v>
@@ -1082,17 +1076,17 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>{'iterations': 10000, 'learning_rate': 0.050294288910022224, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 5, 'grow_policy': 'SymmetricTree', 'l2_leaf_reg': 1.0457098345001241, 'max_ctr_complexity': 5, 'one_hot_max_size': 2}</t>
+          <t>{'iterations': 195, 'learning_rate': 0.055078095725390575, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 4, 'grow_policy': 'SymmetricTree', 'l2_leaf_reg': 2.894432181094842, 'max_ctr_complexity': 4, 'one_hot_max_size': 10}</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>{'iterations': 183}</t>
+          <t>{'iterations': 195}</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>{'max_memory_usage_ratio': 1.0, 'max_time_limit_ratio': 1.0, 'max_time_limit': None, 'min_time_limit': 0, 'valid_raw_types': ['bool', 'int', 'float', 'category'], 'valid_special_types': None, 'ignored_type_group_special': None, 'ignored_type_group_raw': None, 'get_features_kwargs': None, 'get_features_kwargs_extra': None, 'predict_1_batch_size': None, 'temperature_scalar': None}</t>
+          <t>{'max_memory_usage_ratio': 1.15, 'max_time_limit_ratio': 1.0, 'max_time_limit': None, 'min_time_limit': 0, 'valid_raw_types': ['bool', 'int', 'float', 'category'], 'valid_special_types': None, 'ignored_type_group_special': None, 'ignored_type_group_raw': None, 'get_features_kwargs': None, 'get_features_kwargs_extra': None, 'predict_1_batch_size': None, 'temperature_scalar': None}</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
@@ -1118,7 +1112,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CatBoost_r5_FULL</t>
+          <t>CatBoost_r167_FULL</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -1128,34 +1122,34 @@
         <v>0.9933333333333334</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8709677419354839</v>
+        <v>0.8387096774193549</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9199999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="F5" t="n">
-        <v>0.75</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8315217391304348</v>
+        <v>0.7973856209150327</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8709677419354839</v>
+        <v>0.8387096774193549</v>
       </c>
       <c r="I5" t="n">
         <v>0.9761904761904761</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="K5" t="n">
         <v>1</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.262422377807441</v>
+        <v>-0.3235083067381337</v>
       </c>
       <c r="M5" t="n">
-        <v>0.4054044073116004</v>
+        <v>0.2879857144031617</v>
       </c>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr">
@@ -1164,18 +1158,18 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>0.003917932510375977</v>
+        <v>0.004084348678588867</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="n">
-        <v>0.1069049835205078</v>
+        <v>0.2635092735290527</v>
       </c>
       <c r="S5" t="n">
-        <v>0.003917932510375977</v>
+        <v>0.004084348678588867</v>
       </c>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="n">
-        <v>0.1069049835205078</v>
+        <v>0.2635092735290527</v>
       </c>
       <c r="V5" t="n">
         <v>1</v>
@@ -1184,7 +1178,7 @@
         <v>1</v>
       </c>
       <c r="X5" t="n">
-        <v>178</v>
+        <v>153</v>
       </c>
       <c r="Y5" t="n">
         <v>19</v>
@@ -1196,16 +1190,16 @@
         <v>1</v>
       </c>
       <c r="AB5" t="n">
-        <v>76386</v>
+        <v>331126</v>
       </c>
       <c r="AC5" t="n">
-        <v>76386</v>
+        <v>331126</v>
       </c>
       <c r="AD5" t="n">
-        <v>76386</v>
+        <v>331126</v>
       </c>
       <c r="AE5" t="n">
-        <v>76386</v>
+        <v>331126</v>
       </c>
       <c r="AF5" t="n">
         <v>0</v>
@@ -1226,12 +1220,12 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>{'iterations': 195, 'learning_rate': 0.055078095725390575, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 4, 'grow_policy': 'SymmetricTree', 'l2_leaf_reg': 2.894432181094842, 'max_ctr_complexity': 4, 'one_hot_max_size': 10}</t>
+          <t>{'iterations': 149, 'learning_rate': 0.08481607830570326, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 7, 'grow_policy': 'SymmetricTree', 'l2_leaf_reg': 4.522712492188319, 'max_ctr_complexity': 3, 'one_hot_max_size': 2}</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>{'iterations': 195}</t>
+          <t>{'iterations': 149}</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
@@ -1262,7 +1256,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CatBoost_r167_FULL</t>
+          <t>CatBoost_r69</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -1272,54 +1266,60 @@
         <v>0.9933333333333334</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8387096774193549</v>
+        <v>0.9032258064516129</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7058823529411765</v>
+        <v>0.8</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7973856209150327</v>
+        <v>0.8680851063829788</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8387096774193549</v>
+        <v>0.9032258064516129</v>
       </c>
       <c r="I6" t="n">
         <v>0.9761904761904761</v>
       </c>
       <c r="J6" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="K6" t="n">
         <v>1</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.3235083067381337</v>
+        <v>-0.2352307839262845</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2879857144031617</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+        <v>0.4600230448481762</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.8484237634140885</v>
+      </c>
       <c r="O6" t="inlineStr">
         <is>
           <t>roc_auc</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>0.004011869430541992</v>
-      </c>
-      <c r="Q6" t="inlineStr"/>
+        <v>0.004521369934082031</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.002007007598876953</v>
+      </c>
       <c r="R6" t="n">
-        <v>0.1758437156677246</v>
+        <v>0.9368250370025635</v>
       </c>
       <c r="S6" t="n">
-        <v>0.004011869430541992</v>
-      </c>
-      <c r="T6" t="inlineStr"/>
+        <v>0.004521369934082031</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.002007007598876953</v>
+      </c>
       <c r="U6" t="n">
-        <v>0.1758437156677246</v>
+        <v>0.9368250370025635</v>
       </c>
       <c r="V6" t="n">
         <v>1</v>
@@ -1328,7 +1328,7 @@
         <v>1</v>
       </c>
       <c r="X6" t="n">
-        <v>153</v>
+        <v>35</v>
       </c>
       <c r="Y6" t="n">
         <v>19</v>
@@ -1340,16 +1340,16 @@
         <v>1</v>
       </c>
       <c r="AB6" t="n">
-        <v>331126</v>
+        <v>146163</v>
       </c>
       <c r="AC6" t="n">
-        <v>331126</v>
+        <v>146163</v>
       </c>
       <c r="AD6" t="n">
-        <v>331126</v>
+        <v>146163</v>
       </c>
       <c r="AE6" t="n">
-        <v>331126</v>
+        <v>146163</v>
       </c>
       <c r="AF6" t="n">
         <v>0</v>
@@ -1370,17 +1370,17 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>{'iterations': 149, 'learning_rate': 0.08481607830570326, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 7, 'grow_policy': 'SymmetricTree', 'l2_leaf_reg': 4.522712492188319, 'max_ctr_complexity': 3, 'one_hot_max_size': 2}</t>
+          <t>{'iterations': 10000, 'learning_rate': 0.050294288910022224, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 5, 'grow_policy': 'SymmetricTree', 'l2_leaf_reg': 1.0457098345001241, 'max_ctr_complexity': 5, 'one_hot_max_size': 2}</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>{'iterations': 149}</t>
+          <t>{'iterations': 183}</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>{'max_memory_usage_ratio': 1.15, 'max_time_limit_ratio': 1.0, 'max_time_limit': None, 'min_time_limit': 0, 'valid_raw_types': ['bool', 'int', 'float', 'category'], 'valid_special_types': None, 'ignored_type_group_special': None, 'ignored_type_group_raw': None, 'get_features_kwargs': None, 'get_features_kwargs_extra': None, 'predict_1_batch_size': None, 'temperature_scalar': None}</t>
+          <t>{'max_memory_usage_ratio': 1.0, 'max_time_limit_ratio': 1.0, 'max_time_limit': None, 'min_time_limit': 0, 'valid_raw_types': ['bool', 'int', 'float', 'category'], 'valid_special_types': None, 'ignored_type_group_special': None, 'ignored_type_group_raw': None, 'get_features_kwargs': None, 'get_features_kwargs_extra': None, 'predict_1_batch_size': None, 'temperature_scalar': None}</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
@@ -1452,18 +1452,18 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>0.04799151420593262</v>
+        <v>0.064239501953125</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="n">
-        <v>0.8618662357330322</v>
+        <v>1.141358613967896</v>
       </c>
       <c r="S7" t="n">
-        <v>0.04799151420593262</v>
+        <v>0.064239501953125</v>
       </c>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="n">
-        <v>0.8618662357330322</v>
+        <v>1.141358613967896</v>
       </c>
       <c r="V7" t="n">
         <v>1</v>
@@ -1596,18 +1596,18 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>0.006016731262207031</v>
+        <v>0.006000280380249023</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="n">
-        <v>1.485131978988647</v>
+        <v>1.884589910507202</v>
       </c>
       <c r="S8" t="n">
-        <v>0.006016731262207031</v>
+        <v>0.006000280380249023</v>
       </c>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="n">
-        <v>1.485131978988647</v>
+        <v>1.884589910507202</v>
       </c>
       <c r="V8" t="n">
         <v>1</v>
@@ -1740,18 +1740,18 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0.002004623413085938</v>
+        <v>0.002671718597412109</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="n">
-        <v>0.1074080467224121</v>
+        <v>0.1211130619049072</v>
       </c>
       <c r="S9" t="n">
-        <v>0.002004623413085938</v>
+        <v>0.002671718597412109</v>
       </c>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="n">
-        <v>0.1074080467224121</v>
+        <v>0.1211130619049072</v>
       </c>
       <c r="V9" t="n">
         <v>1</v>
@@ -1884,18 +1884,18 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>0.01542901992797852</v>
+        <v>0.004062891006469727</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="n">
-        <v>0.1304214000701904</v>
+        <v>0.1669876575469971</v>
       </c>
       <c r="S10" t="n">
-        <v>0.01542901992797852</v>
+        <v>0.004062891006469727</v>
       </c>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="n">
-        <v>0.1304214000701904</v>
+        <v>0.1669876575469971</v>
       </c>
       <c r="V10" t="n">
         <v>1</v>
@@ -2028,18 +2028,18 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>0.004011392593383789</v>
+        <v>0.004008769989013672</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="n">
-        <v>0.1215357780456543</v>
+        <v>0.1656358242034912</v>
       </c>
       <c r="S11" t="n">
-        <v>0.004011392593383789</v>
+        <v>0.004008769989013672</v>
       </c>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="n">
-        <v>0.1215357780456543</v>
+        <v>0.1656358242034912</v>
       </c>
       <c r="V11" t="n">
         <v>1</v>
@@ -2172,18 +2172,18 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>0.05609965324401855</v>
+        <v>0.06614518165588379</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="n">
-        <v>0.7857680320739746</v>
+        <v>0.9982879161834717</v>
       </c>
       <c r="S12" t="n">
-        <v>0.05609965324401855</v>
+        <v>0.06614518165588379</v>
       </c>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="n">
-        <v>0.7857680320739746</v>
+        <v>0.9982879161834717</v>
       </c>
       <c r="V12" t="n">
         <v>1</v>
@@ -2316,18 +2316,18 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>0.002002954483032227</v>
+        <v>0.004007816314697266</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="n">
-        <v>0.1167755126953125</v>
+        <v>0.1594645977020264</v>
       </c>
       <c r="S13" t="n">
-        <v>0.002002954483032227</v>
+        <v>0.004007816314697266</v>
       </c>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="n">
-        <v>0.1167755126953125</v>
+        <v>0.1594645977020264</v>
       </c>
       <c r="V13" t="n">
         <v>1</v>
@@ -2414,7 +2414,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CatBoost_r69_FULL</t>
+          <t>CatBoost_r198_FULL</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -2448,10 +2448,10 @@
         <v>1</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.2437176142966556</v>
+        <v>-0.2278196171769833</v>
       </c>
       <c r="M14" t="n">
-        <v>0.4428164711935373</v>
+        <v>0.475169178100966</v>
       </c>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr">
@@ -2460,18 +2460,18 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>0.002005338668823242</v>
+        <v>0.002848625183105469</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="n">
-        <v>0.1181266307830811</v>
+        <v>0.4436800479888916</v>
       </c>
       <c r="S14" t="n">
-        <v>0.002005338668823242</v>
+        <v>0.002848625183105469</v>
       </c>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="n">
-        <v>0.1181266307830811</v>
+        <v>0.4436800479888916</v>
       </c>
       <c r="V14" t="n">
         <v>1</v>
@@ -2480,7 +2480,7 @@
         <v>1</v>
       </c>
       <c r="X14" t="n">
-        <v>144</v>
+        <v>210</v>
       </c>
       <c r="Y14" t="n">
         <v>19</v>
@@ -2492,16 +2492,16 @@
         <v>1</v>
       </c>
       <c r="AB14" t="n">
-        <v>121124</v>
+        <v>314538</v>
       </c>
       <c r="AC14" t="n">
-        <v>121124</v>
+        <v>314538</v>
       </c>
       <c r="AD14" t="n">
-        <v>121124</v>
+        <v>314538</v>
       </c>
       <c r="AE14" t="n">
-        <v>121124</v>
+        <v>314538</v>
       </c>
       <c r="AF14" t="n">
         <v>0</v>
@@ -2522,12 +2522,12 @@
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>{'iterations': 183, 'learning_rate': 0.050294288910022224, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 5, 'grow_policy': 'SymmetricTree', 'l2_leaf_reg': 1.0457098345001241, 'max_ctr_complexity': 5, 'one_hot_max_size': 2}</t>
+          <t>{'iterations': 272, 'learning_rate': 0.04387418552563314, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 6, 'grow_policy': 'SymmetricTree', 'l2_leaf_reg': 3.637071465711953, 'max_ctr_complexity': 4, 'one_hot_max_size': 5}</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
-          <t>{'iterations': 183}</t>
+          <t>{'iterations': 272}</t>
         </is>
       </c>
       <c r="AM14" t="inlineStr">
@@ -2558,7 +2558,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CatBoost_r198_FULL</t>
+          <t>CatBoost_r69_FULL</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -2592,10 +2592,10 @@
         <v>1</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.2278196171769833</v>
+        <v>-0.2437176142966556</v>
       </c>
       <c r="M15" t="n">
-        <v>0.475169178100966</v>
+        <v>0.4428164711935373</v>
       </c>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr">
@@ -2604,18 +2604,18 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>0.002012252807617188</v>
+        <v>0.004004716873168945</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="n">
-        <v>0.3997552394866943</v>
+        <v>0.1727735996246338</v>
       </c>
       <c r="S15" t="n">
-        <v>0.002012252807617188</v>
+        <v>0.004004716873168945</v>
       </c>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="n">
-        <v>0.3997552394866943</v>
+        <v>0.1727735996246338</v>
       </c>
       <c r="V15" t="n">
         <v>1</v>
@@ -2624,7 +2624,7 @@
         <v>1</v>
       </c>
       <c r="X15" t="n">
-        <v>210</v>
+        <v>144</v>
       </c>
       <c r="Y15" t="n">
         <v>19</v>
@@ -2636,16 +2636,16 @@
         <v>1</v>
       </c>
       <c r="AB15" t="n">
-        <v>314538</v>
+        <v>121124</v>
       </c>
       <c r="AC15" t="n">
-        <v>314538</v>
+        <v>121124</v>
       </c>
       <c r="AD15" t="n">
-        <v>314538</v>
+        <v>121124</v>
       </c>
       <c r="AE15" t="n">
-        <v>314538</v>
+        <v>121124</v>
       </c>
       <c r="AF15" t="n">
         <v>0</v>
@@ -2666,12 +2666,12 @@
       </c>
       <c r="AK15" t="inlineStr">
         <is>
-          <t>{'iterations': 272, 'learning_rate': 0.04387418552563314, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 6, 'grow_policy': 'SymmetricTree', 'l2_leaf_reg': 3.637071465711953, 'max_ctr_complexity': 4, 'one_hot_max_size': 5}</t>
+          <t>{'iterations': 183, 'learning_rate': 0.050294288910022224, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 5, 'grow_policy': 'SymmetricTree', 'l2_leaf_reg': 1.0457098345001241, 'max_ctr_complexity': 5, 'one_hot_max_size': 2}</t>
         </is>
       </c>
       <c r="AL15" t="inlineStr">
         <is>
-          <t>{'iterations': 272}</t>
+          <t>{'iterations': 183}</t>
         </is>
       </c>
       <c r="AM15" t="inlineStr">
@@ -2750,22 +2750,22 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>0.004007339477539062</v>
+        <v>0.004730701446533203</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>0.0111396312713623</v>
       </c>
       <c r="R16" t="n">
-        <v>0.8667473793029785</v>
+        <v>0.9862086772918701</v>
       </c>
       <c r="S16" t="n">
-        <v>0.004007339477539062</v>
+        <v>0.004730701446533203</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>0.0111396312713623</v>
       </c>
       <c r="U16" t="n">
-        <v>0.8667473793029785</v>
+        <v>0.9862086772918701</v>
       </c>
       <c r="V16" t="n">
         <v>1</v>
@@ -2900,22 +2900,22 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>0.006014823913574219</v>
+        <v>0.005753993988037109</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>0.002006053924560547</v>
       </c>
       <c r="R17" t="n">
-        <v>0.6852140426635742</v>
+        <v>0.9054927825927734</v>
       </c>
       <c r="S17" t="n">
-        <v>0.006014823913574219</v>
+        <v>0.005753993988037109</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>0.002006053924560547</v>
       </c>
       <c r="U17" t="n">
-        <v>0.6852140426635742</v>
+        <v>0.9054927825927734</v>
       </c>
       <c r="V17" t="n">
         <v>1</v>
@@ -3002,7 +3002,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>NeuralNetFastAI_r172_FULL</t>
+          <t>NeuralNetTorch_r1_FULL</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -3012,34 +3012,34 @@
         <v>0.9666666666666667</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8709677419354839</v>
+        <v>0.9032258064516129</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8566666666666667</v>
+        <v>0.8766666666666667</v>
       </c>
       <c r="F18" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8154761904761905</v>
+        <v>0.8540031397174255</v>
       </c>
       <c r="H18" t="n">
-        <v>0.8709677419354839</v>
+        <v>0.9032258064516129</v>
       </c>
       <c r="I18" t="n">
         <v>0.9242424242424242</v>
       </c>
       <c r="J18" t="n">
-        <v>0.625</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="K18" t="n">
         <v>0.8333333333333334</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.305229389848075</v>
+        <v>-0.234111108981141</v>
       </c>
       <c r="M18" t="n">
-        <v>0.32237260526198</v>
+        <v>0.4623041315617814</v>
       </c>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr">
@@ -3048,18 +3048,18 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>0.01177620887756348</v>
+        <v>0.01560354232788086</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="n">
-        <v>0.7661266326904297</v>
+        <v>0.7393698692321777</v>
       </c>
       <c r="S18" t="n">
-        <v>0.01177620887756348</v>
+        <v>0.01560354232788086</v>
       </c>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="n">
-        <v>0.7661266326904297</v>
+        <v>0.7393698692321777</v>
       </c>
       <c r="V18" t="n">
         <v>1</v>
@@ -3068,7 +3068,7 @@
         <v>1</v>
       </c>
       <c r="X18" t="n">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="Y18" t="n">
         <v>19</v>
@@ -3080,16 +3080,16 @@
         <v>1</v>
       </c>
       <c r="AB18" t="n">
-        <v>80195</v>
+        <v>537132</v>
       </c>
       <c r="AC18" t="n">
-        <v>80195</v>
+        <v>537132</v>
       </c>
       <c r="AD18" t="n">
-        <v>80195</v>
+        <v>537132</v>
       </c>
       <c r="AE18" t="n">
-        <v>80195</v>
+        <v>537132</v>
       </c>
       <c r="AF18" t="n">
         <v>0</v>
@@ -3099,23 +3099,23 @@
       </c>
       <c r="AH18" t="inlineStr">
         <is>
-          <t>NNFastAiTabularModel</t>
+          <t>TabularNeuralNetTorchModel</t>
         </is>
       </c>
       <c r="AI18" t="inlineStr"/>
       <c r="AJ18" t="inlineStr">
         <is>
-          <t>log_loss</t>
+          <t>roc_auc</t>
         </is>
       </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>{'layers': [400], 'emb_drop': 0.05604276533830355, 'ps': 0.022591301744255762, 'bs': 512, 'lr': 0.027320709383189166, 'epochs': 32, 'early.stopping.min_delta': 0.0001, 'early.stopping.patience': 20, 'smoothing': 0.0, 'best_epoch': 15}</t>
+          <t>{'num_epochs': 14, 'epochs_wo_improve': None, 'activation': 'relu', 'embedding_size_factor': 1.0, 'embed_exponent': 0.56, 'max_embedding_dim': 100, 'y_range': None, 'y_range_extend': 0.05, 'dropout_prob': 0.23713784729000734, 'optimizer': 'adam', 'learning_rate': 0.00311256170909018, 'weight_decay': 4.573016756474468e-08, 'proc.embed_min_categories': 4, 'proc.impute_strategy': 'median', 'proc.max_category_levels': 100, 'proc.skew_threshold': 0.99, 'use_ngram_features': False, 'num_layers': 4, 'hidden_size': 200, 'max_batch_size': 512, 'use_batchnorm': True, 'loss_function': 'auto', 'batch_size': 32}</t>
         </is>
       </c>
       <c r="AL18" t="inlineStr">
         <is>
-          <t>{'epochs': 32, 'best_epoch': 15}</t>
+          <t>{'batch_size': 32, 'num_epochs': 0}</t>
         </is>
       </c>
       <c r="AM18" t="inlineStr">
@@ -3146,7 +3146,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>NeuralNetTorch_r1_FULL</t>
+          <t>NeuralNetFastAI_r172_FULL</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -3156,34 +3156,34 @@
         <v>0.9666666666666667</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9032258064516129</v>
+        <v>0.8709677419354839</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8766666666666667</v>
+        <v>0.8566666666666667</v>
       </c>
       <c r="F19" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8540031397174255</v>
+        <v>0.8154761904761905</v>
       </c>
       <c r="H19" t="n">
-        <v>0.9032258064516129</v>
+        <v>0.8709677419354839</v>
       </c>
       <c r="I19" t="n">
         <v>0.9242424242424242</v>
       </c>
       <c r="J19" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.625</v>
       </c>
       <c r="K19" t="n">
         <v>0.8333333333333334</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.234111108981141</v>
+        <v>-0.305229389848075</v>
       </c>
       <c r="M19" t="n">
-        <v>0.4623041315617814</v>
+        <v>0.32237260526198</v>
       </c>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr">
@@ -3192,18 +3192,18 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>0.01376748085021973</v>
+        <v>0.01577520370483398</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="n">
-        <v>0.5127434730529785</v>
+        <v>1.06598973274231</v>
       </c>
       <c r="S19" t="n">
-        <v>0.01376748085021973</v>
+        <v>0.01577520370483398</v>
       </c>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="n">
-        <v>0.5127434730529785</v>
+        <v>1.06598973274231</v>
       </c>
       <c r="V19" t="n">
         <v>1</v>
@@ -3212,7 +3212,7 @@
         <v>1</v>
       </c>
       <c r="X19" t="n">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="Y19" t="n">
         <v>19</v>
@@ -3224,16 +3224,16 @@
         <v>1</v>
       </c>
       <c r="AB19" t="n">
-        <v>537132</v>
+        <v>80195</v>
       </c>
       <c r="AC19" t="n">
-        <v>537132</v>
+        <v>80195</v>
       </c>
       <c r="AD19" t="n">
-        <v>537132</v>
+        <v>80195</v>
       </c>
       <c r="AE19" t="n">
-        <v>537132</v>
+        <v>80195</v>
       </c>
       <c r="AF19" t="n">
         <v>0</v>
@@ -3243,23 +3243,23 @@
       </c>
       <c r="AH19" t="inlineStr">
         <is>
-          <t>TabularNeuralNetTorchModel</t>
+          <t>NNFastAiTabularModel</t>
         </is>
       </c>
       <c r="AI19" t="inlineStr"/>
       <c r="AJ19" t="inlineStr">
         <is>
-          <t>roc_auc</t>
+          <t>log_loss</t>
         </is>
       </c>
       <c r="AK19" t="inlineStr">
         <is>
-          <t>{'num_epochs': 14, 'epochs_wo_improve': None, 'activation': 'relu', 'embedding_size_factor': 1.0, 'embed_exponent': 0.56, 'max_embedding_dim': 100, 'y_range': None, 'y_range_extend': 0.05, 'dropout_prob': 0.23713784729000734, 'optimizer': 'adam', 'learning_rate': 0.00311256170909018, 'weight_decay': 4.573016756474468e-08, 'proc.embed_min_categories': 4, 'proc.impute_strategy': 'median', 'proc.max_category_levels': 100, 'proc.skew_threshold': 0.99, 'use_ngram_features': False, 'num_layers': 4, 'hidden_size': 200, 'max_batch_size': 512, 'use_batchnorm': True, 'loss_function': 'auto', 'batch_size': 32}</t>
+          <t>{'layers': [400], 'emb_drop': 0.05604276533830355, 'ps': 0.022591301744255762, 'bs': 512, 'lr': 0.027320709383189166, 'epochs': 32, 'early.stopping.min_delta': 0.0001, 'early.stopping.patience': 20, 'smoothing': 0.0, 'best_epoch': 15}</t>
         </is>
       </c>
       <c r="AL19" t="inlineStr">
         <is>
-          <t>{'batch_size': 32, 'num_epochs': 0}</t>
+          <t>{'epochs': 32, 'best_epoch': 15}</t>
         </is>
       </c>
       <c r="AM19" t="inlineStr">
@@ -3336,18 +3336,18 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>0.004006862640380859</v>
+        <v>0.004006385803222656</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="n">
-        <v>0.599726676940918</v>
+        <v>0.756075382232666</v>
       </c>
       <c r="S20" t="n">
-        <v>0.004006862640380859</v>
+        <v>0.004006385803222656</v>
       </c>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="n">
-        <v>0.599726676940918</v>
+        <v>0.756075382232666</v>
       </c>
       <c r="V20" t="n">
         <v>1</v>
@@ -3480,18 +3480,18 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>0.004899024963378906</v>
+        <v>0.005514144897460938</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="n">
-        <v>0.7324521541595459</v>
+        <v>0.9889380931854248</v>
       </c>
       <c r="S21" t="n">
-        <v>0.004899024963378906</v>
+        <v>0.005514144897460938</v>
       </c>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="n">
-        <v>0.7324521541595459</v>
+        <v>0.9889380931854248</v>
       </c>
       <c r="V21" t="n">
         <v>1</v>
@@ -3578,7 +3578,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>RandomForest_r15_FULL</t>
+          <t>RandomForest_r39_FULL</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -3588,34 +3588,34 @@
         <v>0.9733333333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8709677419354839</v>
+        <v>0.9032258064516129</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9199999999999999</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F22" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8315217391304348</v>
+        <v>0.8680851063829788</v>
       </c>
       <c r="H22" t="n">
-        <v>0.8709677419354839</v>
+        <v>0.9032258064516129</v>
       </c>
       <c r="I22" t="n">
         <v>0.9166666666666666</v>
       </c>
       <c r="J22" t="n">
-        <v>0.6</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="K22" t="n">
         <v>1</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.2250835525155734</v>
+        <v>-0.2071300239530013</v>
       </c>
       <c r="M22" t="n">
-        <v>0.4807892868712527</v>
+        <v>0.5180507216426586</v>
       </c>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr">
@@ -3624,18 +3624,18 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>0.06574892997741699</v>
+        <v>0.07204270362854004</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="n">
-        <v>0.7087821960449219</v>
+        <v>0.7430016994476318</v>
       </c>
       <c r="S22" t="n">
-        <v>0.06574892997741699</v>
+        <v>0.07204270362854004</v>
       </c>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="n">
-        <v>0.7087821960449219</v>
+        <v>0.7430016994476318</v>
       </c>
       <c r="V22" t="n">
         <v>1</v>
@@ -3644,7 +3644,7 @@
         <v>1</v>
       </c>
       <c r="X22" t="n">
-        <v>188</v>
+        <v>152</v>
       </c>
       <c r="Y22" t="n">
         <v>19</v>
@@ -3656,16 +3656,16 @@
         <v>1</v>
       </c>
       <c r="AB22" t="n">
-        <v>830672</v>
+        <v>940290</v>
       </c>
       <c r="AC22" t="n">
-        <v>830672</v>
+        <v>940290</v>
       </c>
       <c r="AD22" t="n">
-        <v>830672</v>
+        <v>940290</v>
       </c>
       <c r="AE22" t="n">
-        <v>830672</v>
+        <v>940290</v>
       </c>
       <c r="AF22" t="n">
         <v>0</v>
@@ -3686,7 +3686,7 @@
       </c>
       <c r="AK22" t="inlineStr">
         <is>
-          <t>{'n_estimators': 300, 'max_leaf_nodes': 36230, 'n_jobs': -1, 'random_state': 0, 'bootstrap': True, 'max_features': 0.75, 'min_samples_leaf': 3}</t>
+          <t>{'n_estimators': 300, 'max_leaf_nodes': 28310, 'n_jobs': -1, 'random_state': 0, 'bootstrap': True, 'max_features': 0.75, 'min_samples_leaf': 2}</t>
         </is>
       </c>
       <c r="AL22" t="inlineStr">
@@ -3722,7 +3722,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>RandomForest_r39_FULL</t>
+          <t>RandomForest_r15_FULL</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -3732,34 +3732,34 @@
         <v>0.9733333333333334</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9032258064516129</v>
+        <v>0.8709677419354839</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="F23" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="G23" t="n">
-        <v>0.8680851063829788</v>
+        <v>0.8315217391304348</v>
       </c>
       <c r="H23" t="n">
-        <v>0.9032258064516129</v>
+        <v>0.8709677419354839</v>
       </c>
       <c r="I23" t="n">
         <v>0.9166666666666666</v>
       </c>
       <c r="J23" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6</v>
       </c>
       <c r="K23" t="n">
         <v>1</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.2071300239530013</v>
+        <v>-0.2250835525155734</v>
       </c>
       <c r="M23" t="n">
-        <v>0.5180507216426586</v>
+        <v>0.4807892868712527</v>
       </c>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr">
@@ -3768,18 +3768,18 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>0.06817746162414551</v>
+        <v>0.07291150093078613</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="n">
-        <v>0.8563649654388428</v>
+        <v>0.8374626636505127</v>
       </c>
       <c r="S23" t="n">
-        <v>0.06817746162414551</v>
+        <v>0.07291150093078613</v>
       </c>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="n">
-        <v>0.8563649654388428</v>
+        <v>0.8374626636505127</v>
       </c>
       <c r="V23" t="n">
         <v>1</v>
@@ -3788,7 +3788,7 @@
         <v>1</v>
       </c>
       <c r="X23" t="n">
-        <v>152</v>
+        <v>188</v>
       </c>
       <c r="Y23" t="n">
         <v>19</v>
@@ -3800,16 +3800,16 @@
         <v>1</v>
       </c>
       <c r="AB23" t="n">
-        <v>940290</v>
+        <v>830672</v>
       </c>
       <c r="AC23" t="n">
-        <v>940290</v>
+        <v>830672</v>
       </c>
       <c r="AD23" t="n">
-        <v>940290</v>
+        <v>830672</v>
       </c>
       <c r="AE23" t="n">
-        <v>940290</v>
+        <v>830672</v>
       </c>
       <c r="AF23" t="n">
         <v>0</v>
@@ -3830,7 +3830,7 @@
       </c>
       <c r="AK23" t="inlineStr">
         <is>
-          <t>{'n_estimators': 300, 'max_leaf_nodes': 28310, 'n_jobs': -1, 'random_state': 0, 'bootstrap': True, 'max_features': 0.75, 'min_samples_leaf': 2}</t>
+          <t>{'n_estimators': 300, 'max_leaf_nodes': 36230, 'n_jobs': -1, 'random_state': 0, 'bootstrap': True, 'max_features': 0.75, 'min_samples_leaf': 3}</t>
         </is>
       </c>
       <c r="AL23" t="inlineStr">
@@ -3866,7 +3866,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>CatBoost_r177</t>
+          <t>LightGBMLarge_FULL</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -3876,60 +3876,54 @@
         <v>0.98</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8709677419354839</v>
+        <v>0.9032258064516129</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9199999999999999</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F24" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8315217391304348</v>
+        <v>0.8680851063829788</v>
       </c>
       <c r="H24" t="n">
-        <v>0.8709677419354839</v>
+        <v>0.9032258064516129</v>
       </c>
       <c r="I24" t="n">
         <v>0.9150793650793649</v>
       </c>
       <c r="J24" t="n">
-        <v>0.6</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="K24" t="n">
         <v>1</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.2686536258910125</v>
+        <v>-0.2259455419384563</v>
       </c>
       <c r="M24" t="n">
-        <v>0.3930953526268829</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0.8266802048595527</v>
-      </c>
+        <v>0.4790168996919888</v>
+      </c>
+      <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr">
         <is>
           <t>roc_auc</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>0.003463029861450195</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>0</v>
-      </c>
+        <v>0.003673791885375977</v>
+      </c>
+      <c r="Q24" t="inlineStr"/>
       <c r="R24" t="n">
-        <v>0.6510491371154785</v>
+        <v>0.2346718311309814</v>
       </c>
       <c r="S24" t="n">
-        <v>0.003463029861450195</v>
-      </c>
-      <c r="T24" t="n">
-        <v>0</v>
-      </c>
+        <v>0.003673791885375977</v>
+      </c>
+      <c r="T24" t="inlineStr"/>
       <c r="U24" t="n">
-        <v>0.6510491371154785</v>
+        <v>0.2346718311309814</v>
       </c>
       <c r="V24" t="n">
         <v>1</v>
@@ -3938,7 +3932,7 @@
         <v>1</v>
       </c>
       <c r="X24" t="n">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="Y24" t="n">
         <v>19</v>
@@ -3950,16 +3944,16 @@
         <v>1</v>
       </c>
       <c r="AB24" t="n">
-        <v>149749</v>
+        <v>643615</v>
       </c>
       <c r="AC24" t="n">
-        <v>149749</v>
+        <v>643615</v>
       </c>
       <c r="AD24" t="n">
-        <v>149749</v>
+        <v>643615</v>
       </c>
       <c r="AE24" t="n">
-        <v>149749</v>
+        <v>643615</v>
       </c>
       <c r="AF24" t="n">
         <v>0</v>
@@ -3969,7 +3963,7 @@
       </c>
       <c r="AH24" t="inlineStr">
         <is>
-          <t>CatBoostModel</t>
+          <t>LGBModel</t>
         </is>
       </c>
       <c r="AI24" t="inlineStr"/>
@@ -3980,17 +3974,17 @@
       </c>
       <c r="AK24" t="inlineStr">
         <is>
-          <t>{'iterations': 10000, 'learning_rate': 0.06864209415792857, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 6, 'grow_policy': 'SymmetricTree', 'l2_leaf_reg': 2.1542798306067823, 'max_ctr_complexity': 4, 'one_hot_max_size': 10}</t>
+          <t>{'learning_rate': 0.03, 'num_leaves': 128, 'feature_fraction': 0.9, 'min_data_in_leaf': 3, 'num_boost_round': 75}</t>
         </is>
       </c>
       <c r="AL24" t="inlineStr">
         <is>
-          <t>{'iterations': 104}</t>
+          <t>{'num_boost_round': 75}</t>
         </is>
       </c>
       <c r="AM24" t="inlineStr">
         <is>
-          <t>{'max_memory_usage_ratio': 1.0, 'max_time_limit_ratio': 1.0, 'max_time_limit': None, 'min_time_limit': 0, 'valid_raw_types': ['bool', 'int', 'float', 'category'], 'valid_special_types': None, 'ignored_type_group_special': None, 'ignored_type_group_raw': None, 'get_features_kwargs': None, 'get_features_kwargs_extra': None, 'predict_1_batch_size': None, 'temperature_scalar': None}</t>
+          <t>{'max_memory_usage_ratio': 1.15, 'max_time_limit_ratio': 1.0, 'max_time_limit': None, 'min_time_limit': 0, 'valid_raw_types': ['bool', 'int', 'float', 'category'], 'valid_special_types': None, 'ignored_type_group_special': None, 'ignored_type_group_raw': None, 'get_features_kwargs': None, 'get_features_kwargs_extra': None, 'predict_1_batch_size': None, 'temperature_scalar': None}</t>
         </is>
       </c>
       <c r="AN24" t="inlineStr">
@@ -4016,7 +4010,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>LightGBMLarge_FULL</t>
+          <t>CatBoost_r177</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -4026,54 +4020,60 @@
         <v>0.98</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9032258064516129</v>
+        <v>0.8709677419354839</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8680851063829788</v>
+        <v>0.8315217391304348</v>
       </c>
       <c r="H25" t="n">
-        <v>0.9032258064516129</v>
+        <v>0.8709677419354839</v>
       </c>
       <c r="I25" t="n">
         <v>0.9150793650793649</v>
       </c>
       <c r="J25" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6</v>
       </c>
       <c r="K25" t="n">
         <v>1</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.2259455419384563</v>
+        <v>-0.2686536258910125</v>
       </c>
       <c r="M25" t="n">
-        <v>0.4790168996919888</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+        <v>0.3930953526268829</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.8266802048595527</v>
+      </c>
       <c r="O25" t="inlineStr">
         <is>
           <t>roc_auc</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>0.004010438919067383</v>
-      </c>
-      <c r="Q25" t="inlineStr"/>
+        <v>0.004925251007080078</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0.01537275314331055</v>
+      </c>
       <c r="R25" t="n">
-        <v>0.1936745643615723</v>
+        <v>0.7400901317596436</v>
       </c>
       <c r="S25" t="n">
-        <v>0.004010438919067383</v>
-      </c>
-      <c r="T25" t="inlineStr"/>
+        <v>0.004925251007080078</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0.01537275314331055</v>
+      </c>
       <c r="U25" t="n">
-        <v>0.1936745643615723</v>
+        <v>0.7400901317596436</v>
       </c>
       <c r="V25" t="n">
         <v>1</v>
@@ -4082,7 +4082,7 @@
         <v>1</v>
       </c>
       <c r="X25" t="n">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="Y25" t="n">
         <v>19</v>
@@ -4094,16 +4094,16 @@
         <v>1</v>
       </c>
       <c r="AB25" t="n">
-        <v>643615</v>
+        <v>149749</v>
       </c>
       <c r="AC25" t="n">
-        <v>643615</v>
+        <v>149749</v>
       </c>
       <c r="AD25" t="n">
-        <v>643615</v>
+        <v>149749</v>
       </c>
       <c r="AE25" t="n">
-        <v>643615</v>
+        <v>149749</v>
       </c>
       <c r="AF25" t="n">
         <v>0</v>
@@ -4113,7 +4113,7 @@
       </c>
       <c r="AH25" t="inlineStr">
         <is>
-          <t>LGBModel</t>
+          <t>CatBoostModel</t>
         </is>
       </c>
       <c r="AI25" t="inlineStr"/>
@@ -4124,17 +4124,17 @@
       </c>
       <c r="AK25" t="inlineStr">
         <is>
-          <t>{'learning_rate': 0.03, 'num_leaves': 128, 'feature_fraction': 0.9, 'min_data_in_leaf': 3, 'num_boost_round': 75}</t>
+          <t>{'iterations': 10000, 'learning_rate': 0.06864209415792857, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 6, 'grow_policy': 'SymmetricTree', 'l2_leaf_reg': 2.1542798306067823, 'max_ctr_complexity': 4, 'one_hot_max_size': 10}</t>
         </is>
       </c>
       <c r="AL25" t="inlineStr">
         <is>
-          <t>{'num_boost_round': 75}</t>
+          <t>{'iterations': 104}</t>
         </is>
       </c>
       <c r="AM25" t="inlineStr">
         <is>
-          <t>{'max_memory_usage_ratio': 1.15, 'max_time_limit_ratio': 1.0, 'max_time_limit': None, 'min_time_limit': 0, 'valid_raw_types': ['bool', 'int', 'float', 'category'], 'valid_special_types': None, 'ignored_type_group_special': None, 'ignored_type_group_raw': None, 'get_features_kwargs': None, 'get_features_kwargs_extra': None, 'predict_1_batch_size': None, 'temperature_scalar': None}</t>
+          <t>{'max_memory_usage_ratio': 1.0, 'max_time_limit_ratio': 1.0, 'max_time_limit': None, 'min_time_limit': 0, 'valid_raw_types': ['bool', 'int', 'float', 'category'], 'valid_special_types': None, 'ignored_type_group_special': None, 'ignored_type_group_raw': None, 'get_features_kwargs': None, 'get_features_kwargs_extra': None, 'predict_1_batch_size': None, 'temperature_scalar': None}</t>
         </is>
       </c>
       <c r="AN25" t="inlineStr">
@@ -4160,7 +4160,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>CatBoost_r86</t>
+          <t>CatBoost_r137</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -4170,37 +4170,37 @@
         <v>0.98</v>
       </c>
       <c r="D26" t="n">
-        <v>0.8387096774193549</v>
+        <v>0.9032258064516129</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F26" t="n">
-        <v>0.7058823529411765</v>
+        <v>0.8</v>
       </c>
       <c r="G26" t="n">
-        <v>0.7973856209150327</v>
+        <v>0.8680851063829788</v>
       </c>
       <c r="H26" t="n">
-        <v>0.8387096774193549</v>
+        <v>0.9032258064516129</v>
       </c>
       <c r="I26" t="n">
         <v>0.9150793650793649</v>
       </c>
       <c r="J26" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="K26" t="n">
         <v>1</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.2947636832747617</v>
+        <v>-0.2301713081469626</v>
       </c>
       <c r="M26" t="n">
-        <v>0.3423456260974903</v>
+        <v>0.4703508891219049</v>
       </c>
       <c r="N26" t="n">
-        <v>0.8311769520736912</v>
+        <v>0.8275110388382699</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -4208,22 +4208,22 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>0.006011247634887695</v>
+        <v>0.006003618240356445</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>1.554461002349854</v>
+        <v>0.8030149936676025</v>
       </c>
       <c r="S26" t="n">
-        <v>0.006011247634887695</v>
+        <v>0.006003618240356445</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>1.554461002349854</v>
+        <v>0.8030149936676025</v>
       </c>
       <c r="V26" t="n">
         <v>1</v>
@@ -4232,7 +4232,7 @@
         <v>1</v>
       </c>
       <c r="X26" t="n">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="Y26" t="n">
         <v>19</v>
@@ -4244,16 +4244,16 @@
         <v>1</v>
       </c>
       <c r="AB26" t="n">
-        <v>1246860</v>
+        <v>102997</v>
       </c>
       <c r="AC26" t="n">
-        <v>1246860</v>
+        <v>102997</v>
       </c>
       <c r="AD26" t="n">
-        <v>1246860</v>
+        <v>102997</v>
       </c>
       <c r="AE26" t="n">
-        <v>1246860</v>
+        <v>102997</v>
       </c>
       <c r="AF26" t="n">
         <v>0</v>
@@ -4274,12 +4274,12 @@
       </c>
       <c r="AK26" t="inlineStr">
         <is>
-          <t>{'iterations': 10000, 'learning_rate': 0.032899230324940465, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 8, 'grow_policy': 'SymmetricTree', 'l2_leaf_reg': 1.6376578537958237, 'max_ctr_complexity': 3, 'one_hot_max_size': 2}</t>
+          <t>{'iterations': 10000, 'learning_rate': 0.04939557741379516, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 4, 'grow_policy': 'SymmetricTree', 'l2_leaf_reg': 4.559174625782161, 'max_ctr_complexity': 3, 'one_hot_max_size': 3}</t>
         </is>
       </c>
       <c r="AL26" t="inlineStr">
         <is>
-          <t>{'iterations': 288}</t>
+          <t>{'iterations': 197}</t>
         </is>
       </c>
       <c r="AM26" t="inlineStr">
@@ -4310,7 +4310,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>CatBoost_r137</t>
+          <t>CatBoost_r86</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -4320,37 +4320,37 @@
         <v>0.98</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9032258064516129</v>
+        <v>0.8387096774193549</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="F27" t="n">
-        <v>0.8</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8680851063829788</v>
+        <v>0.7973856209150327</v>
       </c>
       <c r="H27" t="n">
-        <v>0.9032258064516129</v>
+        <v>0.8387096774193549</v>
       </c>
       <c r="I27" t="n">
         <v>0.9150793650793649</v>
       </c>
       <c r="J27" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="K27" t="n">
         <v>1</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.2301713081469626</v>
+        <v>-0.2947636832747617</v>
       </c>
       <c r="M27" t="n">
-        <v>0.4703508891219049</v>
+        <v>0.3423456260974903</v>
       </c>
       <c r="N27" t="n">
-        <v>0.8275110388382699</v>
+        <v>0.8311769520736912</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -4358,22 +4358,22 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>0.00601649284362793</v>
+        <v>0.006011247634887695</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>0.01603388786315918</v>
       </c>
       <c r="R27" t="n">
-        <v>0.6548087596893311</v>
+        <v>1.809513092041016</v>
       </c>
       <c r="S27" t="n">
-        <v>0.00601649284362793</v>
+        <v>0.006011247634887695</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>0.01603388786315918</v>
       </c>
       <c r="U27" t="n">
-        <v>0.6548087596893311</v>
+        <v>1.809513092041016</v>
       </c>
       <c r="V27" t="n">
         <v>1</v>
@@ -4382,7 +4382,7 @@
         <v>1</v>
       </c>
       <c r="X27" t="n">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="Y27" t="n">
         <v>19</v>
@@ -4394,16 +4394,16 @@
         <v>1</v>
       </c>
       <c r="AB27" t="n">
-        <v>102997</v>
+        <v>1246860</v>
       </c>
       <c r="AC27" t="n">
-        <v>102997</v>
+        <v>1246860</v>
       </c>
       <c r="AD27" t="n">
-        <v>102997</v>
+        <v>1246860</v>
       </c>
       <c r="AE27" t="n">
-        <v>102997</v>
+        <v>1246860</v>
       </c>
       <c r="AF27" t="n">
         <v>0</v>
@@ -4424,12 +4424,12 @@
       </c>
       <c r="AK27" t="inlineStr">
         <is>
-          <t>{'iterations': 10000, 'learning_rate': 0.04939557741379516, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 4, 'grow_policy': 'SymmetricTree', 'l2_leaf_reg': 4.559174625782161, 'max_ctr_complexity': 3, 'one_hot_max_size': 3}</t>
+          <t>{'iterations': 10000, 'learning_rate': 0.032899230324940465, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 8, 'grow_policy': 'SymmetricTree', 'l2_leaf_reg': 1.6376578537958237, 'max_ctr_complexity': 3, 'one_hot_max_size': 2}</t>
         </is>
       </c>
       <c r="AL27" t="inlineStr">
         <is>
-          <t>{'iterations': 197}</t>
+          <t>{'iterations': 288}</t>
         </is>
       </c>
       <c r="AM27" t="inlineStr">
@@ -4508,22 +4508,22 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>0.007792949676513672</v>
+        <v>0.007279396057128906</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>2.453082799911499</v>
+        <v>3.057461738586426</v>
       </c>
       <c r="S28" t="n">
-        <v>0.007792949676513672</v>
+        <v>0.007279396057128906</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>2.453082799911499</v>
+        <v>3.057461738586426</v>
       </c>
       <c r="V28" t="n">
         <v>1</v>
@@ -4610,7 +4610,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>CatBoost_r163</t>
+          <t>CatBoost_FULL</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -4620,60 +4620,54 @@
         <v>0.9733333333333334</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9032258064516129</v>
+        <v>0.8709677419354839</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="F29" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="G29" t="n">
-        <v>0.8680851063829788</v>
+        <v>0.8315217391304348</v>
       </c>
       <c r="H29" t="n">
-        <v>0.9032258064516129</v>
+        <v>0.8709677419354839</v>
       </c>
       <c r="I29" t="n">
         <v>0.9107142857142856</v>
       </c>
       <c r="J29" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6</v>
       </c>
       <c r="K29" t="n">
         <v>1</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.2776364092646451</v>
+        <v>-0.2389096871974981</v>
       </c>
       <c r="M29" t="n">
-        <v>0.3754860265187043</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0.8343226561879814</v>
-      </c>
+        <v>0.4525462518734661</v>
+      </c>
+      <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr">
         <is>
           <t>roc_auc</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
+        <v>0.004007816314697266</v>
+      </c>
+      <c r="Q29" t="inlineStr"/>
       <c r="R29" t="n">
-        <v>0.6487739086151123</v>
+        <v>0.4554026126861572</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
+        <v>0.004007816314697266</v>
+      </c>
+      <c r="T29" t="inlineStr"/>
       <c r="U29" t="n">
-        <v>0.6487739086151123</v>
+        <v>0.4554026126861572</v>
       </c>
       <c r="V29" t="n">
         <v>1</v>
@@ -4682,7 +4676,7 @@
         <v>1</v>
       </c>
       <c r="X29" t="n">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="Y29" t="n">
         <v>19</v>
@@ -4694,16 +4688,16 @@
         <v>1</v>
       </c>
       <c r="AB29" t="n">
-        <v>121581</v>
+        <v>286858</v>
       </c>
       <c r="AC29" t="n">
-        <v>121581</v>
+        <v>286858</v>
       </c>
       <c r="AD29" t="n">
-        <v>121581</v>
+        <v>286858</v>
       </c>
       <c r="AE29" t="n">
-        <v>121581</v>
+        <v>286858</v>
       </c>
       <c r="AF29" t="n">
         <v>0</v>
@@ -4724,17 +4718,17 @@
       </c>
       <c r="AK29" t="inlineStr">
         <is>
-          <t>{'iterations': 10000, 'learning_rate': 0.09328642499990342, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 5, 'grow_policy': 'SymmetricTree', 'l2_leaf_reg': 3.7454481983750014, 'max_ctr_complexity': 1, 'one_hot_max_size': 2}</t>
+          <t>{'iterations': 248, 'learning_rate': 0.05, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss'}</t>
         </is>
       </c>
       <c r="AL29" t="inlineStr">
         <is>
-          <t>{'iterations': 144}</t>
+          <t>{'iterations': 248}</t>
         </is>
       </c>
       <c r="AM29" t="inlineStr">
         <is>
-          <t>{'max_memory_usage_ratio': 1.0, 'max_time_limit_ratio': 1.0, 'max_time_limit': None, 'min_time_limit': 0, 'valid_raw_types': ['bool', 'int', 'float', 'category'], 'valid_special_types': None, 'ignored_type_group_special': None, 'ignored_type_group_raw': None, 'get_features_kwargs': None, 'get_features_kwargs_extra': None, 'predict_1_batch_size': None, 'temperature_scalar': None}</t>
+          <t>{'max_memory_usage_ratio': 1.15, 'max_time_limit_ratio': 1.0, 'max_time_limit': None, 'min_time_limit': 0, 'valid_raw_types': ['bool', 'int', 'float', 'category'], 'valid_special_types': None, 'ignored_type_group_special': None, 'ignored_type_group_raw': None, 'get_features_kwargs': None, 'get_features_kwargs_extra': None, 'predict_1_batch_size': None, 'temperature_scalar': None}</t>
         </is>
       </c>
       <c r="AN29" t="inlineStr">
@@ -4760,7 +4754,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>CatBoost_FULL</t>
+          <t>CatBoost_r163</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -4770,54 +4764,60 @@
         <v>0.9733333333333334</v>
       </c>
       <c r="D30" t="n">
-        <v>0.8709677419354839</v>
+        <v>0.9032258064516129</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9199999999999999</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F30" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8315217391304348</v>
+        <v>0.8680851063829788</v>
       </c>
       <c r="H30" t="n">
-        <v>0.8709677419354839</v>
+        <v>0.9032258064516129</v>
       </c>
       <c r="I30" t="n">
         <v>0.9107142857142856</v>
       </c>
       <c r="J30" t="n">
-        <v>0.6</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="K30" t="n">
         <v>1</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.2389096871974981</v>
+        <v>-0.2776364092646451</v>
       </c>
       <c r="M30" t="n">
-        <v>0.4525462518734661</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+        <v>0.3754860265187043</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.8343226561879814</v>
+      </c>
       <c r="O30" t="inlineStr">
         <is>
           <t>roc_auc</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q30" t="inlineStr"/>
+        <v>0.004008769989013672</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.001920461654663086</v>
+      </c>
       <c r="R30" t="n">
-        <v>0.3834245204925537</v>
+        <v>0.8887362480163574</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
-      </c>
-      <c r="T30" t="inlineStr"/>
+        <v>0.004008769989013672</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0.001920461654663086</v>
+      </c>
       <c r="U30" t="n">
-        <v>0.3834245204925537</v>
+        <v>0.8887362480163574</v>
       </c>
       <c r="V30" t="n">
         <v>1</v>
@@ -4826,7 +4826,7 @@
         <v>1</v>
       </c>
       <c r="X30" t="n">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="Y30" t="n">
         <v>19</v>
@@ -4838,16 +4838,16 @@
         <v>1</v>
       </c>
       <c r="AB30" t="n">
-        <v>286858</v>
+        <v>121581</v>
       </c>
       <c r="AC30" t="n">
-        <v>286858</v>
+        <v>121581</v>
       </c>
       <c r="AD30" t="n">
-        <v>286858</v>
+        <v>121581</v>
       </c>
       <c r="AE30" t="n">
-        <v>286858</v>
+        <v>121581</v>
       </c>
       <c r="AF30" t="n">
         <v>0</v>
@@ -4868,17 +4868,17 @@
       </c>
       <c r="AK30" t="inlineStr">
         <is>
-          <t>{'iterations': 248, 'learning_rate': 0.05, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss'}</t>
+          <t>{'iterations': 10000, 'learning_rate': 0.09328642499990342, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 5, 'grow_policy': 'SymmetricTree', 'l2_leaf_reg': 3.7454481983750014, 'max_ctr_complexity': 1, 'one_hot_max_size': 2}</t>
         </is>
       </c>
       <c r="AL30" t="inlineStr">
         <is>
-          <t>{'iterations': 248}</t>
+          <t>{'iterations': 144}</t>
         </is>
       </c>
       <c r="AM30" t="inlineStr">
         <is>
-          <t>{'max_memory_usage_ratio': 1.15, 'max_time_limit_ratio': 1.0, 'max_time_limit': None, 'min_time_limit': 0, 'valid_raw_types': ['bool', 'int', 'float', 'category'], 'valid_special_types': None, 'ignored_type_group_special': None, 'ignored_type_group_raw': None, 'get_features_kwargs': None, 'get_features_kwargs_extra': None, 'predict_1_batch_size': None, 'temperature_scalar': None}</t>
+          <t>{'max_memory_usage_ratio': 1.0, 'max_time_limit_ratio': 1.0, 'max_time_limit': None, 'min_time_limit': 0, 'valid_raw_types': ['bool', 'int', 'float', 'category'], 'valid_special_types': None, 'ignored_type_group_special': None, 'ignored_type_group_raw': None, 'get_features_kwargs': None, 'get_features_kwargs_extra': None, 'predict_1_batch_size': None, 'temperature_scalar': None}</t>
         </is>
       </c>
       <c r="AN30" t="inlineStr">
@@ -4952,22 +4952,22 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>0.003860235214233398</v>
+        <v>0.004675626754760742</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.002004861831665039</v>
+        <v>0.002882242202758789</v>
       </c>
       <c r="R31" t="n">
-        <v>0.3637359142303467</v>
+        <v>0.7092976570129395</v>
       </c>
       <c r="S31" t="n">
-        <v>0.003860235214233398</v>
+        <v>0.004675626754760742</v>
       </c>
       <c r="T31" t="n">
-        <v>0.002004861831665039</v>
+        <v>0.002882242202758789</v>
       </c>
       <c r="U31" t="n">
-        <v>0.3637359142303467</v>
+        <v>0.7092976570129395</v>
       </c>
       <c r="V31" t="n">
         <v>1</v>
@@ -5102,22 +5102,22 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>0.008388280868530273</v>
+        <v>0.009759902954101562</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.005796432495117188</v>
+        <v>0.003655910491943359</v>
       </c>
       <c r="R32" t="n">
-        <v>1.674755096435547</v>
+        <v>2.134095191955566</v>
       </c>
       <c r="S32" t="n">
-        <v>0.008388280868530273</v>
+        <v>0.009759902954101562</v>
       </c>
       <c r="T32" t="n">
-        <v>0.005796432495117188</v>
+        <v>0.003655910491943359</v>
       </c>
       <c r="U32" t="n">
-        <v>1.674755096435547</v>
+        <v>2.134095191955566</v>
       </c>
       <c r="V32" t="n">
         <v>1</v>
@@ -5250,18 +5250,18 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>0.004011392593383789</v>
+        <v>0.005017280578613281</v>
       </c>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="n">
-        <v>0.09061956405639648</v>
+        <v>0.1645584106445312</v>
       </c>
       <c r="S33" t="n">
-        <v>0.004011392593383789</v>
+        <v>0.005017280578613281</v>
       </c>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="n">
-        <v>0.09061956405639648</v>
+        <v>0.1645584106445312</v>
       </c>
       <c r="V33" t="n">
         <v>1</v>
@@ -5396,22 +5396,22 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>0.002806186676025391</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0.9187054634094238</v>
+        <v>1.20549464225769</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>0.002806186676025391</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0.9187054634094238</v>
+        <v>1.20549464225769</v>
       </c>
       <c r="V34" t="n">
         <v>1</v>
@@ -5546,22 +5546,22 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>0.01578307151794434</v>
+        <v>0.01656174659729004</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.01656651496887207</v>
+        <v>0.01001381874084473</v>
       </c>
       <c r="R35" t="n">
-        <v>2.520119905471802</v>
+        <v>3.153442144393921</v>
       </c>
       <c r="S35" t="n">
-        <v>0.01578307151794434</v>
+        <v>0.01656174659729004</v>
       </c>
       <c r="T35" t="n">
-        <v>0.01656651496887207</v>
+        <v>0.01001381874084473</v>
       </c>
       <c r="U35" t="n">
-        <v>2.520119905471802</v>
+        <v>3.153442144393921</v>
       </c>
       <c r="V35" t="n">
         <v>1</v>
@@ -5696,22 +5696,22 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>0.01950240135192871</v>
+        <v>0.01960635185241699</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.003098249435424805</v>
+        <v>0.004009246826171875</v>
       </c>
       <c r="R36" t="n">
-        <v>0.4635844230651855</v>
+        <v>0.6426296234130859</v>
       </c>
       <c r="S36" t="n">
-        <v>0.01950240135192871</v>
+        <v>0.01960635185241699</v>
       </c>
       <c r="T36" t="n">
-        <v>0.003098249435424805</v>
+        <v>0.004009246826171875</v>
       </c>
       <c r="U36" t="n">
-        <v>0.4635844230651855</v>
+        <v>0.6426296234130859</v>
       </c>
       <c r="V36" t="n">
         <v>1</v>
@@ -5844,18 +5844,18 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>0.06692194938659668</v>
+        <v>0.06965541839599609</v>
       </c>
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="n">
-        <v>0.7474772930145264</v>
+        <v>1.103786706924438</v>
       </c>
       <c r="S37" t="n">
-        <v>0.06692194938659668</v>
+        <v>0.06965541839599609</v>
       </c>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="n">
-        <v>0.7474772930145264</v>
+        <v>1.103786706924438</v>
       </c>
       <c r="V37" t="n">
         <v>1</v>
@@ -5942,7 +5942,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>CatBoost_r9_FULL</t>
+          <t>CatBoost_r180</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -5976,30 +5976,36 @@
         <v>1</v>
       </c>
       <c r="L38" t="n">
-        <v>-0.3948497159241537</v>
+        <v>-0.333132274059675</v>
       </c>
       <c r="M38" t="n">
-        <v>0.1596335898489925</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+        <v>0.2701324029161518</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.8358267497397932</v>
+      </c>
       <c r="O38" t="inlineStr">
         <is>
           <t>roc_auc</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>0.004006862640380859</v>
-      </c>
-      <c r="Q38" t="inlineStr"/>
+        <v>0.003998756408691406</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0.001748085021972656</v>
+      </c>
       <c r="R38" t="n">
-        <v>0.5705058574676514</v>
+        <v>2.342814683914185</v>
       </c>
       <c r="S38" t="n">
-        <v>0.004006862640380859</v>
-      </c>
-      <c r="T38" t="inlineStr"/>
+        <v>0.003998756408691406</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0.001748085021972656</v>
+      </c>
       <c r="U38" t="n">
-        <v>0.5705058574676514</v>
+        <v>2.342814683914185</v>
       </c>
       <c r="V38" t="n">
         <v>1</v>
@@ -6008,7 +6014,7 @@
         <v>1</v>
       </c>
       <c r="X38" t="n">
-        <v>125</v>
+        <v>87</v>
       </c>
       <c r="Y38" t="n">
         <v>19</v>
@@ -6020,16 +6026,16 @@
         <v>1</v>
       </c>
       <c r="AB38" t="n">
-        <v>591830</v>
+        <v>275185</v>
       </c>
       <c r="AC38" t="n">
-        <v>591830</v>
+        <v>275185</v>
       </c>
       <c r="AD38" t="n">
-        <v>591830</v>
+        <v>275185</v>
       </c>
       <c r="AE38" t="n">
-        <v>591830</v>
+        <v>275185</v>
       </c>
       <c r="AF38" t="n">
         <v>0</v>
@@ -6050,17 +6056,17 @@
       </c>
       <c r="AK38" t="inlineStr">
         <is>
-          <t>{'iterations': 127, 'learning_rate': 0.031375015734637225, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 8, 'grow_policy': 'Depthwise', 'l2_leaf_reg': 2.7997999596449104, 'max_ctr_complexity': 2, 'one_hot_max_size': 3}</t>
+          <t>{'iterations': 10000, 'learning_rate': 0.055406199833457785, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 7, 'grow_policy': 'Depthwise', 'l2_leaf_reg': 4.43335055453705, 'max_ctr_complexity': 5, 'one_hot_max_size': 10}</t>
         </is>
       </c>
       <c r="AL38" t="inlineStr">
         <is>
-          <t>{'iterations': 127}</t>
+          <t>{'iterations': 75}</t>
         </is>
       </c>
       <c r="AM38" t="inlineStr">
         <is>
-          <t>{'max_memory_usage_ratio': 1.15, 'max_time_limit_ratio': 1.0, 'max_time_limit': None, 'min_time_limit': 0, 'valid_raw_types': ['bool', 'int', 'float', 'category'], 'valid_special_types': None, 'ignored_type_group_special': None, 'ignored_type_group_raw': None, 'get_features_kwargs': None, 'get_features_kwargs_extra': None, 'predict_1_batch_size': None, 'temperature_scalar': None}</t>
+          <t>{'max_memory_usage_ratio': 1.0, 'max_time_limit_ratio': 1.0, 'max_time_limit': None, 'min_time_limit': 0, 'valid_raw_types': ['bool', 'int', 'float', 'category'], 'valid_special_types': None, 'ignored_type_group_special': None, 'ignored_type_group_raw': None, 'get_features_kwargs': None, 'get_features_kwargs_extra': None, 'predict_1_batch_size': None, 'temperature_scalar': None}</t>
         </is>
       </c>
       <c r="AN38" t="inlineStr">
@@ -6086,7 +6092,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>CatBoost_r180</t>
+          <t>CatBoost_r9_FULL</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -6120,36 +6126,30 @@
         <v>1</v>
       </c>
       <c r="L39" t="n">
-        <v>-0.333132274059675</v>
+        <v>-0.3948497159241537</v>
       </c>
       <c r="M39" t="n">
-        <v>0.2701324029161518</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0.8358267497397932</v>
-      </c>
+        <v>0.1596335898489925</v>
+      </c>
+      <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr">
         <is>
           <t>roc_auc</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>0.004008293151855469</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>0</v>
-      </c>
+        <v>0.004010677337646484</v>
+      </c>
+      <c r="Q39" t="inlineStr"/>
       <c r="R39" t="n">
-        <v>1.660541296005249</v>
+        <v>0.8207466602325439</v>
       </c>
       <c r="S39" t="n">
-        <v>0.004008293151855469</v>
-      </c>
-      <c r="T39" t="n">
-        <v>0</v>
-      </c>
+        <v>0.004010677337646484</v>
+      </c>
+      <c r="T39" t="inlineStr"/>
       <c r="U39" t="n">
-        <v>1.660541296005249</v>
+        <v>0.8207466602325439</v>
       </c>
       <c r="V39" t="n">
         <v>1</v>
@@ -6158,7 +6158,7 @@
         <v>1</v>
       </c>
       <c r="X39" t="n">
-        <v>87</v>
+        <v>125</v>
       </c>
       <c r="Y39" t="n">
         <v>19</v>
@@ -6170,16 +6170,16 @@
         <v>1</v>
       </c>
       <c r="AB39" t="n">
-        <v>275185</v>
+        <v>591830</v>
       </c>
       <c r="AC39" t="n">
-        <v>275185</v>
+        <v>591830</v>
       </c>
       <c r="AD39" t="n">
-        <v>275185</v>
+        <v>591830</v>
       </c>
       <c r="AE39" t="n">
-        <v>275185</v>
+        <v>591830</v>
       </c>
       <c r="AF39" t="n">
         <v>0</v>
@@ -6200,17 +6200,17 @@
       </c>
       <c r="AK39" t="inlineStr">
         <is>
-          <t>{'iterations': 10000, 'learning_rate': 0.055406199833457785, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 7, 'grow_policy': 'Depthwise', 'l2_leaf_reg': 4.43335055453705, 'max_ctr_complexity': 5, 'one_hot_max_size': 10}</t>
+          <t>{'iterations': 127, 'learning_rate': 0.031375015734637225, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 8, 'grow_policy': 'Depthwise', 'l2_leaf_reg': 2.7997999596449104, 'max_ctr_complexity': 2, 'one_hot_max_size': 3}</t>
         </is>
       </c>
       <c r="AL39" t="inlineStr">
         <is>
-          <t>{'iterations': 75}</t>
+          <t>{'iterations': 127}</t>
         </is>
       </c>
       <c r="AM39" t="inlineStr">
         <is>
-          <t>{'max_memory_usage_ratio': 1.0, 'max_time_limit_ratio': 1.0, 'max_time_limit': None, 'min_time_limit': 0, 'valid_raw_types': ['bool', 'int', 'float', 'category'], 'valid_special_types': None, 'ignored_type_group_special': None, 'ignored_type_group_raw': None, 'get_features_kwargs': None, 'get_features_kwargs_extra': None, 'predict_1_batch_size': None, 'temperature_scalar': None}</t>
+          <t>{'max_memory_usage_ratio': 1.15, 'max_time_limit_ratio': 1.0, 'max_time_limit': None, 'min_time_limit': 0, 'valid_raw_types': ['bool', 'int', 'float', 'category'], 'valid_special_types': None, 'ignored_type_group_special': None, 'ignored_type_group_raw': None, 'get_features_kwargs': None, 'get_features_kwargs_extra': None, 'predict_1_batch_size': None, 'temperature_scalar': None}</t>
         </is>
       </c>
       <c r="AN39" t="inlineStr">
@@ -6282,18 +6282,18 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>0.00613856315612793</v>
+        <v>0.006322860717773438</v>
       </c>
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="n">
-        <v>0.05394482612609863</v>
+        <v>0.163215160369873</v>
       </c>
       <c r="S40" t="n">
-        <v>0.00613856315612793</v>
+        <v>0.006322860717773438</v>
       </c>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="n">
-        <v>0.05394482612609863</v>
+        <v>0.163215160369873</v>
       </c>
       <c r="V40" t="n">
         <v>1</v>
@@ -6426,18 +6426,18 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>0.01580071449279785</v>
+        <v>0.01659083366394043</v>
       </c>
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="n">
-        <v>1.128669500350952</v>
+        <v>1.484311580657959</v>
       </c>
       <c r="S41" t="n">
-        <v>0.01580071449279785</v>
+        <v>0.01659083366394043</v>
       </c>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="n">
-        <v>1.128669500350952</v>
+        <v>1.484311580657959</v>
       </c>
       <c r="V41" t="n">
         <v>1</v>
@@ -6570,18 +6570,18 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>0.06645727157592773</v>
+        <v>0.08454990386962891</v>
       </c>
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="n">
-        <v>0.8029072284698486</v>
+        <v>0.8681011199951172</v>
       </c>
       <c r="S42" t="n">
-        <v>0.06645727157592773</v>
+        <v>0.08454990386962891</v>
       </c>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="n">
-        <v>0.8029072284698486</v>
+        <v>0.8681011199951172</v>
       </c>
       <c r="V42" t="n">
         <v>1</v>
@@ -6716,22 +6716,22 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>0.004007101058959961</v>
+        <v>0.005753517150878906</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>0.004654884338378906</v>
       </c>
       <c r="R43" t="n">
-        <v>0.6928577423095703</v>
+        <v>0.829815149307251</v>
       </c>
       <c r="S43" t="n">
-        <v>0.004007101058959961</v>
+        <v>0.005753517150878906</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>0.004654884338378906</v>
       </c>
       <c r="U43" t="n">
-        <v>0.6928577423095703</v>
+        <v>0.829815149307251</v>
       </c>
       <c r="V43" t="n">
         <v>1</v>
@@ -6866,22 +6866,22 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>0.00977015495300293</v>
+        <v>0.01132321357727051</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>0.01001858711242676</v>
       </c>
       <c r="R44" t="n">
-        <v>0.4190998077392578</v>
+        <v>0.596280574798584</v>
       </c>
       <c r="S44" t="n">
-        <v>0.00977015495300293</v>
+        <v>0.01132321357727051</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>0.01001858711242676</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4190998077392578</v>
+        <v>0.596280574798584</v>
       </c>
       <c r="V44" t="n">
         <v>1</v>
@@ -7016,22 +7016,22 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>0.02067279815673828</v>
+        <v>0.0124356746673584</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.002002716064453125</v>
+        <v>0.004014253616333008</v>
       </c>
       <c r="R45" t="n">
-        <v>0.2684586048126221</v>
+        <v>0.3294944763183594</v>
       </c>
       <c r="S45" t="n">
-        <v>0.02067279815673828</v>
+        <v>0.0124356746673584</v>
       </c>
       <c r="T45" t="n">
-        <v>0.002002716064453125</v>
+        <v>0.004014253616333008</v>
       </c>
       <c r="U45" t="n">
-        <v>0.2684586048126221</v>
+        <v>0.3294944763183594</v>
       </c>
       <c r="V45" t="n">
         <v>1</v>
@@ -7164,18 +7164,18 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>0.06488990783691406</v>
+        <v>0.0846550464630127</v>
       </c>
       <c r="Q46" t="inlineStr"/>
       <c r="R46" t="n">
-        <v>0.5607149600982666</v>
+        <v>0.7202560901641846</v>
       </c>
       <c r="S46" t="n">
-        <v>0.06488990783691406</v>
+        <v>0.0846550464630127</v>
       </c>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="n">
-        <v>0.5607149600982666</v>
+        <v>0.7202560901641846</v>
       </c>
       <c r="V46" t="n">
         <v>1</v>
@@ -7308,18 +7308,18 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>0.008526325225830078</v>
+        <v>0.009771585464477539</v>
       </c>
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="n">
-        <v>0.05783891677856445</v>
+        <v>0.08749294281005859</v>
       </c>
       <c r="S47" t="n">
-        <v>0.008526325225830078</v>
+        <v>0.009771585464477539</v>
       </c>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="n">
-        <v>0.05783891677856445</v>
+        <v>0.08749294281005859</v>
       </c>
       <c r="V47" t="n">
         <v>1</v>
@@ -7406,7 +7406,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>XGBoost_r194_FULL</t>
+          <t>XGBoost_r33_FULL</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -7416,34 +7416,34 @@
         <v>0.96</v>
       </c>
       <c r="D48" t="n">
-        <v>0.8387096774193549</v>
+        <v>0.8709677419354839</v>
       </c>
       <c r="E48" t="n">
-        <v>0.8366666666666667</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="F48" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.75</v>
       </c>
       <c r="G48" t="n">
-        <v>0.7801418439716312</v>
+        <v>0.8315217391304348</v>
       </c>
       <c r="H48" t="n">
-        <v>0.8387096774193549</v>
+        <v>0.8709677419354839</v>
       </c>
       <c r="I48" t="n">
         <v>0.8722222222222222</v>
       </c>
       <c r="J48" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.6</v>
       </c>
       <c r="K48" t="n">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="L48" t="n">
-        <v>-0.2857532219469382</v>
+        <v>-0.2519411211170032</v>
       </c>
       <c r="M48" t="n">
-        <v>0.3597094313618984</v>
+        <v>0.4262819705427656</v>
       </c>
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr">
@@ -7452,18 +7452,18 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>0.009761571884155273</v>
+        <v>0.01203179359436035</v>
       </c>
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="n">
-        <v>0.05728244781494141</v>
+        <v>0.2721116542816162</v>
       </c>
       <c r="S48" t="n">
-        <v>0.009761571884155273</v>
+        <v>0.01203179359436035</v>
       </c>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="n">
-        <v>0.05728244781494141</v>
+        <v>0.2721116542816162</v>
       </c>
       <c r="V48" t="n">
         <v>1</v>
@@ -7472,7 +7472,7 @@
         <v>1</v>
       </c>
       <c r="X48" t="n">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="Y48" t="n">
         <v>19</v>
@@ -7484,16 +7484,16 @@
         <v>1</v>
       </c>
       <c r="AB48" t="n">
-        <v>109294</v>
+        <v>481055</v>
       </c>
       <c r="AC48" t="n">
-        <v>109294</v>
+        <v>481055</v>
       </c>
       <c r="AD48" t="n">
-        <v>109294</v>
+        <v>481055</v>
       </c>
       <c r="AE48" t="n">
-        <v>109294</v>
+        <v>481055</v>
       </c>
       <c r="AF48" t="n">
         <v>0</v>
@@ -7514,7 +7514,7 @@
       </c>
       <c r="AK48" t="inlineStr">
         <is>
-          <t>{'n_estimators': 71, 'learning_rate': 0.09290221350439203, 'n_jobs': -1, 'proc.max_category_levels': 100, 'objective': 'binary:logistic', 'booster': 'gbtree', 'colsample_bytree': 0.9090166528779192, 'enable_categorical': True, 'max_depth': 7, 'min_child_weight': 0.8041986915994078}</t>
+          <t>{'n_estimators': 280, 'learning_rate': 0.018063876087523967, 'n_jobs': -1, 'proc.max_category_levels': 100, 'objective': 'binary:logistic', 'booster': 'gbtree', 'colsample_bytree': 0.6917311125174739, 'enable_categorical': False, 'max_depth': 10, 'min_child_weight': 0.6028633586934382}</t>
         </is>
       </c>
       <c r="AL48" t="inlineStr">
@@ -7550,7 +7550,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>XGBoost_r33_FULL</t>
+          <t>XGBoost_r194_FULL</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -7560,34 +7560,34 @@
         <v>0.96</v>
       </c>
       <c r="D49" t="n">
-        <v>0.8709677419354839</v>
+        <v>0.8387096774193549</v>
       </c>
       <c r="E49" t="n">
-        <v>0.9199999999999999</v>
+        <v>0.8366666666666667</v>
       </c>
       <c r="F49" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G49" t="n">
-        <v>0.8315217391304348</v>
+        <v>0.7801418439716312</v>
       </c>
       <c r="H49" t="n">
-        <v>0.8709677419354839</v>
+        <v>0.8387096774193549</v>
       </c>
       <c r="I49" t="n">
         <v>0.8722222222222222</v>
       </c>
       <c r="J49" t="n">
-        <v>0.6</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="K49" t="n">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L49" t="n">
-        <v>-0.2519411211170032</v>
+        <v>-0.2857532219469382</v>
       </c>
       <c r="M49" t="n">
-        <v>0.4262819705427656</v>
+        <v>0.3597094313618984</v>
       </c>
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr">
@@ -7596,18 +7596,18 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>0.01177024841308594</v>
+        <v>0.01377034187316895</v>
       </c>
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="n">
-        <v>0.1506502628326416</v>
+        <v>0.1327383518218994</v>
       </c>
       <c r="S49" t="n">
-        <v>0.01177024841308594</v>
+        <v>0.01377034187316895</v>
       </c>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="n">
-        <v>0.1506502628326416</v>
+        <v>0.1327383518218994</v>
       </c>
       <c r="V49" t="n">
         <v>1</v>
@@ -7616,7 +7616,7 @@
         <v>1</v>
       </c>
       <c r="X49" t="n">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="Y49" t="n">
         <v>19</v>
@@ -7628,16 +7628,16 @@
         <v>1</v>
       </c>
       <c r="AB49" t="n">
-        <v>481055</v>
+        <v>109294</v>
       </c>
       <c r="AC49" t="n">
-        <v>481055</v>
+        <v>109294</v>
       </c>
       <c r="AD49" t="n">
-        <v>481055</v>
+        <v>109294</v>
       </c>
       <c r="AE49" t="n">
-        <v>481055</v>
+        <v>109294</v>
       </c>
       <c r="AF49" t="n">
         <v>0</v>
@@ -7658,7 +7658,7 @@
       </c>
       <c r="AK49" t="inlineStr">
         <is>
-          <t>{'n_estimators': 280, 'learning_rate': 0.018063876087523967, 'n_jobs': -1, 'proc.max_category_levels': 100, 'objective': 'binary:logistic', 'booster': 'gbtree', 'colsample_bytree': 0.6917311125174739, 'enable_categorical': False, 'max_depth': 10, 'min_child_weight': 0.6028633586934382}</t>
+          <t>{'n_estimators': 71, 'learning_rate': 0.09290221350439203, 'n_jobs': -1, 'proc.max_category_levels': 100, 'objective': 'binary:logistic', 'booster': 'gbtree', 'colsample_bytree': 0.9090166528779192, 'enable_categorical': True, 'max_depth': 7, 'min_child_weight': 0.8041986915994078}</t>
         </is>
       </c>
       <c r="AL49" t="inlineStr">
@@ -7742,22 +7742,22 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>0.0197908878326416</v>
+        <v>0.01992964744567871</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.004007339477539062</v>
+        <v>0.002005100250244141</v>
       </c>
       <c r="R50" t="n">
-        <v>0.4154047966003418</v>
+        <v>0.5885369777679443</v>
       </c>
       <c r="S50" t="n">
-        <v>0.0197908878326416</v>
+        <v>0.01992964744567871</v>
       </c>
       <c r="T50" t="n">
-        <v>0.004007339477539062</v>
+        <v>0.002005100250244141</v>
       </c>
       <c r="U50" t="n">
-        <v>0.4154047966003418</v>
+        <v>0.5885369777679443</v>
       </c>
       <c r="V50" t="n">
         <v>1</v>
@@ -7892,22 +7892,22 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>0.01402401924133301</v>
+        <v>0.01328730583190918</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.001747846603393555</v>
+        <v>0.001952886581420898</v>
       </c>
       <c r="R51" t="n">
-        <v>2.415143489837646</v>
+        <v>2.998394727706909</v>
       </c>
       <c r="S51" t="n">
-        <v>0.01402401924133301</v>
+        <v>0.01328730583190918</v>
       </c>
       <c r="T51" t="n">
-        <v>0.001747846603393555</v>
+        <v>0.001952886581420898</v>
       </c>
       <c r="U51" t="n">
-        <v>2.415143489837646</v>
+        <v>2.998394727706909</v>
       </c>
       <c r="V51" t="n">
         <v>1</v>
@@ -8040,18 +8040,18 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>0.007128000259399414</v>
+        <v>0.01303434371948242</v>
       </c>
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="n">
-        <v>1.475081443786621</v>
+        <v>1.923340082168579</v>
       </c>
       <c r="S52" t="n">
-        <v>0.007128000259399414</v>
+        <v>0.01303434371948242</v>
       </c>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="n">
-        <v>1.475081443786621</v>
+        <v>1.923340082168579</v>
       </c>
       <c r="V52" t="n">
         <v>1</v>
@@ -8186,22 +8186,22 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>0.01578259468078613</v>
+        <v>0.01756048202514648</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.009028196334838867</v>
+        <v>0.006971120834350586</v>
       </c>
       <c r="R53" t="n">
-        <v>0.2616469860076904</v>
+        <v>0.3755867481231689</v>
       </c>
       <c r="S53" t="n">
-        <v>0.01578259468078613</v>
+        <v>0.01756048202514648</v>
       </c>
       <c r="T53" t="n">
-        <v>0.009028196334838867</v>
+        <v>0.006971120834350586</v>
       </c>
       <c r="U53" t="n">
-        <v>0.2616469860076904</v>
+        <v>0.3755867481231689</v>
       </c>
       <c r="V53" t="n">
         <v>1</v>
@@ -8336,22 +8336,22 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>0.004007101058959961</v>
+        <v>0.004312753677368164</v>
       </c>
       <c r="Q54" t="n">
-        <v>0</v>
+        <v>0.003393888473510742</v>
       </c>
       <c r="R54" t="n">
-        <v>1.282434225082397</v>
+        <v>1.673854351043701</v>
       </c>
       <c r="S54" t="n">
-        <v>0.004007101058959961</v>
+        <v>0.004312753677368164</v>
       </c>
       <c r="T54" t="n">
-        <v>0</v>
+        <v>0.003393888473510742</v>
       </c>
       <c r="U54" t="n">
-        <v>1.282434225082397</v>
+        <v>1.673854351043701</v>
       </c>
       <c r="V54" t="n">
         <v>1</v>
@@ -8484,18 +8484,18 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>0.004011392593383789</v>
+        <v>0.006406784057617188</v>
       </c>
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="n">
-        <v>0.1510186195373535</v>
+        <v>0.2077507972717285</v>
       </c>
       <c r="S55" t="n">
-        <v>0.004011392593383789</v>
+        <v>0.006406784057617188</v>
       </c>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="n">
-        <v>0.1510186195373535</v>
+        <v>0.2077507972717285</v>
       </c>
       <c r="V55" t="n">
         <v>1</v>
@@ -8628,18 +8628,18 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>0.01244401931762695</v>
+        <v>0.008933782577514648</v>
       </c>
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="n">
-        <v>0.06028890609741211</v>
+        <v>0.1004743576049805</v>
       </c>
       <c r="S56" t="n">
-        <v>0.01244401931762695</v>
+        <v>0.008933782577514648</v>
       </c>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="n">
-        <v>0.06028890609741211</v>
+        <v>0.1004743576049805</v>
       </c>
       <c r="V56" t="n">
         <v>1</v>
@@ -8772,18 +8772,18 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>0.007759809494018555</v>
+        <v>0.008016109466552734</v>
       </c>
       <c r="Q57" t="inlineStr"/>
       <c r="R57" t="n">
-        <v>0.2566616535186768</v>
+        <v>0.2691192626953125</v>
       </c>
       <c r="S57" t="n">
-        <v>0.007759809494018555</v>
+        <v>0.008016109466552734</v>
       </c>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="n">
-        <v>0.2566616535186768</v>
+        <v>0.2691192626953125</v>
       </c>
       <c r="V57" t="n">
         <v>1</v>
@@ -8916,18 +8916,18 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>0.06554222106933594</v>
+        <v>0.07956075668334961</v>
       </c>
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="n">
-        <v>0.8254733085632324</v>
+        <v>1.032710790634155</v>
       </c>
       <c r="S58" t="n">
-        <v>0.06554222106933594</v>
+        <v>0.07956075668334961</v>
       </c>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="n">
-        <v>0.8254733085632324</v>
+        <v>1.032710790634155</v>
       </c>
       <c r="V58" t="n">
         <v>1</v>
@@ -9014,7 +9014,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>LightGBM_r15</t>
+          <t>CatBoost_r180_FULL</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -9048,36 +9048,30 @@
         <v>1</v>
       </c>
       <c r="L59" t="n">
-        <v>-0.3432066333575872</v>
+        <v>-0.4017760242986598</v>
       </c>
       <c r="M59" t="n">
-        <v>0.251626211737014</v>
-      </c>
-      <c r="N59" t="n">
-        <v>0.8349530744596535</v>
-      </c>
+        <v>0.1476531246612537</v>
+      </c>
+      <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr">
         <is>
           <t>roc_auc</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>0.004009008407592773</v>
-      </c>
-      <c r="Q59" t="n">
-        <v>0</v>
-      </c>
+        <v>0.003284692764282227</v>
+      </c>
+      <c r="Q59" t="inlineStr"/>
       <c r="R59" t="n">
-        <v>0.3162355422973633</v>
+        <v>0.3430399894714355</v>
       </c>
       <c r="S59" t="n">
-        <v>0.004009008407592773</v>
-      </c>
-      <c r="T59" t="n">
-        <v>0</v>
-      </c>
+        <v>0.003284692764282227</v>
+      </c>
+      <c r="T59" t="inlineStr"/>
       <c r="U59" t="n">
-        <v>0.3162355422973633</v>
+        <v>0.3430399894714355</v>
       </c>
       <c r="V59" t="n">
         <v>1</v>
@@ -9086,7 +9080,7 @@
         <v>1</v>
       </c>
       <c r="X59" t="n">
-        <v>48</v>
+        <v>196</v>
       </c>
       <c r="Y59" t="n">
         <v>19</v>
@@ -9098,16 +9092,16 @@
         <v>1</v>
       </c>
       <c r="AB59" t="n">
-        <v>382933</v>
+        <v>256266</v>
       </c>
       <c r="AC59" t="n">
-        <v>382933</v>
+        <v>256266</v>
       </c>
       <c r="AD59" t="n">
-        <v>382933</v>
+        <v>256266</v>
       </c>
       <c r="AE59" t="n">
-        <v>382933</v>
+        <v>256266</v>
       </c>
       <c r="AF59" t="n">
         <v>0</v>
@@ -9117,7 +9111,7 @@
       </c>
       <c r="AH59" t="inlineStr">
         <is>
-          <t>LGBModel</t>
+          <t>CatBoostModel</t>
         </is>
       </c>
       <c r="AI59" t="inlineStr"/>
@@ -9128,17 +9122,17 @@
       </c>
       <c r="AK59" t="inlineStr">
         <is>
-          <t>{'learning_rate': 0.018603888565740096, 'extra_trees': False, 'feature_fraction': 0.7421180622507277, 'min_data_in_leaf': 6, 'num_leaves': 22}</t>
+          <t>{'iterations': 75, 'learning_rate': 0.055406199833457785, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 7, 'grow_policy': 'Depthwise', 'l2_leaf_reg': 4.43335055453705, 'max_ctr_complexity': 5, 'one_hot_max_size': 10}</t>
         </is>
       </c>
       <c r="AL59" t="inlineStr">
         <is>
-          <t>{'num_boost_round': 152}</t>
+          <t>{'iterations': 75}</t>
         </is>
       </c>
       <c r="AM59" t="inlineStr">
         <is>
-          <t>{'max_memory_usage_ratio': 1.0, 'max_time_limit_ratio': 1.0, 'max_time_limit': None, 'min_time_limit': 0, 'valid_raw_types': ['bool', 'int', 'float', 'category'], 'valid_special_types': None, 'ignored_type_group_special': None, 'ignored_type_group_raw': None, 'get_features_kwargs': None, 'get_features_kwargs_extra': None, 'predict_1_batch_size': None, 'temperature_scalar': None}</t>
+          <t>{'max_memory_usage_ratio': 1.15, 'max_time_limit_ratio': 1.0, 'max_time_limit': None, 'min_time_limit': 0, 'valid_raw_types': ['bool', 'int', 'float', 'category'], 'valid_special_types': None, 'ignored_type_group_special': None, 'ignored_type_group_raw': None, 'get_features_kwargs': None, 'get_features_kwargs_extra': None, 'predict_1_batch_size': None, 'temperature_scalar': None}</t>
         </is>
       </c>
       <c r="AN59" t="inlineStr">
@@ -9164,7 +9158,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>CatBoost_r180_FULL</t>
+          <t>LightGBM_r15</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -9198,30 +9192,36 @@
         <v>1</v>
       </c>
       <c r="L60" t="n">
-        <v>-0.4017760242986598</v>
+        <v>-0.3432066333575872</v>
       </c>
       <c r="M60" t="n">
-        <v>0.1476531246612537</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+        <v>0.251626211737014</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.8349530744596535</v>
+      </c>
       <c r="O60" t="inlineStr">
         <is>
           <t>roc_auc</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>0.004009723663330078</v>
-      </c>
-      <c r="Q60" t="inlineStr"/>
+        <v>0.006011724472045898</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>0.003749608993530273</v>
+      </c>
       <c r="R60" t="n">
-        <v>0.2618625164031982</v>
+        <v>0.4402046203613281</v>
       </c>
       <c r="S60" t="n">
-        <v>0.004009723663330078</v>
-      </c>
-      <c r="T60" t="inlineStr"/>
+        <v>0.006011724472045898</v>
+      </c>
+      <c r="T60" t="n">
+        <v>0.003749608993530273</v>
+      </c>
       <c r="U60" t="n">
-        <v>0.2618625164031982</v>
+        <v>0.4402046203613281</v>
       </c>
       <c r="V60" t="n">
         <v>1</v>
@@ -9230,7 +9230,7 @@
         <v>1</v>
       </c>
       <c r="X60" t="n">
-        <v>196</v>
+        <v>48</v>
       </c>
       <c r="Y60" t="n">
         <v>19</v>
@@ -9242,16 +9242,16 @@
         <v>1</v>
       </c>
       <c r="AB60" t="n">
-        <v>256266</v>
+        <v>382933</v>
       </c>
       <c r="AC60" t="n">
-        <v>256266</v>
+        <v>382933</v>
       </c>
       <c r="AD60" t="n">
-        <v>256266</v>
+        <v>382933</v>
       </c>
       <c r="AE60" t="n">
-        <v>256266</v>
+        <v>382933</v>
       </c>
       <c r="AF60" t="n">
         <v>0</v>
@@ -9261,7 +9261,7 @@
       </c>
       <c r="AH60" t="inlineStr">
         <is>
-          <t>CatBoostModel</t>
+          <t>LGBModel</t>
         </is>
       </c>
       <c r="AI60" t="inlineStr"/>
@@ -9272,17 +9272,17 @@
       </c>
       <c r="AK60" t="inlineStr">
         <is>
-          <t>{'iterations': 75, 'learning_rate': 0.055406199833457785, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 7, 'grow_policy': 'Depthwise', 'l2_leaf_reg': 4.43335055453705, 'max_ctr_complexity': 5, 'one_hot_max_size': 10}</t>
+          <t>{'learning_rate': 0.018603888565740096, 'extra_trees': False, 'feature_fraction': 0.7421180622507277, 'min_data_in_leaf': 6, 'num_leaves': 22}</t>
         </is>
       </c>
       <c r="AL60" t="inlineStr">
         <is>
-          <t>{'iterations': 75}</t>
+          <t>{'num_boost_round': 152}</t>
         </is>
       </c>
       <c r="AM60" t="inlineStr">
         <is>
-          <t>{'max_memory_usage_ratio': 1.15, 'max_time_limit_ratio': 1.0, 'max_time_limit': None, 'min_time_limit': 0, 'valid_raw_types': ['bool', 'int', 'float', 'category'], 'valid_special_types': None, 'ignored_type_group_special': None, 'ignored_type_group_raw': None, 'get_features_kwargs': None, 'get_features_kwargs_extra': None, 'predict_1_batch_size': None, 'temperature_scalar': None}</t>
+          <t>{'max_memory_usage_ratio': 1.0, 'max_time_limit_ratio': 1.0, 'max_time_limit': None, 'min_time_limit': 0, 'valid_raw_types': ['bool', 'int', 'float', 'category'], 'valid_special_types': None, 'ignored_type_group_special': None, 'ignored_type_group_raw': None, 'get_features_kwargs': None, 'get_features_kwargs_extra': None, 'predict_1_batch_size': None, 'temperature_scalar': None}</t>
         </is>
       </c>
       <c r="AN60" t="inlineStr">
@@ -9356,22 +9356,22 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>0.01069474220275879</v>
+        <v>0.01198768615722656</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.004005908966064453</v>
+        <v>0.001744985580444336</v>
       </c>
       <c r="R61" t="n">
-        <v>0.2413549423217773</v>
+        <v>0.3594434261322021</v>
       </c>
       <c r="S61" t="n">
-        <v>0.01069474220275879</v>
+        <v>0.01198768615722656</v>
       </c>
       <c r="T61" t="n">
-        <v>0.004005908966064453</v>
+        <v>0.001744985580444336</v>
       </c>
       <c r="U61" t="n">
-        <v>0.2413549423217773</v>
+        <v>0.3594434261322021</v>
       </c>
       <c r="V61" t="n">
         <v>1</v>
@@ -9506,22 +9506,22 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>0.01177692413330078</v>
+        <v>0.01294779777526855</v>
       </c>
       <c r="Q62" t="n">
-        <v>0.0198667049407959</v>
+        <v>0.008013486862182617</v>
       </c>
       <c r="R62" t="n">
-        <v>0.3133447170257568</v>
+        <v>0.5017435550689697</v>
       </c>
       <c r="S62" t="n">
-        <v>0.01177692413330078</v>
+        <v>0.01294779777526855</v>
       </c>
       <c r="T62" t="n">
-        <v>0.0198667049407959</v>
+        <v>0.008013486862182617</v>
       </c>
       <c r="U62" t="n">
-        <v>0.3133447170257568</v>
+        <v>0.5017435550689697</v>
       </c>
       <c r="V62" t="n">
         <v>1</v>
@@ -9656,22 +9656,22 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>0.03758120536804199</v>
+        <v>0.03673863410949707</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.003752470016479492</v>
+        <v>0.002005577087402344</v>
       </c>
       <c r="R63" t="n">
-        <v>0.8627877235412598</v>
+        <v>1.27215313911438</v>
       </c>
       <c r="S63" t="n">
-        <v>0.03758120536804199</v>
+        <v>0.03673863410949707</v>
       </c>
       <c r="T63" t="n">
-        <v>0.003752470016479492</v>
+        <v>0.002005577087402344</v>
       </c>
       <c r="U63" t="n">
-        <v>0.8627877235412598</v>
+        <v>1.27215313911438</v>
       </c>
       <c r="V63" t="n">
         <v>1</v>
@@ -9806,22 +9806,22 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>0.004011869430541992</v>
+        <v>0.004011631011962891</v>
       </c>
       <c r="Q64" t="n">
-        <v>0</v>
+        <v>0.001181602478027344</v>
       </c>
       <c r="R64" t="n">
-        <v>1.025555849075317</v>
+        <v>1.440057039260864</v>
       </c>
       <c r="S64" t="n">
-        <v>0.004011869430541992</v>
+        <v>0.004011631011962891</v>
       </c>
       <c r="T64" t="n">
-        <v>0</v>
+        <v>0.001181602478027344</v>
       </c>
       <c r="U64" t="n">
-        <v>1.025555849075317</v>
+        <v>1.440057039260864</v>
       </c>
       <c r="V64" t="n">
         <v>1</v>
@@ -9954,18 +9954,18 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>0.006013870239257812</v>
+        <v>0.009521722793579102</v>
       </c>
       <c r="Q65" t="inlineStr"/>
       <c r="R65" t="n">
-        <v>0.2402396202087402</v>
+        <v>0.3732903003692627</v>
       </c>
       <c r="S65" t="n">
-        <v>0.006013870239257812</v>
+        <v>0.009521722793579102</v>
       </c>
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="n">
-        <v>0.2402396202087402</v>
+        <v>0.3732903003692627</v>
       </c>
       <c r="V65" t="n">
         <v>1</v>
@@ -10098,18 +10098,18 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>0.01203346252441406</v>
+        <v>0.01349353790283203</v>
       </c>
       <c r="Q66" t="inlineStr"/>
       <c r="R66" t="n">
-        <v>0.4043009281158447</v>
+        <v>0.5883090496063232</v>
       </c>
       <c r="S66" t="n">
-        <v>0.01203346252441406</v>
+        <v>0.01349353790283203</v>
       </c>
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="n">
-        <v>0.4043009281158447</v>
+        <v>0.5883090496063232</v>
       </c>
       <c r="V66" t="n">
         <v>1</v>
@@ -10244,22 +10244,22 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>0.01376938819885254</v>
+        <v>0.01423549652099609</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.004007816314697266</v>
+        <v>0.004012584686279297</v>
       </c>
       <c r="R67" t="n">
-        <v>0.2539901733398438</v>
+        <v>0.2980682849884033</v>
       </c>
       <c r="S67" t="n">
-        <v>0.01376938819885254</v>
+        <v>0.01423549652099609</v>
       </c>
       <c r="T67" t="n">
-        <v>0.004007816314697266</v>
+        <v>0.004012584686279297</v>
       </c>
       <c r="U67" t="n">
-        <v>0.2539901733398438</v>
+        <v>0.2980682849884033</v>
       </c>
       <c r="V67" t="n">
         <v>1</v>
@@ -10394,22 +10394,22 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>0.01577425003051758</v>
+        <v>0.01619625091552734</v>
       </c>
       <c r="Q68" t="n">
-        <v>0.002002954483032227</v>
+        <v>0.004716396331787109</v>
       </c>
       <c r="R68" t="n">
-        <v>0.4036750793457031</v>
+        <v>0.5140392780303955</v>
       </c>
       <c r="S68" t="n">
-        <v>0.01577425003051758</v>
+        <v>0.01619625091552734</v>
       </c>
       <c r="T68" t="n">
-        <v>0.002002954483032227</v>
+        <v>0.004716396331787109</v>
       </c>
       <c r="U68" t="n">
-        <v>0.4036750793457031</v>
+        <v>0.5140392780303955</v>
       </c>
       <c r="V68" t="n">
         <v>1</v>
@@ -10496,7 +10496,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>NeuralNetTorch_r121</t>
+          <t>CatBoost_r50</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -10506,37 +10506,37 @@
         <v>0.9666666666666667</v>
       </c>
       <c r="D69" t="n">
-        <v>0.9032258064516129</v>
+        <v>0.8709677419354839</v>
       </c>
       <c r="E69" t="n">
-        <v>0.8766666666666667</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="F69" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.75</v>
       </c>
       <c r="G69" t="n">
-        <v>0.8540031397174255</v>
+        <v>0.8315217391304348</v>
       </c>
       <c r="H69" t="n">
-        <v>0.9032258064516129</v>
+        <v>0.8709677419354839</v>
       </c>
       <c r="I69" t="n">
         <v>0.8555555555555555</v>
       </c>
       <c r="J69" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.6</v>
       </c>
       <c r="K69" t="n">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="L69" t="n">
-        <v>-0.212746686346027</v>
+        <v>-0.3074644260627814</v>
       </c>
       <c r="M69" t="n">
-        <v>0.5063216120654592</v>
+        <v>0.318133954297449</v>
       </c>
       <c r="N69" t="n">
-        <v>0.7945161502727293</v>
+        <v>0.843140760915697</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -10544,22 +10544,22 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>0</v>
+        <v>0.003757476806640625</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.01612210273742676</v>
+        <v>0.01370024681091309</v>
       </c>
       <c r="R69" t="n">
-        <v>1.768719673156738</v>
+        <v>0.9424948692321777</v>
       </c>
       <c r="S69" t="n">
-        <v>0</v>
+        <v>0.003757476806640625</v>
       </c>
       <c r="T69" t="n">
-        <v>0.01612210273742676</v>
+        <v>0.01370024681091309</v>
       </c>
       <c r="U69" t="n">
-        <v>1.768719673156738</v>
+        <v>0.9424948692321777</v>
       </c>
       <c r="V69" t="n">
         <v>1</v>
@@ -10568,7 +10568,7 @@
         <v>1</v>
       </c>
       <c r="X69" t="n">
-        <v>90</v>
+        <v>31</v>
       </c>
       <c r="Y69" t="n">
         <v>19</v>
@@ -10580,16 +10580,16 @@
         <v>1</v>
       </c>
       <c r="AB69" t="n">
-        <v>1023326</v>
+        <v>100847</v>
       </c>
       <c r="AC69" t="n">
-        <v>1023326</v>
+        <v>100847</v>
       </c>
       <c r="AD69" t="n">
-        <v>1023326</v>
+        <v>100847</v>
       </c>
       <c r="AE69" t="n">
-        <v>1023326</v>
+        <v>100847</v>
       </c>
       <c r="AF69" t="n">
         <v>0</v>
@@ -10599,28 +10599,28 @@
       </c>
       <c r="AH69" t="inlineStr">
         <is>
-          <t>TabularNeuralNetTorchModel</t>
+          <t>CatBoostModel</t>
         </is>
       </c>
       <c r="AI69" t="inlineStr"/>
       <c r="AJ69" t="inlineStr">
         <is>
-          <t>roc_auc</t>
+          <t>log_loss</t>
         </is>
       </c>
       <c r="AK69" t="inlineStr">
         <is>
-          <t>{'num_epochs': 1000, 'epochs_wo_improve': None, 'activation': 'relu', 'embedding_size_factor': 1.0, 'embed_exponent': 0.56, 'max_embedding_dim': 100, 'y_range': None, 'y_range_extend': 0.05, 'dropout_prob': 0.33926015213879396, 'optimizer': 'adam', 'learning_rate': 0.0029983839090226075, 'weight_decay': 0.00038926240517691234, 'proc.embed_min_categories': 4, 'proc.impute_strategy': 'median', 'proc.max_category_levels': 100, 'proc.skew_threshold': 0.99, 'use_ngram_features': False, 'num_layers': 5, 'hidden_size': 247, 'max_batch_size': 512, 'use_batchnorm': False, 'loss_function': 'auto'}</t>
+          <t>{'iterations': 10000, 'learning_rate': 0.07092851311746352, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 4, 'grow_policy': 'Depthwise', 'l2_leaf_reg': 2.7018061518087038, 'max_ctr_complexity': 1, 'one_hot_max_size': 2}</t>
         </is>
       </c>
       <c r="AL69" t="inlineStr">
         <is>
-          <t>{'batch_size': 32, 'num_epochs': 19}</t>
+          <t>{'iterations': 88}</t>
         </is>
       </c>
       <c r="AM69" t="inlineStr">
         <is>
-          <t>{'max_memory_usage_ratio': 1.0, 'max_time_limit_ratio': 1.0, 'max_time_limit': None, 'min_time_limit': 0, 'valid_raw_types': ['bool', 'int', 'float', 'category'], 'valid_special_types': None, 'ignored_type_group_special': ['text_ngram', 'text_as_category'], 'ignored_type_group_raw': None, 'get_features_kwargs': None, 'get_features_kwargs_extra': None, 'predict_1_batch_size': None, 'temperature_scalar': None}</t>
+          <t>{'max_memory_usage_ratio': 1.0, 'max_time_limit_ratio': 1.0, 'max_time_limit': None, 'min_time_limit': 0, 'valid_raw_types': ['bool', 'int', 'float', 'category'], 'valid_special_types': None, 'ignored_type_group_special': None, 'ignored_type_group_raw': None, 'get_features_kwargs': None, 'get_features_kwargs_extra': None, 'predict_1_batch_size': None, 'temperature_scalar': None}</t>
         </is>
       </c>
       <c r="AN69" t="inlineStr">
@@ -10646,7 +10646,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>CatBoost_r50</t>
+          <t>NeuralNetTorch_r121</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -10656,37 +10656,37 @@
         <v>0.9666666666666667</v>
       </c>
       <c r="D70" t="n">
-        <v>0.8709677419354839</v>
+        <v>0.9032258064516129</v>
       </c>
       <c r="E70" t="n">
-        <v>0.9199999999999999</v>
+        <v>0.8766666666666667</v>
       </c>
       <c r="F70" t="n">
-        <v>0.75</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="G70" t="n">
-        <v>0.8315217391304348</v>
+        <v>0.8540031397174255</v>
       </c>
       <c r="H70" t="n">
-        <v>0.8709677419354839</v>
+        <v>0.9032258064516129</v>
       </c>
       <c r="I70" t="n">
         <v>0.8555555555555555</v>
       </c>
       <c r="J70" t="n">
-        <v>0.6</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="K70" t="n">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L70" t="n">
-        <v>-0.3074644260627814</v>
+        <v>-0.212746686346027</v>
       </c>
       <c r="M70" t="n">
-        <v>0.318133954297449</v>
+        <v>0.5063216120654592</v>
       </c>
       <c r="N70" t="n">
-        <v>0.843140760915697</v>
+        <v>0.7945161502727293</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -10694,22 +10694,22 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>0.002813577651977539</v>
+        <v>0.0129997730255127</v>
       </c>
       <c r="Q70" t="n">
-        <v>0</v>
+        <v>0.009790182113647461</v>
       </c>
       <c r="R70" t="n">
-        <v>0.6635801792144775</v>
+        <v>2.440267324447632</v>
       </c>
       <c r="S70" t="n">
-        <v>0.002813577651977539</v>
+        <v>0.0129997730255127</v>
       </c>
       <c r="T70" t="n">
-        <v>0</v>
+        <v>0.009790182113647461</v>
       </c>
       <c r="U70" t="n">
-        <v>0.6635801792144775</v>
+        <v>2.440267324447632</v>
       </c>
       <c r="V70" t="n">
         <v>1</v>
@@ -10718,7 +10718,7 @@
         <v>1</v>
       </c>
       <c r="X70" t="n">
-        <v>31</v>
+        <v>90</v>
       </c>
       <c r="Y70" t="n">
         <v>19</v>
@@ -10730,16 +10730,16 @@
         <v>1</v>
       </c>
       <c r="AB70" t="n">
-        <v>100847</v>
+        <v>1023326</v>
       </c>
       <c r="AC70" t="n">
-        <v>100847</v>
+        <v>1023326</v>
       </c>
       <c r="AD70" t="n">
-        <v>100847</v>
+        <v>1023326</v>
       </c>
       <c r="AE70" t="n">
-        <v>100847</v>
+        <v>1023326</v>
       </c>
       <c r="AF70" t="n">
         <v>0</v>
@@ -10749,28 +10749,28 @@
       </c>
       <c r="AH70" t="inlineStr">
         <is>
-          <t>CatBoostModel</t>
+          <t>TabularNeuralNetTorchModel</t>
         </is>
       </c>
       <c r="AI70" t="inlineStr"/>
       <c r="AJ70" t="inlineStr">
         <is>
-          <t>log_loss</t>
+          <t>roc_auc</t>
         </is>
       </c>
       <c r="AK70" t="inlineStr">
         <is>
-          <t>{'iterations': 10000, 'learning_rate': 0.07092851311746352, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 4, 'grow_policy': 'Depthwise', 'l2_leaf_reg': 2.7018061518087038, 'max_ctr_complexity': 1, 'one_hot_max_size': 2}</t>
+          <t>{'num_epochs': 1000, 'epochs_wo_improve': None, 'activation': 'relu', 'embedding_size_factor': 1.0, 'embed_exponent': 0.56, 'max_embedding_dim': 100, 'y_range': None, 'y_range_extend': 0.05, 'dropout_prob': 0.33926015213879396, 'optimizer': 'adam', 'learning_rate': 0.0029983839090226075, 'weight_decay': 0.00038926240517691234, 'proc.embed_min_categories': 4, 'proc.impute_strategy': 'median', 'proc.max_category_levels': 100, 'proc.skew_threshold': 0.99, 'use_ngram_features': False, 'num_layers': 5, 'hidden_size': 247, 'max_batch_size': 512, 'use_batchnorm': False, 'loss_function': 'auto'}</t>
         </is>
       </c>
       <c r="AL70" t="inlineStr">
         <is>
-          <t>{'iterations': 88}</t>
+          <t>{'batch_size': 32, 'num_epochs': 19}</t>
         </is>
       </c>
       <c r="AM70" t="inlineStr">
         <is>
-          <t>{'max_memory_usage_ratio': 1.0, 'max_time_limit_ratio': 1.0, 'max_time_limit': None, 'min_time_limit': 0, 'valid_raw_types': ['bool', 'int', 'float', 'category'], 'valid_special_types': None, 'ignored_type_group_special': None, 'ignored_type_group_raw': None, 'get_features_kwargs': None, 'get_features_kwargs_extra': None, 'predict_1_batch_size': None, 'temperature_scalar': None}</t>
+          <t>{'max_memory_usage_ratio': 1.0, 'max_time_limit_ratio': 1.0, 'max_time_limit': None, 'min_time_limit': 0, 'valid_raw_types': ['bool', 'int', 'float', 'category'], 'valid_special_types': None, 'ignored_type_group_special': ['text_ngram', 'text_as_category'], 'ignored_type_group_raw': None, 'get_features_kwargs': None, 'get_features_kwargs_extra': None, 'predict_1_batch_size': None, 'temperature_scalar': None}</t>
         </is>
       </c>
       <c r="AN70" t="inlineStr">
@@ -10844,22 +10844,22 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>0.07477331161499023</v>
+        <v>0.07903218269348145</v>
       </c>
       <c r="Q71" t="n">
-        <v>0.01110720634460449</v>
+        <v>0.01012706756591797</v>
       </c>
       <c r="R71" t="n">
-        <v>2.220416307449341</v>
+        <v>2.837375402450562</v>
       </c>
       <c r="S71" t="n">
-        <v>0.07477331161499023</v>
+        <v>0.07903218269348145</v>
       </c>
       <c r="T71" t="n">
-        <v>0.01110720634460449</v>
+        <v>0.01012706756591797</v>
       </c>
       <c r="U71" t="n">
-        <v>2.220416307449341</v>
+        <v>2.837375402450562</v>
       </c>
       <c r="V71" t="n">
         <v>1</v>
@@ -10946,7 +10946,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>LightGBM_r121</t>
+          <t>LightGBM_r131_FULL</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -10980,36 +10980,30 @@
         <v>1</v>
       </c>
       <c r="L72" t="n">
-        <v>-0.3155290532906297</v>
+        <v>-0.3139241566405803</v>
       </c>
       <c r="M72" t="n">
-        <v>0.3029194928548669</v>
-      </c>
-      <c r="N72" t="n">
-        <v>0.8336325793348104</v>
-      </c>
+        <v>0.3059374491927714</v>
+      </c>
+      <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr">
         <is>
           <t>roc_auc</t>
         </is>
       </c>
       <c r="P72" t="n">
-        <v>0.006015300750732422</v>
-      </c>
-      <c r="Q72" t="n">
-        <v>0.004551887512207031</v>
-      </c>
+        <v>0.006017684936523438</v>
+      </c>
+      <c r="Q72" t="inlineStr"/>
       <c r="R72" t="n">
-        <v>0.4399948120117188</v>
+        <v>0.2807846069335938</v>
       </c>
       <c r="S72" t="n">
-        <v>0.006015300750732422</v>
-      </c>
-      <c r="T72" t="n">
-        <v>0.004551887512207031</v>
-      </c>
+        <v>0.006017684936523438</v>
+      </c>
+      <c r="T72" t="inlineStr"/>
       <c r="U72" t="n">
-        <v>0.4399948120117188</v>
+        <v>0.2807846069335938</v>
       </c>
       <c r="V72" t="n">
         <v>1</v>
@@ -11018,7 +11012,7 @@
         <v>1</v>
       </c>
       <c r="X72" t="n">
-        <v>85</v>
+        <v>123</v>
       </c>
       <c r="Y72" t="n">
         <v>19</v>
@@ -11030,16 +11024,16 @@
         <v>1</v>
       </c>
       <c r="AB72" t="n">
-        <v>960101</v>
+        <v>791927</v>
       </c>
       <c r="AC72" t="n">
-        <v>960101</v>
+        <v>791927</v>
       </c>
       <c r="AD72" t="n">
-        <v>960101</v>
+        <v>791927</v>
       </c>
       <c r="AE72" t="n">
-        <v>960101</v>
+        <v>791927</v>
       </c>
       <c r="AF72" t="n">
         <v>0</v>
@@ -11060,17 +11054,17 @@
       </c>
       <c r="AK72" t="inlineStr">
         <is>
-          <t>{'learning_rate': 0.010305352949119608, 'extra_trees': False, 'feature_fraction': 0.5730390983988963, 'min_data_in_leaf': 10, 'num_leaves': 215}</t>
+          <t>{'learning_rate': 0.012144796373999013, 'extra_trees': False, 'feature_fraction': 0.7023601671276614, 'min_data_in_leaf': 14, 'num_leaves': 53, 'num_boost_round': 412}</t>
         </is>
       </c>
       <c r="AL72" t="inlineStr">
         <is>
-          <t>{'num_boost_round': 451}</t>
+          <t>{'num_boost_round': 412}</t>
         </is>
       </c>
       <c r="AM72" t="inlineStr">
         <is>
-          <t>{'max_memory_usage_ratio': 1.0, 'max_time_limit_ratio': 1.0, 'max_time_limit': None, 'min_time_limit': 0, 'valid_raw_types': ['bool', 'int', 'float', 'category'], 'valid_special_types': None, 'ignored_type_group_special': None, 'ignored_type_group_raw': None, 'get_features_kwargs': None, 'get_features_kwargs_extra': None, 'predict_1_batch_size': None, 'temperature_scalar': None}</t>
+          <t>{'max_memory_usage_ratio': 1.15, 'max_time_limit_ratio': 1.0, 'max_time_limit': None, 'min_time_limit': 0, 'valid_raw_types': ['bool', 'int', 'float', 'category'], 'valid_special_types': None, 'ignored_type_group_special': None, 'ignored_type_group_raw': None, 'get_features_kwargs': None, 'get_features_kwargs_extra': None, 'predict_1_batch_size': None, 'temperature_scalar': None}</t>
         </is>
       </c>
       <c r="AN72" t="inlineStr">
@@ -11096,7 +11090,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>LightGBM_r131_FULL</t>
+          <t>LightGBM_r121</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -11130,30 +11124,36 @@
         <v>1</v>
       </c>
       <c r="L73" t="n">
-        <v>-0.3139241566405803</v>
+        <v>-0.3155290532906297</v>
       </c>
       <c r="M73" t="n">
-        <v>0.3059374491927714</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+        <v>0.3029194928548669</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0.8336325793348104</v>
+      </c>
       <c r="O73" t="inlineStr">
         <is>
           <t>roc_auc</t>
         </is>
       </c>
       <c r="P73" t="n">
-        <v>0.006015539169311523</v>
-      </c>
-      <c r="Q73" t="inlineStr"/>
+        <v>0.008515357971191406</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>0</v>
+      </c>
       <c r="R73" t="n">
-        <v>0.188218355178833</v>
+        <v>0.612128734588623</v>
       </c>
       <c r="S73" t="n">
-        <v>0.006015539169311523</v>
-      </c>
-      <c r="T73" t="inlineStr"/>
+        <v>0.008515357971191406</v>
+      </c>
+      <c r="T73" t="n">
+        <v>0</v>
+      </c>
       <c r="U73" t="n">
-        <v>0.188218355178833</v>
+        <v>0.612128734588623</v>
       </c>
       <c r="V73" t="n">
         <v>1</v>
@@ -11162,7 +11162,7 @@
         <v>1</v>
       </c>
       <c r="X73" t="n">
-        <v>123</v>
+        <v>85</v>
       </c>
       <c r="Y73" t="n">
         <v>19</v>
@@ -11174,16 +11174,16 @@
         <v>1</v>
       </c>
       <c r="AB73" t="n">
-        <v>791927</v>
+        <v>960101</v>
       </c>
       <c r="AC73" t="n">
-        <v>791927</v>
+        <v>960101</v>
       </c>
       <c r="AD73" t="n">
-        <v>791927</v>
+        <v>960101</v>
       </c>
       <c r="AE73" t="n">
-        <v>791927</v>
+        <v>960101</v>
       </c>
       <c r="AF73" t="n">
         <v>0</v>
@@ -11204,17 +11204,17 @@
       </c>
       <c r="AK73" t="inlineStr">
         <is>
-          <t>{'learning_rate': 0.012144796373999013, 'extra_trees': False, 'feature_fraction': 0.7023601671276614, 'min_data_in_leaf': 14, 'num_leaves': 53, 'num_boost_round': 412}</t>
+          <t>{'learning_rate': 0.010305352949119608, 'extra_trees': False, 'feature_fraction': 0.5730390983988963, 'min_data_in_leaf': 10, 'num_leaves': 215}</t>
         </is>
       </c>
       <c r="AL73" t="inlineStr">
         <is>
-          <t>{'num_boost_round': 412}</t>
+          <t>{'num_boost_round': 451}</t>
         </is>
       </c>
       <c r="AM73" t="inlineStr">
         <is>
-          <t>{'max_memory_usage_ratio': 1.15, 'max_time_limit_ratio': 1.0, 'max_time_limit': None, 'min_time_limit': 0, 'valid_raw_types': ['bool', 'int', 'float', 'category'], 'valid_special_types': None, 'ignored_type_group_special': None, 'ignored_type_group_raw': None, 'get_features_kwargs': None, 'get_features_kwargs_extra': None, 'predict_1_batch_size': None, 'temperature_scalar': None}</t>
+          <t>{'max_memory_usage_ratio': 1.0, 'max_time_limit_ratio': 1.0, 'max_time_limit': None, 'min_time_limit': 0, 'valid_raw_types': ['bool', 'int', 'float', 'category'], 'valid_special_types': None, 'ignored_type_group_special': None, 'ignored_type_group_raw': None, 'get_features_kwargs': None, 'get_features_kwargs_extra': None, 'predict_1_batch_size': None, 'temperature_scalar': None}</t>
         </is>
       </c>
       <c r="AN73" t="inlineStr">
@@ -11286,18 +11286,18 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>0.01377153396606445</v>
+        <v>0.01386523246765137</v>
       </c>
       <c r="Q74" t="inlineStr"/>
       <c r="R74" t="n">
-        <v>0.1338167190551758</v>
+        <v>0.1683058738708496</v>
       </c>
       <c r="S74" t="n">
-        <v>0.01377153396606445</v>
+        <v>0.01386523246765137</v>
       </c>
       <c r="T74" t="inlineStr"/>
       <c r="U74" t="n">
-        <v>0.1338167190551758</v>
+        <v>0.1683058738708496</v>
       </c>
       <c r="V74" t="n">
         <v>1</v>
@@ -11430,18 +11430,18 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>0.01377320289611816</v>
+        <v>0.01485395431518555</v>
       </c>
       <c r="Q75" t="inlineStr"/>
       <c r="R75" t="n">
-        <v>0.1024684906005859</v>
+        <v>0.1552629470825195</v>
       </c>
       <c r="S75" t="n">
-        <v>0.01377320289611816</v>
+        <v>0.01485395431518555</v>
       </c>
       <c r="T75" t="inlineStr"/>
       <c r="U75" t="n">
-        <v>0.1024684906005859</v>
+        <v>0.1552629470825195</v>
       </c>
       <c r="V75" t="n">
         <v>1</v>
@@ -11574,18 +11574,18 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>0.02658271789550781</v>
+        <v>0.02879786491394043</v>
       </c>
       <c r="Q76" t="inlineStr"/>
       <c r="R76" t="n">
-        <v>0.2603950500488281</v>
+        <v>0.3392093181610107</v>
       </c>
       <c r="S76" t="n">
-        <v>0.02658271789550781</v>
+        <v>0.02879786491394043</v>
       </c>
       <c r="T76" t="inlineStr"/>
       <c r="U76" t="n">
-        <v>0.2603950500488281</v>
+        <v>0.3392093181610107</v>
       </c>
       <c r="V76" t="n">
         <v>1</v>
@@ -11672,7 +11672,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>LightGBM_r130</t>
+          <t>LightGBM_r143</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -11682,37 +11682,37 @@
         <v>0.9466666666666668</v>
       </c>
       <c r="D77" t="n">
-        <v>0.9032258064516129</v>
+        <v>0.8387096774193549</v>
       </c>
       <c r="E77" t="n">
-        <v>0.8766666666666667</v>
+        <v>0.9</v>
       </c>
       <c r="F77" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="G77" t="n">
-        <v>0.8540031397174255</v>
+        <v>0.7973856209150327</v>
       </c>
       <c r="H77" t="n">
-        <v>0.9032258064516129</v>
+        <v>0.8387096774193549</v>
       </c>
       <c r="I77" t="n">
         <v>0.8432900432900432</v>
       </c>
       <c r="J77" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="K77" t="n">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="L77" t="n">
-        <v>-0.321426373899765</v>
+        <v>-0.3604364729473175</v>
       </c>
       <c r="M77" t="n">
-        <v>0.2918709013386998</v>
+        <v>0.2204049889432469</v>
       </c>
       <c r="N77" t="n">
-        <v>0.7844441892880908</v>
+        <v>0.8217008402649135</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -11720,22 +11720,22 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>0.004009723663330078</v>
+        <v>0.005643367767333984</v>
       </c>
       <c r="Q77" t="n">
-        <v>0.002006769180297852</v>
+        <v>0</v>
       </c>
       <c r="R77" t="n">
-        <v>0.3869249820709229</v>
+        <v>0.5204570293426514</v>
       </c>
       <c r="S77" t="n">
-        <v>0.004009723663330078</v>
+        <v>0.005643367767333984</v>
       </c>
       <c r="T77" t="n">
-        <v>0.002006769180297852</v>
+        <v>0</v>
       </c>
       <c r="U77" t="n">
-        <v>0.3869249820709229</v>
+        <v>0.5204570293426514</v>
       </c>
       <c r="V77" t="n">
         <v>1</v>
@@ -11744,7 +11744,7 @@
         <v>1</v>
       </c>
       <c r="X77" t="n">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="Y77" t="n">
         <v>19</v>
@@ -11756,16 +11756,16 @@
         <v>1</v>
       </c>
       <c r="AB77" t="n">
-        <v>272131</v>
+        <v>527901</v>
       </c>
       <c r="AC77" t="n">
-        <v>272131</v>
+        <v>527901</v>
       </c>
       <c r="AD77" t="n">
-        <v>272131</v>
+        <v>527901</v>
       </c>
       <c r="AE77" t="n">
-        <v>272131</v>
+        <v>527901</v>
       </c>
       <c r="AF77" t="n">
         <v>0</v>
@@ -11786,12 +11786,12 @@
       </c>
       <c r="AK77" t="inlineStr">
         <is>
-          <t>{'learning_rate': 0.04711573688184715, 'extra_trees': False, 'feature_fraction': 0.6245777099925497, 'min_data_in_leaf': 56, 'num_leaves': 89}</t>
+          <t>{'learning_rate': 0.01343464462043561, 'extra_trees': False, 'feature_fraction': 0.9408897917880529, 'min_data_in_leaf': 21, 'num_leaves': 178}</t>
         </is>
       </c>
       <c r="AL77" t="inlineStr">
         <is>
-          <t>{'num_boost_round': 531}</t>
+          <t>{'num_boost_round': 496}</t>
         </is>
       </c>
       <c r="AM77" t="inlineStr">
@@ -11822,7 +11822,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>LightGBM_r143</t>
+          <t>LightGBM_r130</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -11832,37 +11832,37 @@
         <v>0.9466666666666668</v>
       </c>
       <c r="D78" t="n">
-        <v>0.8387096774193549</v>
+        <v>0.9032258064516129</v>
       </c>
       <c r="E78" t="n">
-        <v>0.9</v>
+        <v>0.8766666666666667</v>
       </c>
       <c r="F78" t="n">
-        <v>0.7058823529411765</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="G78" t="n">
-        <v>0.7973856209150327</v>
+        <v>0.8540031397174255</v>
       </c>
       <c r="H78" t="n">
-        <v>0.8387096774193549</v>
+        <v>0.9032258064516129</v>
       </c>
       <c r="I78" t="n">
         <v>0.8432900432900432</v>
       </c>
       <c r="J78" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="K78" t="n">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L78" t="n">
-        <v>-0.3604364729473175</v>
+        <v>-0.321426373899765</v>
       </c>
       <c r="M78" t="n">
-        <v>0.2204049889432469</v>
+        <v>0.2918709013386998</v>
       </c>
       <c r="N78" t="n">
-        <v>0.8217008402649135</v>
+        <v>0.7844441892880908</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -11870,22 +11870,22 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>0.006011247634887695</v>
+        <v>0.006017684936523438</v>
       </c>
       <c r="Q78" t="n">
-        <v>0</v>
+        <v>0.004009723663330078</v>
       </c>
       <c r="R78" t="n">
-        <v>0.385866641998291</v>
+        <v>0.6103417873382568</v>
       </c>
       <c r="S78" t="n">
-        <v>0.006011247634887695</v>
+        <v>0.006017684936523438</v>
       </c>
       <c r="T78" t="n">
-        <v>0</v>
+        <v>0.004009723663330078</v>
       </c>
       <c r="U78" t="n">
-        <v>0.385866641998291</v>
+        <v>0.6103417873382568</v>
       </c>
       <c r="V78" t="n">
         <v>1</v>
@@ -11894,7 +11894,7 @@
         <v>1</v>
       </c>
       <c r="X78" t="n">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="Y78" t="n">
         <v>19</v>
@@ -11906,16 +11906,16 @@
         <v>1</v>
       </c>
       <c r="AB78" t="n">
-        <v>527901</v>
+        <v>272131</v>
       </c>
       <c r="AC78" t="n">
-        <v>527901</v>
+        <v>272131</v>
       </c>
       <c r="AD78" t="n">
-        <v>527901</v>
+        <v>272131</v>
       </c>
       <c r="AE78" t="n">
-        <v>527901</v>
+        <v>272131</v>
       </c>
       <c r="AF78" t="n">
         <v>0</v>
@@ -11936,12 +11936,12 @@
       </c>
       <c r="AK78" t="inlineStr">
         <is>
-          <t>{'learning_rate': 0.01343464462043561, 'extra_trees': False, 'feature_fraction': 0.9408897917880529, 'min_data_in_leaf': 21, 'num_leaves': 178}</t>
+          <t>{'learning_rate': 0.04711573688184715, 'extra_trees': False, 'feature_fraction': 0.6245777099925497, 'min_data_in_leaf': 56, 'num_leaves': 89}</t>
         </is>
       </c>
       <c r="AL78" t="inlineStr">
         <is>
-          <t>{'num_boost_round': 496}</t>
+          <t>{'num_boost_round': 531}</t>
         </is>
       </c>
       <c r="AM78" t="inlineStr">
@@ -12018,18 +12018,18 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>0.008249759674072266</v>
+        <v>0.009068012237548828</v>
       </c>
       <c r="Q79" t="inlineStr"/>
       <c r="R79" t="n">
-        <v>0.06942582130432129</v>
+        <v>0.1096186637878418</v>
       </c>
       <c r="S79" t="n">
-        <v>0.008249759674072266</v>
+        <v>0.009068012237548828</v>
       </c>
       <c r="T79" t="inlineStr"/>
       <c r="U79" t="n">
-        <v>0.06942582130432129</v>
+        <v>0.1096186637878418</v>
       </c>
       <c r="V79" t="n">
         <v>1</v>
@@ -12162,18 +12162,18 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>0</v>
+        <v>0.01404666900634766</v>
       </c>
       <c r="Q80" t="inlineStr"/>
       <c r="R80" t="n">
-        <v>2.059194326400757</v>
+        <v>2.675189733505249</v>
       </c>
       <c r="S80" t="n">
-        <v>0</v>
+        <v>0.01404666900634766</v>
       </c>
       <c r="T80" t="inlineStr"/>
       <c r="U80" t="n">
-        <v>2.059194326400757</v>
+        <v>2.675189733505249</v>
       </c>
       <c r="V80" t="n">
         <v>1</v>
@@ -12308,22 +12308,22 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>0.008023738861083984</v>
+        <v>0.009761571884155273</v>
       </c>
       <c r="Q81" t="n">
-        <v>0.01767325401306152</v>
+        <v>0.006012678146362305</v>
       </c>
       <c r="R81" t="n">
-        <v>0.6847293376922607</v>
+        <v>0.7125036716461182</v>
       </c>
       <c r="S81" t="n">
-        <v>0.008023738861083984</v>
+        <v>0.009761571884155273</v>
       </c>
       <c r="T81" t="n">
-        <v>0.01767325401306152</v>
+        <v>0.006012678146362305</v>
       </c>
       <c r="U81" t="n">
-        <v>0.6847293376922607</v>
+        <v>0.7125036716461182</v>
       </c>
       <c r="V81" t="n">
         <v>1</v>
@@ -12456,18 +12456,18 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>0.004005670547485352</v>
+        <v>0.004970073699951172</v>
       </c>
       <c r="Q82" t="inlineStr"/>
       <c r="R82" t="n">
-        <v>0.4526634216308594</v>
+        <v>0.6514220237731934</v>
       </c>
       <c r="S82" t="n">
-        <v>0.004005670547485352</v>
+        <v>0.004970073699951172</v>
       </c>
       <c r="T82" t="inlineStr"/>
       <c r="U82" t="n">
-        <v>0.4526634216308594</v>
+        <v>0.6514220237731934</v>
       </c>
       <c r="V82" t="n">
         <v>1</v>
@@ -12600,18 +12600,18 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>0.008019447326660156</v>
+        <v>0.009165763854980469</v>
       </c>
       <c r="Q83" t="inlineStr"/>
       <c r="R83" t="n">
-        <v>0.08487915992736816</v>
+        <v>0.1651535034179688</v>
       </c>
       <c r="S83" t="n">
-        <v>0.008019447326660156</v>
+        <v>0.009165763854980469</v>
       </c>
       <c r="T83" t="inlineStr"/>
       <c r="U83" t="n">
-        <v>0.08487915992736816</v>
+        <v>0.1651535034179688</v>
       </c>
       <c r="V83" t="n">
         <v>1</v>
@@ -12744,18 +12744,18 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>0.01001954078674316</v>
+        <v>0.01377177238464355</v>
       </c>
       <c r="Q84" t="inlineStr"/>
       <c r="R84" t="n">
-        <v>0.3589513301849365</v>
+        <v>0.6131641864776611</v>
       </c>
       <c r="S84" t="n">
-        <v>0.01001954078674316</v>
+        <v>0.01377177238464355</v>
       </c>
       <c r="T84" t="inlineStr"/>
       <c r="U84" t="n">
-        <v>0.3589513301849365</v>
+        <v>0.6131641864776611</v>
       </c>
       <c r="V84" t="n">
         <v>1</v>
@@ -12888,18 +12888,18 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>0.01352643966674805</v>
+        <v>0.01378083229064941</v>
       </c>
       <c r="Q85" t="inlineStr"/>
       <c r="R85" t="n">
-        <v>0.4125797748565674</v>
+        <v>0.5404422283172607</v>
       </c>
       <c r="S85" t="n">
-        <v>0.01352643966674805</v>
+        <v>0.01378083229064941</v>
       </c>
       <c r="T85" t="inlineStr"/>
       <c r="U85" t="n">
-        <v>0.4125797748565674</v>
+        <v>0.5404422283172607</v>
       </c>
       <c r="V85" t="n">
         <v>1</v>
@@ -13034,22 +13034,22 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>0.01377272605895996</v>
+        <v>0.01282620429992676</v>
       </c>
       <c r="Q86" t="n">
-        <v>0.002006053924560547</v>
+        <v>0.006048917770385742</v>
       </c>
       <c r="R86" t="n">
-        <v>0.29241943359375</v>
+        <v>0.3661050796508789</v>
       </c>
       <c r="S86" t="n">
-        <v>0.01377272605895996</v>
+        <v>0.01282620429992676</v>
       </c>
       <c r="T86" t="n">
-        <v>0.002006053924560547</v>
+        <v>0.006048917770385742</v>
       </c>
       <c r="U86" t="n">
-        <v>0.29241943359375</v>
+        <v>0.3661050796508789</v>
       </c>
       <c r="V86" t="n">
         <v>1</v>
@@ -13184,22 +13184,22 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>0.02354192733764648</v>
+        <v>0.02554917335510254</v>
       </c>
       <c r="Q87" t="n">
-        <v>0</v>
+        <v>0.004000663757324219</v>
       </c>
       <c r="R87" t="n">
-        <v>1.55655574798584</v>
+        <v>2.453565359115601</v>
       </c>
       <c r="S87" t="n">
-        <v>0.02354192733764648</v>
+        <v>0.02554917335510254</v>
       </c>
       <c r="T87" t="n">
-        <v>0</v>
+        <v>0.004000663757324219</v>
       </c>
       <c r="U87" t="n">
-        <v>1.55655574798584</v>
+        <v>2.453565359115601</v>
       </c>
       <c r="V87" t="n">
         <v>1</v>
@@ -13334,22 +13334,22 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>0.01450467109680176</v>
+        <v>0.01568031311035156</v>
       </c>
       <c r="Q88" t="n">
-        <v>0.003255844116210938</v>
+        <v>0.01039314270019531</v>
       </c>
       <c r="R88" t="n">
-        <v>2.373565912246704</v>
+        <v>3.089627027511597</v>
       </c>
       <c r="S88" t="n">
-        <v>0.01450467109680176</v>
+        <v>0.01568031311035156</v>
       </c>
       <c r="T88" t="n">
-        <v>0.003255844116210938</v>
+        <v>0.01039314270019531</v>
       </c>
       <c r="U88" t="n">
-        <v>2.373565912246704</v>
+        <v>3.089627027511597</v>
       </c>
       <c r="V88" t="n">
         <v>1</v>
@@ -13484,22 +13484,22 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>0.008012771606445312</v>
+        <v>0.01001954078674316</v>
       </c>
       <c r="Q89" t="n">
-        <v>0.0160374641418457</v>
+        <v>0.006008148193359375</v>
       </c>
       <c r="R89" t="n">
-        <v>0.2806711196899414</v>
+        <v>0.4168212413787842</v>
       </c>
       <c r="S89" t="n">
-        <v>0.008012771606445312</v>
+        <v>0.01001954078674316</v>
       </c>
       <c r="T89" t="n">
-        <v>0.0160374641418457</v>
+        <v>0.006008148193359375</v>
       </c>
       <c r="U89" t="n">
-        <v>0.2806711196899414</v>
+        <v>0.4168212413787842</v>
       </c>
       <c r="V89" t="n">
         <v>1</v>
@@ -13634,22 +13634,22 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>0.01199626922607422</v>
+        <v>0.01535892486572266</v>
       </c>
       <c r="Q90" t="n">
-        <v>0.007755279541015625</v>
+        <v>0.01487851142883301</v>
       </c>
       <c r="R90" t="n">
-        <v>2.397667646408081</v>
+        <v>3.515983104705811</v>
       </c>
       <c r="S90" t="n">
-        <v>0.01199626922607422</v>
+        <v>0.01535892486572266</v>
       </c>
       <c r="T90" t="n">
-        <v>0.007755279541015625</v>
+        <v>0.01487851142883301</v>
       </c>
       <c r="U90" t="n">
-        <v>2.397667646408081</v>
+        <v>3.515983104705811</v>
       </c>
       <c r="V90" t="n">
         <v>1</v>
@@ -13782,18 +13782,18 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>0.03040671348571777</v>
+        <v>0.02380704879760742</v>
       </c>
       <c r="Q91" t="inlineStr"/>
       <c r="R91" t="n">
-        <v>0.3552422523498535</v>
+        <v>0.4618840217590332</v>
       </c>
       <c r="S91" t="n">
-        <v>0.03040671348571777</v>
+        <v>0.02380704879760742</v>
       </c>
       <c r="T91" t="inlineStr"/>
       <c r="U91" t="n">
-        <v>0.3552422523498535</v>
+        <v>0.4618840217590332</v>
       </c>
       <c r="V91" t="n">
         <v>1</v>
@@ -13926,18 +13926,18 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>0.05503416061401367</v>
+        <v>0.07465338706970215</v>
       </c>
       <c r="Q92" t="inlineStr"/>
       <c r="R92" t="n">
-        <v>0.518378734588623</v>
+        <v>0.6658058166503906</v>
       </c>
       <c r="S92" t="n">
-        <v>0.05503416061401367</v>
+        <v>0.07465338706970215</v>
       </c>
       <c r="T92" t="inlineStr"/>
       <c r="U92" t="n">
-        <v>0.518378734588623</v>
+        <v>0.6658058166503906</v>
       </c>
       <c r="V92" t="n">
         <v>1</v>
@@ -14070,18 +14070,18 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>0.0080108642578125</v>
+        <v>0.01303887367248535</v>
       </c>
       <c r="Q93" t="inlineStr"/>
       <c r="R93" t="n">
-        <v>1.751272439956665</v>
+        <v>2.227273464202881</v>
       </c>
       <c r="S93" t="n">
-        <v>0.0080108642578125</v>
+        <v>0.01303887367248535</v>
       </c>
       <c r="T93" t="inlineStr"/>
       <c r="U93" t="n">
-        <v>1.751272439956665</v>
+        <v>2.227273464202881</v>
       </c>
       <c r="V93" t="n">
         <v>1</v>
@@ -14216,22 +14216,22 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>0.01139402389526367</v>
+        <v>0.01020193099975586</v>
       </c>
       <c r="Q94" t="n">
-        <v>0</v>
+        <v>0.009738922119140625</v>
       </c>
       <c r="R94" t="n">
-        <v>1.059996843338013</v>
+        <v>1.273913383483887</v>
       </c>
       <c r="S94" t="n">
-        <v>0.01139402389526367</v>
+        <v>0.01020193099975586</v>
       </c>
       <c r="T94" t="n">
-        <v>0</v>
+        <v>0.009738922119140625</v>
       </c>
       <c r="U94" t="n">
-        <v>1.059996843338013</v>
+        <v>1.273913383483887</v>
       </c>
       <c r="V94" t="n">
         <v>1</v>
@@ -14366,22 +14366,22 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>0.01303815841674805</v>
+        <v>0.01447725296020508</v>
       </c>
       <c r="Q95" t="n">
-        <v>0.006008625030517578</v>
+        <v>0.007887601852416992</v>
       </c>
       <c r="R95" t="n">
-        <v>0.5399785041809082</v>
+        <v>0.6999187469482422</v>
       </c>
       <c r="S95" t="n">
-        <v>0.01303815841674805</v>
+        <v>0.01447725296020508</v>
       </c>
       <c r="T95" t="n">
-        <v>0.006008625030517578</v>
+        <v>0.007887601852416992</v>
       </c>
       <c r="U95" t="n">
-        <v>0.5399785041809082</v>
+        <v>0.6999187469482422</v>
       </c>
       <c r="V95" t="n">
         <v>1</v>
@@ -14514,18 +14514,18 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>0.003749370574951172</v>
+        <v>0.004008293151855469</v>
       </c>
       <c r="Q96" t="inlineStr"/>
       <c r="R96" t="n">
-        <v>0.1730513572692871</v>
+        <v>0.2342438697814941</v>
       </c>
       <c r="S96" t="n">
-        <v>0.003749370574951172</v>
+        <v>0.004008293151855469</v>
       </c>
       <c r="T96" t="inlineStr"/>
       <c r="U96" t="n">
-        <v>0.1730513572692871</v>
+        <v>0.2342438697814941</v>
       </c>
       <c r="V96" t="n">
         <v>1</v>
@@ -14660,22 +14660,22 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>0.00601506233215332</v>
+        <v>0.007997512817382812</v>
       </c>
       <c r="Q97" t="n">
-        <v>0.003297090530395508</v>
+        <v>0.002002716064453125</v>
       </c>
       <c r="R97" t="n">
-        <v>0.4446897506713867</v>
+        <v>0.6244528293609619</v>
       </c>
       <c r="S97" t="n">
-        <v>0.00601506233215332</v>
+        <v>0.007997512817382812</v>
       </c>
       <c r="T97" t="n">
-        <v>0.003297090530395508</v>
+        <v>0.002002716064453125</v>
       </c>
       <c r="U97" t="n">
-        <v>0.4446897506713867</v>
+        <v>0.6244528293609619</v>
       </c>
       <c r="V97" t="n">
         <v>1</v>
@@ -14808,18 +14808,18 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>0.009144306182861328</v>
+        <v>0.01308441162109375</v>
       </c>
       <c r="Q98" t="inlineStr"/>
       <c r="R98" t="n">
-        <v>0.4045584201812744</v>
+        <v>0.5450730323791504</v>
       </c>
       <c r="S98" t="n">
-        <v>0.009144306182861328</v>
+        <v>0.01308441162109375</v>
       </c>
       <c r="T98" t="inlineStr"/>
       <c r="U98" t="n">
-        <v>0.4045584201812744</v>
+        <v>0.5450730323791504</v>
       </c>
       <c r="V98" t="n">
         <v>1</v>
@@ -14952,18 +14952,18 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>0.01177597045898438</v>
+        <v>0.01354050636291504</v>
       </c>
       <c r="Q99" t="inlineStr"/>
       <c r="R99" t="n">
-        <v>0.1564137935638428</v>
+        <v>0.2236266136169434</v>
       </c>
       <c r="S99" t="n">
-        <v>0.01177597045898438</v>
+        <v>0.01354050636291504</v>
       </c>
       <c r="T99" t="inlineStr"/>
       <c r="U99" t="n">
-        <v>0.1564137935638428</v>
+        <v>0.2236266136169434</v>
       </c>
       <c r="V99" t="n">
         <v>1</v>
@@ -15096,18 +15096,18 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>0.05356884002685547</v>
+        <v>0.06490445137023926</v>
       </c>
       <c r="Q100" t="inlineStr"/>
       <c r="R100" t="n">
-        <v>1.115389108657837</v>
+        <v>0.8979504108428955</v>
       </c>
       <c r="S100" t="n">
-        <v>0.05356884002685547</v>
+        <v>0.06490445137023926</v>
       </c>
       <c r="T100" t="inlineStr"/>
       <c r="U100" t="n">
-        <v>1.115389108657837</v>
+        <v>0.8979504108428955</v>
       </c>
       <c r="V100" t="n">
         <v>1</v>
@@ -15240,18 +15240,18 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>0.0658719539642334</v>
+        <v>0.08257269859313965</v>
       </c>
       <c r="Q101" t="inlineStr"/>
       <c r="R101" t="n">
-        <v>0.5295774936676025</v>
+        <v>0.6590926647186279</v>
       </c>
       <c r="S101" t="n">
-        <v>0.0658719539642334</v>
+        <v>0.08257269859313965</v>
       </c>
       <c r="T101" t="inlineStr"/>
       <c r="U101" t="n">
-        <v>0.5295774936676025</v>
+        <v>0.6590926647186279</v>
       </c>
       <c r="V101" t="n">
         <v>1</v>
@@ -15386,22 +15386,22 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>0.01217293739318848</v>
+        <v>0.01245856285095215</v>
       </c>
       <c r="Q102" t="n">
-        <v>0.006005764007568359</v>
+        <v>0.009761333465576172</v>
       </c>
       <c r="R102" t="n">
-        <v>1.753505229949951</v>
+        <v>2.304268598556519</v>
       </c>
       <c r="S102" t="n">
-        <v>0.01217293739318848</v>
+        <v>0.01245856285095215</v>
       </c>
       <c r="T102" t="n">
-        <v>0.006005764007568359</v>
+        <v>0.009761333465576172</v>
       </c>
       <c r="U102" t="n">
-        <v>1.753505229949951</v>
+        <v>2.304268598556519</v>
       </c>
       <c r="V102" t="n">
         <v>1</v>
@@ -15534,18 +15534,18 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>0.01082110404968262</v>
+        <v>0.01151919364929199</v>
       </c>
       <c r="Q103" t="inlineStr"/>
       <c r="R103" t="n">
-        <v>0.8177938461303711</v>
+        <v>1.023441076278687</v>
       </c>
       <c r="S103" t="n">
-        <v>0.01082110404968262</v>
+        <v>0.01151919364929199</v>
       </c>
       <c r="T103" t="inlineStr"/>
       <c r="U103" t="n">
-        <v>0.8177938461303711</v>
+        <v>1.023441076278687</v>
       </c>
       <c r="V103" t="n">
         <v>1</v>
@@ -15680,22 +15680,22 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>0.01778364181518555</v>
+        <v>0.01400136947631836</v>
       </c>
       <c r="Q104" t="n">
-        <v>0.008017539978027344</v>
+        <v>0.02060866355895996</v>
       </c>
       <c r="R104" t="n">
-        <v>1.250535249710083</v>
+        <v>1.661079168319702</v>
       </c>
       <c r="S104" t="n">
-        <v>0.01778364181518555</v>
+        <v>0.01400136947631836</v>
       </c>
       <c r="T104" t="n">
-        <v>0.008017539978027344</v>
+        <v>0.02060866355895996</v>
       </c>
       <c r="U104" t="n">
-        <v>1.250535249710083</v>
+        <v>1.661079168319702</v>
       </c>
       <c r="V104" t="n">
         <v>1</v>
@@ -15830,22 +15830,22 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>0.06266641616821289</v>
+        <v>0.06798052787780762</v>
       </c>
       <c r="Q105" t="n">
-        <v>0.04176783561706543</v>
+        <v>0.03861856460571289</v>
       </c>
       <c r="R105" t="n">
-        <v>0.923846960067749</v>
+        <v>0.8357415199279785</v>
       </c>
       <c r="S105" t="n">
-        <v>0.06266641616821289</v>
+        <v>0.06798052787780762</v>
       </c>
       <c r="T105" t="n">
-        <v>0.04176783561706543</v>
+        <v>0.03861856460571289</v>
       </c>
       <c r="U105" t="n">
-        <v>0.923846960067749</v>
+        <v>0.8357415199279785</v>
       </c>
       <c r="V105" t="n">
         <v>1</v>
@@ -15978,18 +15978,18 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>0.01404023170471191</v>
+        <v>0.01577377319335938</v>
       </c>
       <c r="Q106" t="inlineStr"/>
       <c r="R106" t="n">
-        <v>1.085726976394653</v>
+        <v>1.297776460647583</v>
       </c>
       <c r="S106" t="n">
-        <v>0.01404023170471191</v>
+        <v>0.01577377319335938</v>
       </c>
       <c r="T106" t="inlineStr"/>
       <c r="U106" t="n">
-        <v>1.085726976394653</v>
+        <v>1.297776460647583</v>
       </c>
       <c r="V106" t="n">
         <v>1</v>
@@ -16122,18 +16122,18 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>0.01304030418395996</v>
+        <v>0.01577305793762207</v>
       </c>
       <c r="Q107" t="inlineStr"/>
       <c r="R107" t="n">
-        <v>0.4715437889099121</v>
+        <v>0.6375954151153564</v>
       </c>
       <c r="S107" t="n">
-        <v>0.01304030418395996</v>
+        <v>0.01577305793762207</v>
       </c>
       <c r="T107" t="inlineStr"/>
       <c r="U107" t="n">
-        <v>0.4715437889099121</v>
+        <v>0.6375954151153564</v>
       </c>
       <c r="V107" t="n">
         <v>1</v>
@@ -16268,22 +16268,22 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>0.06513476371765137</v>
+        <v>0.06828713417053223</v>
       </c>
       <c r="Q108" t="n">
-        <v>0.04087662696838379</v>
+        <v>0.03796911239624023</v>
       </c>
       <c r="R108" t="n">
-        <v>0.6605732440948486</v>
+        <v>0.711784839630127</v>
       </c>
       <c r="S108" t="n">
-        <v>0.06513476371765137</v>
+        <v>0.06828713417053223</v>
       </c>
       <c r="T108" t="n">
-        <v>0.04087662696838379</v>
+        <v>0.03796911239624023</v>
       </c>
       <c r="U108" t="n">
-        <v>0.6605732440948486</v>
+        <v>0.711784839630127</v>
       </c>
       <c r="V108" t="n">
         <v>1</v>
@@ -16416,18 +16416,18 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>0.002004623413085938</v>
+        <v>0.004009485244750977</v>
       </c>
       <c r="Q109" t="inlineStr"/>
       <c r="R109" t="n">
-        <v>0.1253764629364014</v>
+        <v>0.211723804473877</v>
       </c>
       <c r="S109" t="n">
-        <v>0.002004623413085938</v>
+        <v>0.004009485244750977</v>
       </c>
       <c r="T109" t="inlineStr"/>
       <c r="U109" t="n">
-        <v>0.1253764629364014</v>
+        <v>0.211723804473877</v>
       </c>
       <c r="V109" t="n">
         <v>1</v>
@@ -16562,22 +16562,22 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>0.01203346252441406</v>
+        <v>0.01502442359924316</v>
       </c>
       <c r="Q110" t="n">
-        <v>0</v>
+        <v>0.01050496101379395</v>
       </c>
       <c r="R110" t="n">
-        <v>1.514379978179932</v>
+        <v>1.955500364303589</v>
       </c>
       <c r="S110" t="n">
-        <v>0.01203346252441406</v>
+        <v>0.01502442359924316</v>
       </c>
       <c r="T110" t="n">
-        <v>0</v>
+        <v>0.01050496101379395</v>
       </c>
       <c r="U110" t="n">
-        <v>1.514379978179932</v>
+        <v>1.955500364303589</v>
       </c>
       <c r="V110" t="n">
         <v>1</v>
@@ -16710,18 +16710,18 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>0.02353572845458984</v>
+        <v>0.0255587100982666</v>
       </c>
       <c r="Q111" t="inlineStr"/>
       <c r="R111" t="n">
-        <v>0.3269507884979248</v>
+        <v>0.4293739795684814</v>
       </c>
       <c r="S111" t="n">
-        <v>0.02353572845458984</v>
+        <v>0.0255587100982666</v>
       </c>
       <c r="T111" t="inlineStr"/>
       <c r="U111" t="n">
-        <v>0.3269507884979248</v>
+        <v>0.4293739795684814</v>
       </c>
       <c r="V111" t="n">
         <v>1</v>
@@ -16808,7 +16808,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>CatBoost_r6_FULL</t>
+          <t>CatBoost_r128</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -16818,54 +16818,60 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="D112" t="n">
-        <v>0.8387096774193549</v>
+        <v>0.8709677419354839</v>
       </c>
       <c r="E112" t="n">
-        <v>0.9</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="F112" t="n">
-        <v>0.7058823529411765</v>
+        <v>0.75</v>
       </c>
       <c r="G112" t="n">
-        <v>0.7973856209150327</v>
+        <v>0.8315217391304348</v>
       </c>
       <c r="H112" t="n">
-        <v>0.8387096774193549</v>
+        <v>0.8709677419354839</v>
       </c>
       <c r="I112" t="n">
         <v>0.810515873015873</v>
       </c>
       <c r="J112" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.6</v>
       </c>
       <c r="K112" t="n">
         <v>1</v>
       </c>
       <c r="L112" t="n">
-        <v>-0.3478997679288914</v>
+        <v>-0.3232890846281508</v>
       </c>
       <c r="M112" t="n">
-        <v>0.2430687585381283</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+        <v>0.2883946087164581</v>
+      </c>
+      <c r="N112" t="n">
+        <v>0.8187805243602345</v>
+      </c>
       <c r="O112" t="inlineStr">
         <is>
           <t>roc_auc</t>
         </is>
       </c>
       <c r="P112" t="n">
-        <v>0.001747846603393555</v>
-      </c>
-      <c r="Q112" t="inlineStr"/>
+        <v>0.003751039505004883</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>0.001199007034301758</v>
+      </c>
       <c r="R112" t="n">
-        <v>0.07643651962280273</v>
+        <v>2.574624300003052</v>
       </c>
       <c r="S112" t="n">
-        <v>0.001747846603393555</v>
-      </c>
-      <c r="T112" t="inlineStr"/>
+        <v>0.003751039505004883</v>
+      </c>
+      <c r="T112" t="n">
+        <v>0.001199007034301758</v>
+      </c>
       <c r="U112" t="n">
-        <v>0.07643651962280273</v>
+        <v>2.574624300003052</v>
       </c>
       <c r="V112" t="n">
         <v>1</v>
@@ -16874,7 +16880,7 @@
         <v>1</v>
       </c>
       <c r="X112" t="n">
-        <v>192</v>
+        <v>61</v>
       </c>
       <c r="Y112" t="n">
         <v>19</v>
@@ -16886,22 +16892,22 @@
         <v>1</v>
       </c>
       <c r="AB112" t="n">
-        <v>62909</v>
+        <v>481153</v>
       </c>
       <c r="AC112" t="n">
-        <v>62909</v>
+        <v>481153</v>
       </c>
       <c r="AD112" t="n">
-        <v>62909</v>
+        <v>481153</v>
       </c>
       <c r="AE112" t="n">
-        <v>62909</v>
+        <v>481153</v>
       </c>
       <c r="AF112" t="n">
         <v>0</v>
       </c>
       <c r="AG112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH112" t="inlineStr">
         <is>
@@ -16916,17 +16922,17 @@
       </c>
       <c r="AK112" t="inlineStr">
         <is>
-          <t>{'iterations': 67, 'learning_rate': 0.08472519974533015, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 4, 'grow_policy': 'Depthwise', 'l2_leaf_reg': 1.5734131496361856, 'max_ctr_complexity': 3, 'one_hot_max_size': 2}</t>
+          <t>{'iterations': 10000, 'learning_rate': 0.036232951900213306, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 8, 'grow_policy': 'Depthwise', 'l2_leaf_reg': 1.640921865280573, 'max_ctr_complexity': 3, 'one_hot_max_size': 5}</t>
         </is>
       </c>
       <c r="AL112" t="inlineStr">
         <is>
-          <t>{'iterations': 67}</t>
+          <t>{'iterations': 97}</t>
         </is>
       </c>
       <c r="AM112" t="inlineStr">
         <is>
-          <t>{'max_memory_usage_ratio': 1.15, 'max_time_limit_ratio': 1.0, 'max_time_limit': None, 'min_time_limit': 0, 'valid_raw_types': ['bool', 'int', 'float', 'category'], 'valid_special_types': None, 'ignored_type_group_special': None, 'ignored_type_group_raw': None, 'get_features_kwargs': None, 'get_features_kwargs_extra': None, 'predict_1_batch_size': None, 'temperature_scalar': None}</t>
+          <t>{'max_memory_usage_ratio': 1.0, 'max_time_limit_ratio': 1.0, 'max_time_limit': None, 'min_time_limit': 0, 'valid_raw_types': ['bool', 'int', 'float', 'category'], 'valid_special_types': None, 'ignored_type_group_special': None, 'ignored_type_group_raw': None, 'get_features_kwargs': None, 'get_features_kwargs_extra': None, 'predict_1_batch_size': None, 'temperature_scalar': None}</t>
         </is>
       </c>
       <c r="AN112" t="inlineStr">
@@ -16945,7 +16951,7 @@
       </c>
       <c r="AT112" t="inlineStr">
         <is>
-          <t>['WeightedEnsemble_L2_FULL']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -16998,18 +17004,18 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>0.003748178482055664</v>
+        <v>0.004006862640380859</v>
       </c>
       <c r="Q113" t="inlineStr"/>
       <c r="R113" t="n">
-        <v>0.1094417572021484</v>
+        <v>0.1456398963928223</v>
       </c>
       <c r="S113" t="n">
-        <v>0.003748178482055664</v>
+        <v>0.004006862640380859</v>
       </c>
       <c r="T113" t="inlineStr"/>
       <c r="U113" t="n">
-        <v>0.1094417572021484</v>
+        <v>0.1456398963928223</v>
       </c>
       <c r="V113" t="n">
         <v>1</v>
@@ -17096,7 +17102,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>CatBoost_r128</t>
+          <t>CatBoost_r6_FULL</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -17106,60 +17112,54 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="D114" t="n">
-        <v>0.8709677419354839</v>
+        <v>0.8387096774193549</v>
       </c>
       <c r="E114" t="n">
-        <v>0.9199999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="F114" t="n">
-        <v>0.75</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="G114" t="n">
-        <v>0.8315217391304348</v>
+        <v>0.7973856209150327</v>
       </c>
       <c r="H114" t="n">
-        <v>0.8709677419354839</v>
+        <v>0.8387096774193549</v>
       </c>
       <c r="I114" t="n">
         <v>0.810515873015873</v>
       </c>
       <c r="J114" t="n">
-        <v>0.6</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="K114" t="n">
         <v>1</v>
       </c>
       <c r="L114" t="n">
-        <v>-0.3232890846281508</v>
+        <v>-0.3478997679288914</v>
       </c>
       <c r="M114" t="n">
-        <v>0.2883946087164581</v>
-      </c>
-      <c r="N114" t="n">
-        <v>0.8187805243602345</v>
-      </c>
+        <v>0.2430687585381283</v>
+      </c>
+      <c r="N114" t="inlineStr"/>
       <c r="O114" t="inlineStr">
         <is>
           <t>roc_auc</t>
         </is>
       </c>
       <c r="P114" t="n">
-        <v>0.004620790481567383</v>
-      </c>
-      <c r="Q114" t="n">
-        <v>0</v>
-      </c>
+        <v>0.004008293151855469</v>
+      </c>
+      <c r="Q114" t="inlineStr"/>
       <c r="R114" t="n">
-        <v>2.110267639160156</v>
+        <v>0.1189472675323486</v>
       </c>
       <c r="S114" t="n">
-        <v>0.004620790481567383</v>
-      </c>
-      <c r="T114" t="n">
-        <v>0</v>
-      </c>
+        <v>0.004008293151855469</v>
+      </c>
+      <c r="T114" t="inlineStr"/>
       <c r="U114" t="n">
-        <v>2.110267639160156</v>
+        <v>0.1189472675323486</v>
       </c>
       <c r="V114" t="n">
         <v>1</v>
@@ -17168,7 +17168,7 @@
         <v>1</v>
       </c>
       <c r="X114" t="n">
-        <v>61</v>
+        <v>192</v>
       </c>
       <c r="Y114" t="n">
         <v>19</v>
@@ -17180,22 +17180,22 @@
         <v>1</v>
       </c>
       <c r="AB114" t="n">
-        <v>481153</v>
+        <v>62909</v>
       </c>
       <c r="AC114" t="n">
-        <v>481153</v>
+        <v>62909</v>
       </c>
       <c r="AD114" t="n">
-        <v>481153</v>
+        <v>62909</v>
       </c>
       <c r="AE114" t="n">
-        <v>481153</v>
+        <v>62909</v>
       </c>
       <c r="AF114" t="n">
         <v>0</v>
       </c>
       <c r="AG114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH114" t="inlineStr">
         <is>
@@ -17210,17 +17210,17 @@
       </c>
       <c r="AK114" t="inlineStr">
         <is>
-          <t>{'iterations': 10000, 'learning_rate': 0.036232951900213306, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 8, 'grow_policy': 'Depthwise', 'l2_leaf_reg': 1.640921865280573, 'max_ctr_complexity': 3, 'one_hot_max_size': 5}</t>
+          <t>{'iterations': 67, 'learning_rate': 0.08472519974533015, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 4, 'grow_policy': 'Depthwise', 'l2_leaf_reg': 1.5734131496361856, 'max_ctr_complexity': 3, 'one_hot_max_size': 2}</t>
         </is>
       </c>
       <c r="AL114" t="inlineStr">
         <is>
-          <t>{'iterations': 97}</t>
+          <t>{'iterations': 67}</t>
         </is>
       </c>
       <c r="AM114" t="inlineStr">
         <is>
-          <t>{'max_memory_usage_ratio': 1.0, 'max_time_limit_ratio': 1.0, 'max_time_limit': None, 'min_time_limit': 0, 'valid_raw_types': ['bool', 'int', 'float', 'category'], 'valid_special_types': None, 'ignored_type_group_special': None, 'ignored_type_group_raw': None, 'get_features_kwargs': None, 'get_features_kwargs_extra': None, 'predict_1_batch_size': None, 'temperature_scalar': None}</t>
+          <t>{'max_memory_usage_ratio': 1.15, 'max_time_limit_ratio': 1.0, 'max_time_limit': None, 'min_time_limit': 0, 'valid_raw_types': ['bool', 'int', 'float', 'category'], 'valid_special_types': None, 'ignored_type_group_special': None, 'ignored_type_group_raw': None, 'get_features_kwargs': None, 'get_features_kwargs_extra': None, 'predict_1_batch_size': None, 'temperature_scalar': None}</t>
         </is>
       </c>
       <c r="AN114" t="inlineStr">
@@ -17239,7 +17239,7 @@
       </c>
       <c r="AT114" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['WeightedEnsemble_L2_FULL']</t>
         </is>
       </c>
     </row>
@@ -17292,18 +17292,18 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>0.0538783073425293</v>
+        <v>0.07241129875183105</v>
       </c>
       <c r="Q115" t="inlineStr"/>
       <c r="R115" t="n">
-        <v>0.5416970252990723</v>
+        <v>0.6398282051086426</v>
       </c>
       <c r="S115" t="n">
-        <v>0.0538783073425293</v>
+        <v>0.07241129875183105</v>
       </c>
       <c r="T115" t="inlineStr"/>
       <c r="U115" t="n">
-        <v>0.5416970252990723</v>
+        <v>0.6398282051086426</v>
       </c>
       <c r="V115" t="n">
         <v>1</v>
@@ -17438,22 +17438,22 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>0.06485199928283691</v>
+        <v>0.06624388694763184</v>
       </c>
       <c r="Q116" t="n">
-        <v>0.06793785095214844</v>
+        <v>0.03824806213378906</v>
       </c>
       <c r="R116" t="n">
-        <v>0.7279260158538818</v>
+        <v>0.9798011779785156</v>
       </c>
       <c r="S116" t="n">
-        <v>0.06485199928283691</v>
+        <v>0.06624388694763184</v>
       </c>
       <c r="T116" t="n">
-        <v>0.06793785095214844</v>
+        <v>0.03824806213378906</v>
       </c>
       <c r="U116" t="n">
-        <v>0.7279260158538818</v>
+        <v>0.9798011779785156</v>
       </c>
       <c r="V116" t="n">
         <v>1</v>
@@ -17586,18 +17586,18 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>0.005750894546508789</v>
+        <v>0.008997440338134766</v>
       </c>
       <c r="Q117" t="inlineStr"/>
       <c r="R117" t="n">
-        <v>0.1707983016967773</v>
+        <v>0.2219638824462891</v>
       </c>
       <c r="S117" t="n">
-        <v>0.005750894546508789</v>
+        <v>0.008997440338134766</v>
       </c>
       <c r="T117" t="inlineStr"/>
       <c r="U117" t="n">
-        <v>0.1707983016967773</v>
+        <v>0.2219638824462891</v>
       </c>
       <c r="V117" t="n">
         <v>1</v>
@@ -17730,18 +17730,18 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>0.009021759033203125</v>
+        <v>0.01001834869384766</v>
       </c>
       <c r="Q118" t="inlineStr"/>
       <c r="R118" t="n">
-        <v>0.2999331951141357</v>
+        <v>0.3465836048126221</v>
       </c>
       <c r="S118" t="n">
-        <v>0.009021759033203125</v>
+        <v>0.01001834869384766</v>
       </c>
       <c r="T118" t="inlineStr"/>
       <c r="U118" t="n">
-        <v>0.2999331951141357</v>
+        <v>0.3465836048126221</v>
       </c>
       <c r="V118" t="n">
         <v>1</v>
@@ -17874,18 +17874,18 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>0.01128315925598145</v>
+        <v>0.01051831245422363</v>
       </c>
       <c r="Q119" t="inlineStr"/>
       <c r="R119" t="n">
-        <v>0.7238662242889404</v>
+        <v>0.9304537773132324</v>
       </c>
       <c r="S119" t="n">
-        <v>0.01128315925598145</v>
+        <v>0.01051831245422363</v>
       </c>
       <c r="T119" t="inlineStr"/>
       <c r="U119" t="n">
-        <v>0.7238662242889404</v>
+        <v>0.9304537773132324</v>
       </c>
       <c r="V119" t="n">
         <v>1</v>
@@ -18018,18 +18018,18 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>0.01240658760070801</v>
+        <v>0.0147864818572998</v>
       </c>
       <c r="Q120" t="inlineStr"/>
       <c r="R120" t="n">
-        <v>0.2323873043060303</v>
+        <v>0.3541650772094727</v>
       </c>
       <c r="S120" t="n">
-        <v>0.01240658760070801</v>
+        <v>0.0147864818572998</v>
       </c>
       <c r="T120" t="inlineStr"/>
       <c r="U120" t="n">
-        <v>0.2323873043060303</v>
+        <v>0.3541650772094727</v>
       </c>
       <c r="V120" t="n">
         <v>1</v>
@@ -18162,18 +18162,18 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>0.01496601104736328</v>
+        <v>0.01577520370483398</v>
       </c>
       <c r="Q121" t="inlineStr"/>
       <c r="R121" t="n">
-        <v>1.700467586517334</v>
+        <v>2.206795692443848</v>
       </c>
       <c r="S121" t="n">
-        <v>0.01496601104736328</v>
+        <v>0.01577520370483398</v>
       </c>
       <c r="T121" t="inlineStr"/>
       <c r="U121" t="n">
-        <v>1.700467586517334</v>
+        <v>2.206795692443848</v>
       </c>
       <c r="V121" t="n">
         <v>1</v>
@@ -18308,22 +18308,22 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>0.004011869430541992</v>
+        <v>0.004544258117675781</v>
       </c>
       <c r="Q122" t="n">
-        <v>0.01598167419433594</v>
+        <v>0.00200653076171875</v>
       </c>
       <c r="R122" t="n">
-        <v>2.430137872695923</v>
+        <v>3.367998838424683</v>
       </c>
       <c r="S122" t="n">
-        <v>0.004011869430541992</v>
+        <v>0.004544258117675781</v>
       </c>
       <c r="T122" t="n">
-        <v>0.01598167419433594</v>
+        <v>0.00200653076171875</v>
       </c>
       <c r="U122" t="n">
-        <v>2.430137872695923</v>
+        <v>3.367998838424683</v>
       </c>
       <c r="V122" t="n">
         <v>1</v>
@@ -18456,18 +18456,18 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>0.01402521133422852</v>
+        <v>0.01558756828308105</v>
       </c>
       <c r="Q123" t="inlineStr"/>
       <c r="R123" t="n">
-        <v>0.4736630916595459</v>
+        <v>0.809514045715332</v>
       </c>
       <c r="S123" t="n">
-        <v>0.01402521133422852</v>
+        <v>0.01558756828308105</v>
       </c>
       <c r="T123" t="inlineStr"/>
       <c r="U123" t="n">
-        <v>0.4736630916595459</v>
+        <v>0.809514045715332</v>
       </c>
       <c r="V123" t="n">
         <v>1</v>
@@ -18600,18 +18600,18 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>0.0117652416229248</v>
+        <v>0.01376914978027344</v>
       </c>
       <c r="Q124" t="inlineStr"/>
       <c r="R124" t="n">
-        <v>1.113800048828125</v>
+        <v>1.39552640914917</v>
       </c>
       <c r="S124" t="n">
-        <v>0.0117652416229248</v>
+        <v>0.01376914978027344</v>
       </c>
       <c r="T124" t="inlineStr"/>
       <c r="U124" t="n">
-        <v>1.113800048828125</v>
+        <v>1.39552640914917</v>
       </c>
       <c r="V124" t="n">
         <v>1</v>
@@ -18744,18 +18744,18 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>0.004011392593383789</v>
+        <v>0.004007339477539062</v>
       </c>
       <c r="Q125" t="inlineStr"/>
       <c r="R125" t="n">
-        <v>0.1853170394897461</v>
+        <v>0.200742244720459</v>
       </c>
       <c r="S125" t="n">
-        <v>0.004011392593383789</v>
+        <v>0.004007339477539062</v>
       </c>
       <c r="T125" t="inlineStr"/>
       <c r="U125" t="n">
-        <v>0.1853170394897461</v>
+        <v>0.200742244720459</v>
       </c>
       <c r="V125" t="n">
         <v>1</v>
@@ -18888,18 +18888,18 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>0.008020401000976562</v>
+        <v>0.00801849365234375</v>
       </c>
       <c r="Q126" t="inlineStr"/>
       <c r="R126" t="n">
-        <v>0.1776602268218994</v>
+        <v>0.2263109683990479</v>
       </c>
       <c r="S126" t="n">
-        <v>0.008020401000976562</v>
+        <v>0.00801849365234375</v>
       </c>
       <c r="T126" t="inlineStr"/>
       <c r="U126" t="n">
-        <v>0.1776602268218994</v>
+        <v>0.2263109683990479</v>
       </c>
       <c r="V126" t="n">
         <v>1</v>
@@ -19034,22 +19034,22 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>0.006014108657836914</v>
+        <v>0.006298303604125977</v>
       </c>
       <c r="Q127" t="n">
-        <v>0.002005338668823242</v>
+        <v>0.002002954483032227</v>
       </c>
       <c r="R127" t="n">
-        <v>0.4167158603668213</v>
+        <v>0.5388622283935547</v>
       </c>
       <c r="S127" t="n">
-        <v>0.006014108657836914</v>
+        <v>0.006298303604125977</v>
       </c>
       <c r="T127" t="n">
-        <v>0.002005338668823242</v>
+        <v>0.002002954483032227</v>
       </c>
       <c r="U127" t="n">
-        <v>0.4167158603668213</v>
+        <v>0.5388622283935547</v>
       </c>
       <c r="V127" t="n">
         <v>1</v>
@@ -19182,18 +19182,18 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>0.009521722793579102</v>
+        <v>0.009967565536499023</v>
       </c>
       <c r="Q128" t="inlineStr"/>
       <c r="R128" t="n">
-        <v>0.9004616737365723</v>
+        <v>1.245662927627563</v>
       </c>
       <c r="S128" t="n">
-        <v>0.009521722793579102</v>
+        <v>0.009967565536499023</v>
       </c>
       <c r="T128" t="inlineStr"/>
       <c r="U128" t="n">
-        <v>0.9004616737365723</v>
+        <v>1.245662927627563</v>
       </c>
       <c r="V128" t="n">
         <v>1</v>
@@ -19326,18 +19326,18 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>0.01201987266540527</v>
+        <v>0.01378035545349121</v>
       </c>
       <c r="Q129" t="inlineStr"/>
       <c r="R129" t="n">
-        <v>1.221631765365601</v>
+        <v>1.511330366134644</v>
       </c>
       <c r="S129" t="n">
-        <v>0.01201987266540527</v>
+        <v>0.01378035545349121</v>
       </c>
       <c r="T129" t="inlineStr"/>
       <c r="U129" t="n">
-        <v>1.221631765365601</v>
+        <v>1.511330366134644</v>
       </c>
       <c r="V129" t="n">
         <v>1</v>
@@ -19424,7 +19424,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>ExtraTrees_r172_FULL</t>
+          <t>ExtraTrees_r4_FULL</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -19437,13 +19437,13 @@
         <v>0.8064516129032258</v>
       </c>
       <c r="E130" t="n">
-        <v>0.8166666666666667</v>
+        <v>0.88</v>
       </c>
       <c r="F130" t="n">
-        <v>0.625</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G130" t="n">
-        <v>0.7472826086956521</v>
+        <v>0.7651515151515151</v>
       </c>
       <c r="H130" t="n">
         <v>0.8064516129032258</v>
@@ -19455,13 +19455,13 @@
         <v>0.5</v>
       </c>
       <c r="K130" t="n">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="L130" t="n">
-        <v>-0.318020393624465</v>
+        <v>-0.4700405822930092</v>
       </c>
       <c r="M130" t="n">
-        <v>0.2982440021151469</v>
+        <v>0.03390956708467693</v>
       </c>
       <c r="N130" t="inlineStr"/>
       <c r="O130" t="inlineStr">
@@ -19470,18 +19470,18 @@
         </is>
       </c>
       <c r="P130" t="n">
-        <v>0.06397891044616699</v>
+        <v>0.07010221481323242</v>
       </c>
       <c r="Q130" t="inlineStr"/>
       <c r="R130" t="n">
-        <v>0.5055561065673828</v>
+        <v>0.6365952491760254</v>
       </c>
       <c r="S130" t="n">
-        <v>0.06397891044616699</v>
+        <v>0.07010221481323242</v>
       </c>
       <c r="T130" t="inlineStr"/>
       <c r="U130" t="n">
-        <v>0.5055561065673828</v>
+        <v>0.6365952491760254</v>
       </c>
       <c r="V130" t="n">
         <v>1</v>
@@ -19490,7 +19490,7 @@
         <v>1</v>
       </c>
       <c r="X130" t="n">
-        <v>143</v>
+        <v>173</v>
       </c>
       <c r="Y130" t="n">
         <v>19</v>
@@ -19502,16 +19502,16 @@
         <v>1</v>
       </c>
       <c r="AB130" t="n">
-        <v>1108949</v>
+        <v>366666</v>
       </c>
       <c r="AC130" t="n">
-        <v>1108949</v>
+        <v>366666</v>
       </c>
       <c r="AD130" t="n">
-        <v>1108949</v>
+        <v>366666</v>
       </c>
       <c r="AE130" t="n">
-        <v>1108949</v>
+        <v>366666</v>
       </c>
       <c r="AF130" t="n">
         <v>0</v>
@@ -19532,7 +19532,7 @@
       </c>
       <c r="AK130" t="inlineStr">
         <is>
-          <t>{'n_estimators': 300, 'max_leaf_nodes': 12845, 'n_jobs': -1, 'random_state': 0, 'bootstrap': True, 'max_features': 1.0, 'min_samples_leaf': 4}</t>
+          <t>{'n_estimators': 300, 'max_leaf_nodes': 19935, 'n_jobs': -1, 'random_state': 0, 'bootstrap': True, 'max_features': 1.0, 'min_samples_leaf': 20}</t>
         </is>
       </c>
       <c r="AL130" t="inlineStr">
@@ -19568,7 +19568,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>ExtraTrees_r4_FULL</t>
+          <t>ExtraTrees_r178_FULL</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -19578,34 +19578,34 @@
         <v>0.9266666666666667</v>
       </c>
       <c r="D131" t="n">
-        <v>0.8064516129032258</v>
+        <v>0.8387096774193549</v>
       </c>
       <c r="E131" t="n">
-        <v>0.88</v>
+        <v>0.8366666666666667</v>
       </c>
       <c r="F131" t="n">
         <v>0.6666666666666666</v>
       </c>
       <c r="G131" t="n">
-        <v>0.7651515151515151</v>
+        <v>0.7801418439716312</v>
       </c>
       <c r="H131" t="n">
-        <v>0.8064516129032258</v>
+        <v>0.8387096774193549</v>
       </c>
       <c r="I131" t="n">
         <v>0.7946127946127945</v>
       </c>
       <c r="J131" t="n">
-        <v>0.5</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="K131" t="n">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L131" t="n">
-        <v>-0.4700405822930092</v>
+        <v>-0.337374421305695</v>
       </c>
       <c r="M131" t="n">
-        <v>0.03390956708467693</v>
+        <v>0.2623170399223586</v>
       </c>
       <c r="N131" t="inlineStr"/>
       <c r="O131" t="inlineStr">
@@ -19614,18 +19614,18 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>0.06421780586242676</v>
+        <v>0.08058881759643555</v>
       </c>
       <c r="Q131" t="inlineStr"/>
       <c r="R131" t="n">
-        <v>0.5475726127624512</v>
+        <v>0.670896053314209</v>
       </c>
       <c r="S131" t="n">
-        <v>0.06421780586242676</v>
+        <v>0.08058881759643555</v>
       </c>
       <c r="T131" t="inlineStr"/>
       <c r="U131" t="n">
-        <v>0.5475726127624512</v>
+        <v>0.670896053314209</v>
       </c>
       <c r="V131" t="n">
         <v>1</v>
@@ -19634,7 +19634,7 @@
         <v>1</v>
       </c>
       <c r="X131" t="n">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="Y131" t="n">
         <v>19</v>
@@ -19646,16 +19646,16 @@
         <v>1</v>
       </c>
       <c r="AB131" t="n">
-        <v>366666</v>
+        <v>1152638</v>
       </c>
       <c r="AC131" t="n">
-        <v>366666</v>
+        <v>1152638</v>
       </c>
       <c r="AD131" t="n">
-        <v>366666</v>
+        <v>1152638</v>
       </c>
       <c r="AE131" t="n">
-        <v>366666</v>
+        <v>1152638</v>
       </c>
       <c r="AF131" t="n">
         <v>0</v>
@@ -19676,7 +19676,7 @@
       </c>
       <c r="AK131" t="inlineStr">
         <is>
-          <t>{'n_estimators': 300, 'max_leaf_nodes': 19935, 'n_jobs': -1, 'random_state': 0, 'bootstrap': True, 'max_features': 1.0, 'min_samples_leaf': 20}</t>
+          <t>{'n_estimators': 300, 'max_leaf_nodes': 29813, 'n_jobs': -1, 'random_state': 0, 'bootstrap': True, 'max_features': 0.75, 'min_samples_leaf': 4}</t>
         </is>
       </c>
       <c r="AL131" t="inlineStr">
@@ -19712,7 +19712,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>ExtraTrees_r178_FULL</t>
+          <t>ExtraTrees_r172_FULL</t>
         </is>
       </c>
       <c r="B132" t="n">
@@ -19722,34 +19722,34 @@
         <v>0.9266666666666667</v>
       </c>
       <c r="D132" t="n">
-        <v>0.8387096774193549</v>
+        <v>0.8064516129032258</v>
       </c>
       <c r="E132" t="n">
-        <v>0.8366666666666667</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="F132" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.625</v>
       </c>
       <c r="G132" t="n">
-        <v>0.7801418439716312</v>
+        <v>0.7472826086956521</v>
       </c>
       <c r="H132" t="n">
-        <v>0.8387096774193549</v>
+        <v>0.8064516129032258</v>
       </c>
       <c r="I132" t="n">
         <v>0.7946127946127945</v>
       </c>
       <c r="J132" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.5</v>
       </c>
       <c r="K132" t="n">
         <v>0.8333333333333334</v>
       </c>
       <c r="L132" t="n">
-        <v>-0.337374421305695</v>
+        <v>-0.318020393624465</v>
       </c>
       <c r="M132" t="n">
-        <v>0.2623170399223586</v>
+        <v>0.2982440021151469</v>
       </c>
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr">
@@ -19758,18 +19758,18 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>0.06521487236022949</v>
+        <v>0.0817561149597168</v>
       </c>
       <c r="Q132" t="inlineStr"/>
       <c r="R132" t="n">
-        <v>0.644373893737793</v>
+        <v>0.6721854209899902</v>
       </c>
       <c r="S132" t="n">
-        <v>0.06521487236022949</v>
+        <v>0.0817561149597168</v>
       </c>
       <c r="T132" t="inlineStr"/>
       <c r="U132" t="n">
-        <v>0.644373893737793</v>
+        <v>0.6721854209899902</v>
       </c>
       <c r="V132" t="n">
         <v>1</v>
@@ -19778,7 +19778,7 @@
         <v>1</v>
       </c>
       <c r="X132" t="n">
-        <v>182</v>
+        <v>143</v>
       </c>
       <c r="Y132" t="n">
         <v>19</v>
@@ -19790,16 +19790,16 @@
         <v>1</v>
       </c>
       <c r="AB132" t="n">
-        <v>1152638</v>
+        <v>1108949</v>
       </c>
       <c r="AC132" t="n">
-        <v>1152638</v>
+        <v>1108949</v>
       </c>
       <c r="AD132" t="n">
-        <v>1152638</v>
+        <v>1108949</v>
       </c>
       <c r="AE132" t="n">
-        <v>1152638</v>
+        <v>1108949</v>
       </c>
       <c r="AF132" t="n">
         <v>0</v>
@@ -19820,7 +19820,7 @@
       </c>
       <c r="AK132" t="inlineStr">
         <is>
-          <t>{'n_estimators': 300, 'max_leaf_nodes': 29813, 'n_jobs': -1, 'random_state': 0, 'bootstrap': True, 'max_features': 0.75, 'min_samples_leaf': 4}</t>
+          <t>{'n_estimators': 300, 'max_leaf_nodes': 12845, 'n_jobs': -1, 'random_state': 0, 'bootstrap': True, 'max_features': 1.0, 'min_samples_leaf': 4}</t>
         </is>
       </c>
       <c r="AL132" t="inlineStr">
@@ -19856,7 +19856,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>NeuralNetFastAI_r4_FULL</t>
+          <t>NeuralNetTorch_r14_FULL</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -19866,19 +19866,19 @@
         <v>0.9466666666666667</v>
       </c>
       <c r="D133" t="n">
-        <v>0.9032258064516129</v>
+        <v>0.8709677419354839</v>
       </c>
       <c r="E133" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.7933333333333333</v>
       </c>
       <c r="F133" t="n">
-        <v>0.8</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G133" t="n">
-        <v>0.8680851063829788</v>
+        <v>0.7933333333333333</v>
       </c>
       <c r="H133" t="n">
-        <v>0.9032258064516129</v>
+        <v>0.8709677419354839</v>
       </c>
       <c r="I133" t="n">
         <v>0.7996031746031745</v>
@@ -19887,13 +19887,13 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="K133" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L133" t="n">
-        <v>-0.3033542898130974</v>
+        <v>-0.2543676712248216</v>
       </c>
       <c r="M133" t="n">
-        <v>0.3259356516532838</v>
+        <v>0.4214289800560796</v>
       </c>
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr">
@@ -19902,18 +19902,18 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>0.007750749588012695</v>
+        <v>0.01001834869384766</v>
       </c>
       <c r="Q133" t="inlineStr"/>
       <c r="R133" t="n">
-        <v>0.7390141487121582</v>
+        <v>0.5558116436004639</v>
       </c>
       <c r="S133" t="n">
-        <v>0.007750749588012695</v>
+        <v>0.01001834869384766</v>
       </c>
       <c r="T133" t="inlineStr"/>
       <c r="U133" t="n">
-        <v>0.7390141487121582</v>
+        <v>0.5558116436004639</v>
       </c>
       <c r="V133" t="n">
         <v>1</v>
@@ -19922,7 +19922,7 @@
         <v>1</v>
       </c>
       <c r="X133" t="n">
-        <v>205</v>
+        <v>146</v>
       </c>
       <c r="Y133" t="n">
         <v>19</v>
@@ -19934,16 +19934,16 @@
         <v>1</v>
       </c>
       <c r="AB133" t="n">
-        <v>56797</v>
+        <v>29313</v>
       </c>
       <c r="AC133" t="n">
-        <v>56797</v>
+        <v>29313</v>
       </c>
       <c r="AD133" t="n">
-        <v>56797</v>
+        <v>29313</v>
       </c>
       <c r="AE133" t="n">
-        <v>56797</v>
+        <v>29313</v>
       </c>
       <c r="AF133" t="n">
         <v>0</v>
@@ -19953,23 +19953,23 @@
       </c>
       <c r="AH133" t="inlineStr">
         <is>
-          <t>NNFastAiTabularModel</t>
+          <t>TabularNeuralNetTorchModel</t>
         </is>
       </c>
       <c r="AI133" t="inlineStr"/>
       <c r="AJ133" t="inlineStr">
         <is>
-          <t>log_loss</t>
+          <t>roc_auc</t>
         </is>
       </c>
       <c r="AK133" t="inlineStr">
         <is>
-          <t>{'layers': [200], 'emb_drop': 0.06099050979107849, 'ps': 0.5447097256648953, 'bs': 256, 'lr': 0.04119582873110387, 'epochs': 39, 'early.stopping.min_delta': 0.0001, 'early.stopping.patience': 20, 'smoothing': 0.0, 'best_epoch': 27}</t>
+          <t>{'num_epochs': 37, 'epochs_wo_improve': None, 'activation': 'relu', 'embedding_size_factor': 1.0, 'embed_exponent': 0.56, 'max_embedding_dim': 100, 'y_range': None, 'y_range_extend': 0.05, 'dropout_prob': 0.3905837860053583, 'optimizer': 'adam', 'learning_rate': 0.0018297905295930797, 'weight_decay': 9.178069874232892e-08, 'proc.embed_min_categories': 4, 'proc.impute_strategy': 'median', 'proc.max_category_levels': 100, 'proc.skew_threshold': 0.99, 'use_ngram_features': False, 'num_layers': 1, 'hidden_size': 106, 'max_batch_size': 512, 'use_batchnorm': True, 'loss_function': 'auto', 'batch_size': 32}</t>
         </is>
       </c>
       <c r="AL133" t="inlineStr">
         <is>
-          <t>{'epochs': 39, 'best_epoch': 27}</t>
+          <t>{'batch_size': 32, 'num_epochs': 0}</t>
         </is>
       </c>
       <c r="AM133" t="inlineStr">
@@ -20000,7 +20000,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>NeuralNetTorch_r14_FULL</t>
+          <t>NeuralNetFastAI_r4_FULL</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -20010,19 +20010,19 @@
         <v>0.9466666666666667</v>
       </c>
       <c r="D134" t="n">
-        <v>0.8709677419354839</v>
+        <v>0.9032258064516129</v>
       </c>
       <c r="E134" t="n">
-        <v>0.7933333333333333</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F134" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8</v>
       </c>
       <c r="G134" t="n">
-        <v>0.7933333333333333</v>
+        <v>0.8680851063829788</v>
       </c>
       <c r="H134" t="n">
-        <v>0.8709677419354839</v>
+        <v>0.9032258064516129</v>
       </c>
       <c r="I134" t="n">
         <v>0.7996031746031745</v>
@@ -20031,13 +20031,13 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="K134" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="L134" t="n">
-        <v>-0.2543676712248216</v>
+        <v>-0.3033542898130974</v>
       </c>
       <c r="M134" t="n">
-        <v>0.4214289800560796</v>
+        <v>0.3259356516532838</v>
       </c>
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr">
@@ -20046,18 +20046,18 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>0.009763479232788086</v>
+        <v>0.01376914978027344</v>
       </c>
       <c r="Q134" t="inlineStr"/>
       <c r="R134" t="n">
-        <v>0.3999359607696533</v>
+        <v>0.4257063865661621</v>
       </c>
       <c r="S134" t="n">
-        <v>0.009763479232788086</v>
+        <v>0.01376914978027344</v>
       </c>
       <c r="T134" t="inlineStr"/>
       <c r="U134" t="n">
-        <v>0.3999359607696533</v>
+        <v>0.4257063865661621</v>
       </c>
       <c r="V134" t="n">
         <v>1</v>
@@ -20066,7 +20066,7 @@
         <v>1</v>
       </c>
       <c r="X134" t="n">
-        <v>146</v>
+        <v>205</v>
       </c>
       <c r="Y134" t="n">
         <v>19</v>
@@ -20078,16 +20078,16 @@
         <v>1</v>
       </c>
       <c r="AB134" t="n">
-        <v>29313</v>
+        <v>56797</v>
       </c>
       <c r="AC134" t="n">
-        <v>29313</v>
+        <v>56797</v>
       </c>
       <c r="AD134" t="n">
-        <v>29313</v>
+        <v>56797</v>
       </c>
       <c r="AE134" t="n">
-        <v>29313</v>
+        <v>56797</v>
       </c>
       <c r="AF134" t="n">
         <v>0</v>
@@ -20097,23 +20097,23 @@
       </c>
       <c r="AH134" t="inlineStr">
         <is>
-          <t>TabularNeuralNetTorchModel</t>
+          <t>NNFastAiTabularModel</t>
         </is>
       </c>
       <c r="AI134" t="inlineStr"/>
       <c r="AJ134" t="inlineStr">
         <is>
-          <t>roc_auc</t>
+          <t>log_loss</t>
         </is>
       </c>
       <c r="AK134" t="inlineStr">
         <is>
-          <t>{'num_epochs': 37, 'epochs_wo_improve': None, 'activation': 'relu', 'embedding_size_factor': 1.0, 'embed_exponent': 0.56, 'max_embedding_dim': 100, 'y_range': None, 'y_range_extend': 0.05, 'dropout_prob': 0.3905837860053583, 'optimizer': 'adam', 'learning_rate': 0.0018297905295930797, 'weight_decay': 9.178069874232892e-08, 'proc.embed_min_categories': 4, 'proc.impute_strategy': 'median', 'proc.max_category_levels': 100, 'proc.skew_threshold': 0.99, 'use_ngram_features': False, 'num_layers': 1, 'hidden_size': 106, 'max_batch_size': 512, 'use_batchnorm': True, 'loss_function': 'auto', 'batch_size': 32}</t>
+          <t>{'layers': [200], 'emb_drop': 0.06099050979107849, 'ps': 0.5447097256648953, 'bs': 256, 'lr': 0.04119582873110387, 'epochs': 39, 'early.stopping.min_delta': 0.0001, 'early.stopping.patience': 20, 'smoothing': 0.0, 'best_epoch': 27}</t>
         </is>
       </c>
       <c r="AL134" t="inlineStr">
         <is>
-          <t>{'batch_size': 32, 'num_epochs': 0}</t>
+          <t>{'epochs': 39, 'best_epoch': 27}</t>
         </is>
       </c>
       <c r="AM134" t="inlineStr">
@@ -20190,18 +20190,18 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>0.002003908157348633</v>
+        <v>0.002005815505981445</v>
       </c>
       <c r="Q135" t="inlineStr"/>
       <c r="R135" t="n">
-        <v>0.1610956192016602</v>
+        <v>0.189821720123291</v>
       </c>
       <c r="S135" t="n">
-        <v>0.002003908157348633</v>
+        <v>0.002005815505981445</v>
       </c>
       <c r="T135" t="inlineStr"/>
       <c r="U135" t="n">
-        <v>0.1610956192016602</v>
+        <v>0.189821720123291</v>
       </c>
       <c r="V135" t="n">
         <v>1</v>
@@ -20334,18 +20334,18 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>0.01000189781188965</v>
+        <v>0.01152801513671875</v>
       </c>
       <c r="Q136" t="inlineStr"/>
       <c r="R136" t="n">
-        <v>0.1936371326446533</v>
+        <v>0.2521123886108398</v>
       </c>
       <c r="S136" t="n">
-        <v>0.01000189781188965</v>
+        <v>0.01152801513671875</v>
       </c>
       <c r="T136" t="inlineStr"/>
       <c r="U136" t="n">
-        <v>0.1936371326446533</v>
+        <v>0.2521123886108398</v>
       </c>
       <c r="V136" t="n">
         <v>1</v>
@@ -20478,18 +20478,18 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>0.003354310989379883</v>
+        <v>0.0105438232421875</v>
       </c>
       <c r="Q137" t="inlineStr"/>
       <c r="R137" t="n">
-        <v>0.2964918613433838</v>
+        <v>0.369804859161377</v>
       </c>
       <c r="S137" t="n">
-        <v>0.003354310989379883</v>
+        <v>0.0105438232421875</v>
       </c>
       <c r="T137" t="inlineStr"/>
       <c r="U137" t="n">
-        <v>0.2964918613433838</v>
+        <v>0.369804859161377</v>
       </c>
       <c r="V137" t="n">
         <v>1</v>
@@ -20622,18 +20622,18 @@
         </is>
       </c>
       <c r="P138" t="n">
-        <v>0.01403713226318359</v>
+        <v>0.01804184913635254</v>
       </c>
       <c r="Q138" t="inlineStr"/>
       <c r="R138" t="n">
-        <v>1.217289686203003</v>
+        <v>1.534339666366577</v>
       </c>
       <c r="S138" t="n">
-        <v>0.01403713226318359</v>
+        <v>0.01804184913635254</v>
       </c>
       <c r="T138" t="inlineStr"/>
       <c r="U138" t="n">
-        <v>1.217289686203003</v>
+        <v>1.534339666366577</v>
       </c>
       <c r="V138" t="n">
         <v>1</v>
@@ -20768,22 +20768,22 @@
         </is>
       </c>
       <c r="P139" t="n">
-        <v>0.01578521728515625</v>
+        <v>0.01404023170471191</v>
       </c>
       <c r="Q139" t="n">
-        <v>0.008013010025024414</v>
+        <v>0.01032304763793945</v>
       </c>
       <c r="R139" t="n">
-        <v>2.158824920654297</v>
+        <v>2.662631511688232</v>
       </c>
       <c r="S139" t="n">
-        <v>0.01578521728515625</v>
+        <v>0.01404023170471191</v>
       </c>
       <c r="T139" t="n">
-        <v>0.008013010025024414</v>
+        <v>0.01032304763793945</v>
       </c>
       <c r="U139" t="n">
-        <v>2.158824920654297</v>
+        <v>2.662631511688232</v>
       </c>
       <c r="V139" t="n">
         <v>1</v>
@@ -20916,18 +20916,18 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>0.05136990547180176</v>
+        <v>0.0553429126739502</v>
       </c>
       <c r="Q140" t="inlineStr"/>
       <c r="R140" t="n">
-        <v>0.5132288932800293</v>
+        <v>0.6081476211547852</v>
       </c>
       <c r="S140" t="n">
-        <v>0.05136990547180176</v>
+        <v>0.0553429126739502</v>
       </c>
       <c r="T140" t="inlineStr"/>
       <c r="U140" t="n">
-        <v>0.5132288932800293</v>
+        <v>0.6081476211547852</v>
       </c>
       <c r="V140" t="n">
         <v>1</v>
@@ -21062,22 +21062,22 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>0.0652616024017334</v>
+        <v>0.0709388256072998</v>
       </c>
       <c r="Q141" t="n">
-        <v>0.0406193733215332</v>
+        <v>0.05176806449890137</v>
       </c>
       <c r="R141" t="n">
-        <v>0.5559024810791016</v>
+        <v>0.8167521953582764</v>
       </c>
       <c r="S141" t="n">
-        <v>0.0652616024017334</v>
+        <v>0.0709388256072998</v>
       </c>
       <c r="T141" t="n">
-        <v>0.0406193733215332</v>
+        <v>0.05176806449890137</v>
       </c>
       <c r="U141" t="n">
-        <v>0.5559024810791016</v>
+        <v>0.8167521953582764</v>
       </c>
       <c r="V141" t="n">
         <v>1</v>
@@ -21210,18 +21210,18 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>0.01378107070922852</v>
+        <v>0.01559948921203613</v>
       </c>
       <c r="Q142" t="inlineStr"/>
       <c r="R142" t="n">
-        <v>0.2910318374633789</v>
+        <v>0.3927059173583984</v>
       </c>
       <c r="S142" t="n">
-        <v>0.01378107070922852</v>
+        <v>0.01559948921203613</v>
       </c>
       <c r="T142" t="inlineStr"/>
       <c r="U142" t="n">
-        <v>0.2910318374633789</v>
+        <v>0.3927059173583984</v>
       </c>
       <c r="V142" t="n">
         <v>1</v>
@@ -21354,18 +21354,18 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>0.04922223091125488</v>
+        <v>0.04559612274169922</v>
       </c>
       <c r="Q143" t="inlineStr"/>
       <c r="R143" t="n">
-        <v>1.058611631393433</v>
+        <v>1.283456802368164</v>
       </c>
       <c r="S143" t="n">
-        <v>0.004095554351806641</v>
+        <v>0.004010915756225586</v>
       </c>
       <c r="T143" t="inlineStr"/>
       <c r="U143" t="n">
-        <v>0.1335923671722412</v>
+        <v>0.1159722805023193</v>
       </c>
       <c r="V143" t="n">
         <v>2</v>
@@ -21435,7 +21435,7 @@
       </c>
       <c r="AN143" t="inlineStr">
         <is>
-          <t>['LightGBM_r30', 'CatBoost_r6', 'NeuralNetFastAI_r37']</t>
+          <t>['LightGBM_r30', 'NeuralNetFastAI_r37', 'CatBoost_r6']</t>
         </is>
       </c>
       <c r="AO143" t="inlineStr"/>
@@ -21456,7 +21456,7 @@
       </c>
       <c r="AS143" t="inlineStr">
         <is>
-          <t>['NeuralNetFastAI_r37_FULL', 'LightGBM_r30_FULL', 'CatBoost_r6_FULL']</t>
+          <t>['CatBoost_r6_FULL', 'LightGBM_r30_FULL', 'NeuralNetFastAI_r37_FULL']</t>
         </is>
       </c>
       <c r="AT143" t="inlineStr">
@@ -21516,22 +21516,22 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>0.06789970397949219</v>
+        <v>0.06985855102539062</v>
       </c>
       <c r="Q144" t="n">
-        <v>0.0407407283782959</v>
+        <v>0.03828072547912598</v>
       </c>
       <c r="R144" t="n">
-        <v>0.7174475193023682</v>
+        <v>0.5933983325958252</v>
       </c>
       <c r="S144" t="n">
-        <v>0.06789970397949219</v>
+        <v>0.06985855102539062</v>
       </c>
       <c r="T144" t="n">
-        <v>0.0407407283782959</v>
+        <v>0.03828072547912598</v>
       </c>
       <c r="U144" t="n">
-        <v>0.7174475193023682</v>
+        <v>0.5933983325958252</v>
       </c>
       <c r="V144" t="n">
         <v>1</v>
@@ -21666,22 +21666,22 @@
         </is>
       </c>
       <c r="P145" t="n">
-        <v>0.009003877639770508</v>
+        <v>0.01001930236816406</v>
       </c>
       <c r="Q145" t="n">
-        <v>0.001381158828735352</v>
+        <v>0.01006269454956055</v>
       </c>
       <c r="R145" t="n">
-        <v>0.6030902862548828</v>
+        <v>0.8739895820617676</v>
       </c>
       <c r="S145" t="n">
-        <v>0.009003877639770508</v>
+        <v>0.01001930236816406</v>
       </c>
       <c r="T145" t="n">
-        <v>0.001381158828735352</v>
+        <v>0.01006269454956055</v>
       </c>
       <c r="U145" t="n">
-        <v>0.6030902862548828</v>
+        <v>0.8739895820617676</v>
       </c>
       <c r="V145" t="n">
         <v>1</v>
@@ -21816,22 +21816,22 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>0.06266093254089355</v>
+        <v>0.06846427917480469</v>
       </c>
       <c r="Q146" t="n">
-        <v>0.03937816619873047</v>
+        <v>0.03930950164794922</v>
       </c>
       <c r="R146" t="n">
-        <v>0.9271340370178223</v>
+        <v>0.9726762771606445</v>
       </c>
       <c r="S146" t="n">
-        <v>0.06266093254089355</v>
+        <v>0.06846427917480469</v>
       </c>
       <c r="T146" t="n">
-        <v>0.03937816619873047</v>
+        <v>0.03930950164794922</v>
       </c>
       <c r="U146" t="n">
-        <v>0.9271340370178223</v>
+        <v>0.9726762771606445</v>
       </c>
       <c r="V146" t="n">
         <v>1</v>
@@ -21966,22 +21966,22 @@
         </is>
       </c>
       <c r="P147" t="n">
-        <v>0.004012107849121094</v>
+        <v>0.00400090217590332</v>
       </c>
       <c r="Q147" t="n">
-        <v>0</v>
+        <v>0.003757476806640625</v>
       </c>
       <c r="R147" t="n">
-        <v>0.6028330326080322</v>
+        <v>0.7835738658905029</v>
       </c>
       <c r="S147" t="n">
-        <v>0.004012107849121094</v>
+        <v>0.00400090217590332</v>
       </c>
       <c r="T147" t="n">
-        <v>0</v>
+        <v>0.003757476806640625</v>
       </c>
       <c r="U147" t="n">
-        <v>0.6028330326080322</v>
+        <v>0.7835738658905029</v>
       </c>
       <c r="V147" t="n">
         <v>1</v>
@@ -22116,22 +22116,22 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>0.008753776550292969</v>
+        <v>0.01111459732055664</v>
       </c>
       <c r="Q148" t="n">
-        <v>0.003285408020019531</v>
+        <v>0.008024692535400391</v>
       </c>
       <c r="R148" t="n">
-        <v>0.4206960201263428</v>
+        <v>0.5297384262084961</v>
       </c>
       <c r="S148" t="n">
-        <v>0.008753776550292969</v>
+        <v>0.01111459732055664</v>
       </c>
       <c r="T148" t="n">
-        <v>0.003285408020019531</v>
+        <v>0.008024692535400391</v>
       </c>
       <c r="U148" t="n">
-        <v>0.4206960201263428</v>
+        <v>0.5297384262084961</v>
       </c>
       <c r="V148" t="n">
         <v>1</v>
@@ -22266,22 +22266,22 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>0.07478737831115723</v>
+        <v>0.07115268707275391</v>
       </c>
       <c r="Q149" t="n">
-        <v>0.05203104019165039</v>
+        <v>0.04925942420959473</v>
       </c>
       <c r="R149" t="n">
-        <v>0.9553375244140625</v>
+        <v>1.075940847396851</v>
       </c>
       <c r="S149" t="n">
-        <v>0.07478737831115723</v>
+        <v>0.07115268707275391</v>
       </c>
       <c r="T149" t="n">
-        <v>0.05203104019165039</v>
+        <v>0.04925942420959473</v>
       </c>
       <c r="U149" t="n">
-        <v>0.9553375244140625</v>
+        <v>1.075940847396851</v>
       </c>
       <c r="V149" t="n">
         <v>1</v>
@@ -22414,18 +22414,18 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>0.01202535629272461</v>
+        <v>0.01376914978027344</v>
       </c>
       <c r="Q150" t="inlineStr"/>
       <c r="R150" t="n">
-        <v>0.7055811882019043</v>
+        <v>1.087490320205688</v>
       </c>
       <c r="S150" t="n">
-        <v>0.01202535629272461</v>
+        <v>0.01376914978027344</v>
       </c>
       <c r="T150" t="inlineStr"/>
       <c r="U150" t="n">
-        <v>0.7055811882019043</v>
+        <v>1.087490320205688</v>
       </c>
       <c r="V150" t="n">
         <v>1</v>
@@ -22558,18 +22558,18 @@
         </is>
       </c>
       <c r="P151" t="n">
-        <v>0.04947924613952637</v>
+        <v>0.1079809665679932</v>
       </c>
       <c r="Q151" t="inlineStr"/>
       <c r="R151" t="n">
-        <v>0.6325933933258057</v>
+        <v>0.8005330562591553</v>
       </c>
       <c r="S151" t="n">
-        <v>0.04947924613952637</v>
+        <v>0.1079809665679932</v>
       </c>
       <c r="T151" t="inlineStr"/>
       <c r="U151" t="n">
-        <v>0.6325933933258057</v>
+        <v>0.8005330562591553</v>
       </c>
       <c r="V151" t="n">
         <v>1</v>
@@ -22702,18 +22702,18 @@
         </is>
       </c>
       <c r="P152" t="n">
-        <v>0.0532224178314209</v>
+        <v>0.06901359558105469</v>
       </c>
       <c r="Q152" t="inlineStr"/>
       <c r="R152" t="n">
-        <v>0.528073787689209</v>
+        <v>0.6412560939788818</v>
       </c>
       <c r="S152" t="n">
-        <v>0.0532224178314209</v>
+        <v>0.06901359558105469</v>
       </c>
       <c r="T152" t="inlineStr"/>
       <c r="U152" t="n">
-        <v>0.528073787689209</v>
+        <v>0.6412560939788818</v>
       </c>
       <c r="V152" t="n">
         <v>1</v>
@@ -22846,18 +22846,18 @@
         </is>
       </c>
       <c r="P153" t="n">
-        <v>0.06705713272094727</v>
+        <v>0.08235692977905273</v>
       </c>
       <c r="Q153" t="inlineStr"/>
       <c r="R153" t="n">
-        <v>0.6152901649475098</v>
+        <v>0.7371423244476318</v>
       </c>
       <c r="S153" t="n">
-        <v>0.06705713272094727</v>
+        <v>0.08235692977905273</v>
       </c>
       <c r="T153" t="inlineStr"/>
       <c r="U153" t="n">
-        <v>0.6152901649475098</v>
+        <v>0.7371423244476318</v>
       </c>
       <c r="V153" t="n">
         <v>1</v>
@@ -22990,18 +22990,18 @@
         </is>
       </c>
       <c r="P154" t="n">
-        <v>0.00802302360534668</v>
+        <v>0.01107001304626465</v>
       </c>
       <c r="Q154" t="inlineStr"/>
       <c r="R154" t="n">
-        <v>0.1395590305328369</v>
+        <v>0.1980457305908203</v>
       </c>
       <c r="S154" t="n">
-        <v>0.00802302360534668</v>
+        <v>0.01107001304626465</v>
       </c>
       <c r="T154" t="inlineStr"/>
       <c r="U154" t="n">
-        <v>0.1395590305328369</v>
+        <v>0.1980457305908203</v>
       </c>
       <c r="V154" t="n">
         <v>1</v>
@@ -23134,18 +23134,18 @@
         </is>
       </c>
       <c r="P155" t="n">
-        <v>0.006064891815185547</v>
+        <v>0.01381158828735352</v>
       </c>
       <c r="Q155" t="inlineStr"/>
       <c r="R155" t="n">
-        <v>0.3514480590820312</v>
+        <v>0.4274921417236328</v>
       </c>
       <c r="S155" t="n">
-        <v>0.006064891815185547</v>
+        <v>0.01381158828735352</v>
       </c>
       <c r="T155" t="inlineStr"/>
       <c r="U155" t="n">
-        <v>0.3514480590820312</v>
+        <v>0.4274921417236328</v>
       </c>
       <c r="V155" t="n">
         <v>1</v>
@@ -23280,22 +23280,22 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>0.06583547592163086</v>
+        <v>0.1216938495635986</v>
       </c>
       <c r="Q156" t="n">
-        <v>0.03771400451660156</v>
+        <v>0.05194473266601562</v>
       </c>
       <c r="R156" t="n">
-        <v>0.6286897659301758</v>
+        <v>0.8478224277496338</v>
       </c>
       <c r="S156" t="n">
-        <v>0.06583547592163086</v>
+        <v>0.1216938495635986</v>
       </c>
       <c r="T156" t="n">
-        <v>0.03771400451660156</v>
+        <v>0.05194473266601562</v>
       </c>
       <c r="U156" t="n">
-        <v>0.6286897659301758</v>
+        <v>0.8478224277496338</v>
       </c>
       <c r="V156" t="n">
         <v>1</v>
@@ -23428,18 +23428,18 @@
         </is>
       </c>
       <c r="P157" t="n">
-        <v>0.02104401588439941</v>
+        <v>0.02579832077026367</v>
       </c>
       <c r="Q157" t="inlineStr"/>
       <c r="R157" t="n">
-        <v>0.4437565803527832</v>
+        <v>0.5471992492675781</v>
       </c>
       <c r="S157" t="n">
-        <v>0.02104401588439941</v>
+        <v>0.02579832077026367</v>
       </c>
       <c r="T157" t="inlineStr"/>
       <c r="U157" t="n">
-        <v>0.4437565803527832</v>
+        <v>0.5471992492675781</v>
       </c>
       <c r="V157" t="n">
         <v>1</v>
@@ -23574,22 +23574,22 @@
         </is>
       </c>
       <c r="P158" t="n">
-        <v>0.004376649856567383</v>
+        <v>0.005594968795776367</v>
       </c>
       <c r="Q158" t="n">
-        <v>0.004011154174804688</v>
+        <v>0.004001140594482422</v>
       </c>
       <c r="R158" t="n">
-        <v>0.2933344841003418</v>
+        <v>0.4782497882843018</v>
       </c>
       <c r="S158" t="n">
-        <v>0.004376649856567383</v>
+        <v>0.005594968795776367</v>
       </c>
       <c r="T158" t="n">
-        <v>0.004011154174804688</v>
+        <v>0.004001140594482422</v>
       </c>
       <c r="U158" t="n">
-        <v>0.2933344841003418</v>
+        <v>0.4782497882843018</v>
       </c>
       <c r="V158" t="n">
         <v>1</v>
@@ -23722,18 +23722,18 @@
         </is>
       </c>
       <c r="P159" t="n">
-        <v>0.0113825798034668</v>
+        <v>0.01549029350280762</v>
       </c>
       <c r="Q159" t="inlineStr"/>
       <c r="R159" t="n">
-        <v>1.57057785987854</v>
+        <v>1.956604480743408</v>
       </c>
       <c r="S159" t="n">
-        <v>0.0113825798034668</v>
+        <v>0.01549029350280762</v>
       </c>
       <c r="T159" t="inlineStr"/>
       <c r="U159" t="n">
-        <v>1.57057785987854</v>
+        <v>1.956604480743408</v>
       </c>
       <c r="V159" t="n">
         <v>1</v>
@@ -23871,19 +23871,19 @@
         <v>0.00374913215637207</v>
       </c>
       <c r="Q160" t="n">
-        <v>0</v>
+        <v>0.002005577087402344</v>
       </c>
       <c r="R160" t="n">
-        <v>0.7025468349456787</v>
+        <v>0.9336428642272949</v>
       </c>
       <c r="S160" t="n">
         <v>0.00374913215637207</v>
       </c>
       <c r="T160" t="n">
-        <v>0</v>
+        <v>0.002005577087402344</v>
       </c>
       <c r="U160" t="n">
-        <v>0.7025468349456787</v>
+        <v>0.9336428642272949</v>
       </c>
       <c r="V160" t="n">
         <v>1</v>
@@ -24016,18 +24016,18 @@
         </is>
       </c>
       <c r="P161" t="n">
-        <v>0.003752231597900391</v>
+        <v>0.004009246826171875</v>
       </c>
       <c r="Q161" t="inlineStr"/>
       <c r="R161" t="n">
-        <v>0.1613833904266357</v>
+        <v>0.1843419075012207</v>
       </c>
       <c r="S161" t="n">
-        <v>0.003752231597900391</v>
+        <v>0.004009246826171875</v>
       </c>
       <c r="T161" t="inlineStr"/>
       <c r="U161" t="n">
-        <v>0.1613833904266357</v>
+        <v>0.1843419075012207</v>
       </c>
       <c r="V161" t="n">
         <v>1</v>
@@ -24162,22 +24162,22 @@
         </is>
       </c>
       <c r="P162" t="n">
-        <v>0.01569271087646484</v>
+        <v>0.00466156005859375</v>
       </c>
       <c r="Q162" t="n">
-        <v>0</v>
+        <v>0.00426030158996582</v>
       </c>
       <c r="R162" t="n">
-        <v>0.3378827571868896</v>
+        <v>0.4944922924041748</v>
       </c>
       <c r="S162" t="n">
-        <v>0.01569271087646484</v>
+        <v>0.00466156005859375</v>
       </c>
       <c r="T162" t="n">
-        <v>0</v>
+        <v>0.00426030158996582</v>
       </c>
       <c r="U162" t="n">
-        <v>0.3378827571868896</v>
+        <v>0.4944922924041748</v>
       </c>
       <c r="V162" t="n">
         <v>1</v>
@@ -24310,18 +24310,18 @@
         </is>
       </c>
       <c r="P163" t="n">
-        <v>0.01400876045227051</v>
+        <v>0.009658336639404297</v>
       </c>
       <c r="Q163" t="inlineStr"/>
       <c r="R163" t="n">
-        <v>0.1285312175750732</v>
+        <v>0.1828234195709229</v>
       </c>
       <c r="S163" t="n">
-        <v>0.01400876045227051</v>
+        <v>0.009658336639404297</v>
       </c>
       <c r="T163" t="inlineStr"/>
       <c r="U163" t="n">
-        <v>0.1285312175750732</v>
+        <v>0.1828234195709229</v>
       </c>
       <c r="V163" t="n">
         <v>1</v>
@@ -24456,22 +24456,22 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>0.01578426361083984</v>
+        <v>0.01502823829650879</v>
       </c>
       <c r="Q164" t="n">
-        <v>0.01484489440917969</v>
+        <v>0.007179975509643555</v>
       </c>
       <c r="R164" t="n">
-        <v>1.552204370498657</v>
+        <v>1.757381916046143</v>
       </c>
       <c r="S164" t="n">
-        <v>0.01578426361083984</v>
+        <v>0.01502823829650879</v>
       </c>
       <c r="T164" t="n">
-        <v>0.01484489440917969</v>
+        <v>0.007179975509643555</v>
       </c>
       <c r="U164" t="n">
-        <v>1.552204370498657</v>
+        <v>1.757381916046143</v>
       </c>
       <c r="V164" t="n">
         <v>1</v>
@@ -24606,22 +24606,22 @@
         </is>
       </c>
       <c r="P165" t="n">
-        <v>0.01354026794433594</v>
+        <v>0.01595234870910645</v>
       </c>
       <c r="Q165" t="n">
-        <v>0.009004354476928711</v>
+        <v>0.009001493453979492</v>
       </c>
       <c r="R165" t="n">
-        <v>2.301074266433716</v>
+        <v>2.686947822570801</v>
       </c>
       <c r="S165" t="n">
-        <v>0.01354026794433594</v>
+        <v>0.01595234870910645</v>
       </c>
       <c r="T165" t="n">
-        <v>0.009004354476928711</v>
+        <v>0.009001493453979492</v>
       </c>
       <c r="U165" t="n">
-        <v>2.301074266433716</v>
+        <v>2.686947822570801</v>
       </c>
       <c r="V165" t="n">
         <v>1</v>
@@ -24756,22 +24756,22 @@
         </is>
       </c>
       <c r="P166" t="n">
-        <v>0.01377606391906738</v>
+        <v>0.02034783363342285</v>
       </c>
       <c r="Q166" t="n">
-        <v>0.01569938659667969</v>
+        <v>0.01014971733093262</v>
       </c>
       <c r="R166" t="n">
-        <v>1.295030355453491</v>
+        <v>1.561180830001831</v>
       </c>
       <c r="S166" t="n">
-        <v>0.01377606391906738</v>
+        <v>0.02034783363342285</v>
       </c>
       <c r="T166" t="n">
-        <v>0.01569938659667969</v>
+        <v>0.01014971733093262</v>
       </c>
       <c r="U166" t="n">
-        <v>1.295030355453491</v>
+        <v>1.561180830001831</v>
       </c>
       <c r="V166" t="n">
         <v>1</v>
@@ -24904,18 +24904,18 @@
         </is>
       </c>
       <c r="P167" t="n">
-        <v>0.01297211647033691</v>
+        <v>0.01376986503601074</v>
       </c>
       <c r="Q167" t="inlineStr"/>
       <c r="R167" t="n">
-        <v>0.4933404922485352</v>
+        <v>0.5866532325744629</v>
       </c>
       <c r="S167" t="n">
-        <v>0.01297211647033691</v>
+        <v>0.01376986503601074</v>
       </c>
       <c r="T167" t="inlineStr"/>
       <c r="U167" t="n">
-        <v>0.4933404922485352</v>
+        <v>0.5866532325744629</v>
       </c>
       <c r="V167" t="n">
         <v>1</v>
@@ -25048,18 +25048,18 @@
         </is>
       </c>
       <c r="P168" t="n">
-        <v>0.005759239196777344</v>
+        <v>0.005753517150878906</v>
       </c>
       <c r="Q168" t="inlineStr"/>
       <c r="R168" t="n">
-        <v>0.1713333129882812</v>
+        <v>0.2285952568054199</v>
       </c>
       <c r="S168" t="n">
-        <v>0.005759239196777344</v>
+        <v>0.005753517150878906</v>
       </c>
       <c r="T168" t="inlineStr"/>
       <c r="U168" t="n">
-        <v>0.1713333129882812</v>
+        <v>0.2285952568054199</v>
       </c>
       <c r="V168" t="n">
         <v>1</v>
@@ -25194,22 +25194,22 @@
         </is>
       </c>
       <c r="P169" t="n">
-        <v>0.01362395286560059</v>
+        <v>0.0164484977722168</v>
       </c>
       <c r="Q169" t="n">
-        <v>0.005752801895141602</v>
+        <v>0.01488447189331055</v>
       </c>
       <c r="R169" t="n">
-        <v>1.143307209014893</v>
+        <v>1.256694793701172</v>
       </c>
       <c r="S169" t="n">
-        <v>0.01362395286560059</v>
+        <v>0.0164484977722168</v>
       </c>
       <c r="T169" t="n">
-        <v>0.005752801895141602</v>
+        <v>0.01488447189331055</v>
       </c>
       <c r="U169" t="n">
-        <v>1.143307209014893</v>
+        <v>1.256694793701172</v>
       </c>
       <c r="V169" t="n">
         <v>1</v>
@@ -25344,22 +25344,22 @@
         </is>
       </c>
       <c r="P170" t="n">
-        <v>0.01914572715759277</v>
+        <v>0.02002620697021484</v>
       </c>
       <c r="Q170" t="n">
-        <v>0</v>
+        <v>0.0004870891571044922</v>
       </c>
       <c r="R170" t="n">
-        <v>1.148648500442505</v>
+        <v>1.425319194793701</v>
       </c>
       <c r="S170" t="n">
-        <v>0.01914572715759277</v>
+        <v>0.02002620697021484</v>
       </c>
       <c r="T170" t="n">
-        <v>0</v>
+        <v>0.0004870891571044922</v>
       </c>
       <c r="U170" t="n">
-        <v>1.148648500442505</v>
+        <v>1.425319194793701</v>
       </c>
       <c r="V170" t="n">
         <v>1</v>
@@ -25494,22 +25494,22 @@
         </is>
       </c>
       <c r="P171" t="n">
-        <v>0.02035021781921387</v>
+        <v>0.02436327934265137</v>
       </c>
       <c r="Q171" t="n">
-        <v>0</v>
+        <v>0.004626750946044922</v>
       </c>
       <c r="R171" t="n">
-        <v>1.143397569656372</v>
+        <v>1.660179376602173</v>
       </c>
       <c r="S171" t="n">
-        <v>0.02035021781921387</v>
+        <v>0.02436327934265137</v>
       </c>
       <c r="T171" t="n">
-        <v>0</v>
+        <v>0.004626750946044922</v>
       </c>
       <c r="U171" t="n">
-        <v>1.143397569656372</v>
+        <v>1.660179376602173</v>
       </c>
       <c r="V171" t="n">
         <v>1</v>
@@ -25642,18 +25642,18 @@
         </is>
       </c>
       <c r="P172" t="n">
-        <v>0.01267719268798828</v>
+        <v>0.01583051681518555</v>
       </c>
       <c r="Q172" t="inlineStr"/>
       <c r="R172" t="n">
-        <v>0.3663330078125</v>
+        <v>0.4096503257751465</v>
       </c>
       <c r="S172" t="n">
-        <v>0.01267719268798828</v>
+        <v>0.01583051681518555</v>
       </c>
       <c r="T172" t="inlineStr"/>
       <c r="U172" t="n">
-        <v>0.3663330078125</v>
+        <v>0.4096503257751465</v>
       </c>
       <c r="V172" t="n">
         <v>1</v>
@@ -25786,18 +25786,18 @@
         </is>
       </c>
       <c r="P173" t="n">
-        <v>0.01218414306640625</v>
+        <v>0.01389741897583008</v>
       </c>
       <c r="Q173" t="inlineStr"/>
       <c r="R173" t="n">
-        <v>0.7315499782562256</v>
+        <v>0.8617758750915527</v>
       </c>
       <c r="S173" t="n">
-        <v>0.01218414306640625</v>
+        <v>0.01389741897583008</v>
       </c>
       <c r="T173" t="inlineStr"/>
       <c r="U173" t="n">
-        <v>0.7315499782562256</v>
+        <v>0.8617758750915527</v>
       </c>
       <c r="V173" t="n">
         <v>1</v>
@@ -25932,22 +25932,22 @@
         </is>
       </c>
       <c r="P174" t="n">
-        <v>0.006012439727783203</v>
+        <v>0.008015155792236328</v>
       </c>
       <c r="Q174" t="n">
-        <v>0</v>
+        <v>0.002006769180297852</v>
       </c>
       <c r="R174" t="n">
-        <v>0.523801326751709</v>
+        <v>0.703284740447998</v>
       </c>
       <c r="S174" t="n">
-        <v>0.006012439727783203</v>
+        <v>0.008015155792236328</v>
       </c>
       <c r="T174" t="n">
-        <v>0</v>
+        <v>0.002006769180297852</v>
       </c>
       <c r="U174" t="n">
-        <v>0.523801326751709</v>
+        <v>0.703284740447998</v>
       </c>
       <c r="V174" t="n">
         <v>1</v>
@@ -26082,22 +26082,22 @@
         </is>
       </c>
       <c r="P175" t="n">
-        <v>0.01347804069519043</v>
+        <v>0.0137639045715332</v>
       </c>
       <c r="Q175" t="n">
-        <v>0</v>
+        <v>0.008001089096069336</v>
       </c>
       <c r="R175" t="n">
-        <v>0.7679684162139893</v>
+        <v>0.9674873352050781</v>
       </c>
       <c r="S175" t="n">
-        <v>0.01347804069519043</v>
+        <v>0.0137639045715332</v>
       </c>
       <c r="T175" t="n">
-        <v>0</v>
+        <v>0.008001089096069336</v>
       </c>
       <c r="U175" t="n">
-        <v>0.7679684162139893</v>
+        <v>0.9674873352050781</v>
       </c>
       <c r="V175" t="n">
         <v>1</v>
@@ -26232,22 +26232,22 @@
         </is>
       </c>
       <c r="P176" t="n">
-        <v>0.01376891136169434</v>
+        <v>0.01400041580200195</v>
       </c>
       <c r="Q176" t="n">
-        <v>0.002802610397338867</v>
+        <v>0.01220369338989258</v>
       </c>
       <c r="R176" t="n">
-        <v>1.449976444244385</v>
+        <v>1.938847303390503</v>
       </c>
       <c r="S176" t="n">
-        <v>0.01376891136169434</v>
+        <v>0.01400041580200195</v>
       </c>
       <c r="T176" t="n">
-        <v>0.002802610397338867</v>
+        <v>0.01220369338989258</v>
       </c>
       <c r="U176" t="n">
-        <v>1.449976444244385</v>
+        <v>1.938847303390503</v>
       </c>
       <c r="V176" t="n">
         <v>1</v>
@@ -26380,18 +26380,18 @@
         </is>
       </c>
       <c r="P177" t="n">
-        <v>0.01577353477478027</v>
+        <v>0.0186312198638916</v>
       </c>
       <c r="Q177" t="inlineStr"/>
       <c r="R177" t="n">
-        <v>1.264002799987793</v>
+        <v>1.668600082397461</v>
       </c>
       <c r="S177" t="n">
-        <v>0.01577353477478027</v>
+        <v>0.0186312198638916</v>
       </c>
       <c r="T177" t="inlineStr"/>
       <c r="U177" t="n">
-        <v>1.264002799987793</v>
+        <v>1.668600082397461</v>
       </c>
       <c r="V177" t="n">
         <v>1</v>
@@ -26526,22 +26526,22 @@
         </is>
       </c>
       <c r="P178" t="n">
-        <v>0.05070400238037109</v>
+        <v>0.0678551197052002</v>
       </c>
       <c r="Q178" t="n">
-        <v>0.03877401351928711</v>
+        <v>0.05173039436340332</v>
       </c>
       <c r="R178" t="n">
-        <v>0.8639059066772461</v>
+        <v>1.164864301681519</v>
       </c>
       <c r="S178" t="n">
-        <v>0.05070400238037109</v>
+        <v>0.0678551197052002</v>
       </c>
       <c r="T178" t="n">
-        <v>0.03877401351928711</v>
+        <v>0.05173039436340332</v>
       </c>
       <c r="U178" t="n">
-        <v>0.8639059066772461</v>
+        <v>1.164864301681519</v>
       </c>
       <c r="V178" t="n">
         <v>1</v>
@@ -26674,18 +26674,18 @@
         </is>
       </c>
       <c r="P179" t="n">
-        <v>0</v>
+        <v>0.01512026786804199</v>
       </c>
       <c r="Q179" t="inlineStr"/>
       <c r="R179" t="n">
-        <v>1.466636180877686</v>
+        <v>1.721089839935303</v>
       </c>
       <c r="S179" t="n">
-        <v>0</v>
+        <v>0.01512026786804199</v>
       </c>
       <c r="T179" t="inlineStr"/>
       <c r="U179" t="n">
-        <v>1.466636180877686</v>
+        <v>1.721089839935303</v>
       </c>
       <c r="V179" t="n">
         <v>1</v>
@@ -26820,22 +26820,22 @@
         </is>
       </c>
       <c r="P180" t="n">
-        <v>0.010498046875</v>
+        <v>0.01402735710144043</v>
       </c>
       <c r="Q180" t="n">
-        <v>0</v>
+        <v>0.01002335548400879</v>
       </c>
       <c r="R180" t="n">
-        <v>1.332475662231445</v>
+        <v>1.590023756027222</v>
       </c>
       <c r="S180" t="n">
-        <v>0.010498046875</v>
+        <v>0.01402735710144043</v>
       </c>
       <c r="T180" t="n">
-        <v>0</v>
+        <v>0.01002335548400879</v>
       </c>
       <c r="U180" t="n">
-        <v>1.332475662231445</v>
+        <v>1.590023756027222</v>
       </c>
       <c r="V180" t="n">
         <v>1</v>
@@ -26970,22 +26970,22 @@
         </is>
       </c>
       <c r="P181" t="n">
-        <v>0.01218843460083008</v>
+        <v>0.01476001739501953</v>
       </c>
       <c r="Q181" t="n">
-        <v>0.01572847366333008</v>
+        <v>0.007046699523925781</v>
       </c>
       <c r="R181" t="n">
-        <v>0.8097076416015625</v>
+        <v>1.154228210449219</v>
       </c>
       <c r="S181" t="n">
-        <v>0.01218843460083008</v>
+        <v>0.01476001739501953</v>
       </c>
       <c r="T181" t="n">
-        <v>0.01572847366333008</v>
+        <v>0.007046699523925781</v>
       </c>
       <c r="U181" t="n">
-        <v>0.8097076416015625</v>
+        <v>1.154228210449219</v>
       </c>
       <c r="V181" t="n">
         <v>1</v>
@@ -27120,22 +27120,22 @@
         </is>
       </c>
       <c r="P182" t="n">
-        <v>0.01378178596496582</v>
+        <v>0.01600432395935059</v>
       </c>
       <c r="Q182" t="n">
-        <v>0.01490521430969238</v>
+        <v>0.009758949279785156</v>
       </c>
       <c r="R182" t="n">
-        <v>2.185495615005493</v>
+        <v>2.631131410598755</v>
       </c>
       <c r="S182" t="n">
-        <v>0.01378178596496582</v>
+        <v>0.01600432395935059</v>
       </c>
       <c r="T182" t="n">
-        <v>0.01490521430969238</v>
+        <v>0.009758949279785156</v>
       </c>
       <c r="U182" t="n">
-        <v>2.185495615005493</v>
+        <v>2.631131410598755</v>
       </c>
       <c r="V182" t="n">
         <v>1</v>
@@ -27270,22 +27270,22 @@
         </is>
       </c>
       <c r="P183" t="n">
-        <v>0.004007101058959961</v>
+        <v>0.004008293151855469</v>
       </c>
       <c r="Q183" t="n">
-        <v>0.003355264663696289</v>
+        <v>0.003603696823120117</v>
       </c>
       <c r="R183" t="n">
-        <v>0.3177616596221924</v>
+        <v>0.4499680995941162</v>
       </c>
       <c r="S183" t="n">
-        <v>0.004007101058959961</v>
+        <v>0.004008293151855469</v>
       </c>
       <c r="T183" t="n">
-        <v>0.003355264663696289</v>
+        <v>0.003603696823120117</v>
       </c>
       <c r="U183" t="n">
-        <v>0.3177616596221924</v>
+        <v>0.4499680995941162</v>
       </c>
       <c r="V183" t="n">
         <v>1</v>
@@ -27420,22 +27420,22 @@
         </is>
       </c>
       <c r="P184" t="n">
-        <v>0.004009723663330078</v>
+        <v>0.005919933319091797</v>
       </c>
       <c r="Q184" t="n">
-        <v>0.004011869430541992</v>
+        <v>0.002005100250244141</v>
       </c>
       <c r="R184" t="n">
-        <v>0.3368289470672607</v>
+        <v>0.5221273899078369</v>
       </c>
       <c r="S184" t="n">
-        <v>0.004009723663330078</v>
+        <v>0.005919933319091797</v>
       </c>
       <c r="T184" t="n">
-        <v>0.004011869430541992</v>
+        <v>0.002005100250244141</v>
       </c>
       <c r="U184" t="n">
-        <v>0.3368289470672607</v>
+        <v>0.5221273899078369</v>
       </c>
       <c r="V184" t="n">
         <v>1</v>
@@ -27570,22 +27570,22 @@
         </is>
       </c>
       <c r="P185" t="n">
-        <v>0.06667280197143555</v>
+        <v>0.06611943244934082</v>
       </c>
       <c r="Q185" t="n">
-        <v>0.0392758846282959</v>
+        <v>0.05140519142150879</v>
       </c>
       <c r="R185" t="n">
-        <v>0.5181870460510254</v>
+        <v>0.7142927646636963</v>
       </c>
       <c r="S185" t="n">
-        <v>0.06667280197143555</v>
+        <v>0.06611943244934082</v>
       </c>
       <c r="T185" t="n">
-        <v>0.0392758846282959</v>
+        <v>0.05140519142150879</v>
       </c>
       <c r="U185" t="n">
-        <v>0.5181870460510254</v>
+        <v>0.7142927646636963</v>
       </c>
       <c r="V185" t="n">
         <v>1</v>
@@ -27720,22 +27720,22 @@
         </is>
       </c>
       <c r="P186" t="n">
-        <v>0.0390617847442627</v>
+        <v>0.04180002212524414</v>
       </c>
       <c r="Q186" t="n">
-        <v>0.008998870849609375</v>
+        <v>0.02895212173461914</v>
       </c>
       <c r="R186" t="n">
-        <v>3.394779205322266</v>
+        <v>4.096837043762207</v>
       </c>
       <c r="S186" t="n">
-        <v>0.002003192901611328</v>
+        <v>0.002003669738769531</v>
       </c>
       <c r="T186" t="n">
-        <v>0</v>
+        <v>0.01569986343383789</v>
       </c>
       <c r="U186" t="n">
-        <v>0.1335923671722412</v>
+        <v>0.1159722805023193</v>
       </c>
       <c r="V186" t="n">
         <v>2</v>
@@ -27805,7 +27805,7 @@
       </c>
       <c r="AN186" t="inlineStr">
         <is>
-          <t>['LightGBM_r30', 'CatBoost_r6', 'NeuralNetFastAI_r37']</t>
+          <t>['LightGBM_r30', 'NeuralNetFastAI_r37', 'CatBoost_r6']</t>
         </is>
       </c>
       <c r="AO186" t="inlineStr"/>
@@ -27826,7 +27826,7 @@
       </c>
       <c r="AS186" t="inlineStr">
         <is>
-          <t>['LightGBM_r30', 'CatBoost_r6', 'NeuralNetFastAI_r37']</t>
+          <t>['LightGBM_r30', 'NeuralNetFastAI_r37', 'CatBoost_r6']</t>
         </is>
       </c>
       <c r="AT186" t="inlineStr">
@@ -27886,22 +27886,22 @@
         </is>
       </c>
       <c r="P187" t="n">
-        <v>0.01826071739196777</v>
+        <v>0.01903605461120605</v>
       </c>
       <c r="Q187" t="n">
-        <v>0.00600886344909668</v>
+        <v>0.01045870780944824</v>
       </c>
       <c r="R187" t="n">
-        <v>4.613127946853638</v>
+        <v>5.129222631454468</v>
       </c>
       <c r="S187" t="n">
-        <v>0.01826071739196777</v>
+        <v>0.01903605461120605</v>
       </c>
       <c r="T187" t="n">
-        <v>0.00600886344909668</v>
+        <v>0.01045870780944824</v>
       </c>
       <c r="U187" t="n">
-        <v>4.613127946853638</v>
+        <v>5.129222631454468</v>
       </c>
       <c r="V187" t="n">
         <v>1</v>
@@ -27988,7 +27988,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>NeuralNetFastAI_r65</t>
+          <t>NeuralNetTorch_r14</t>
         </is>
       </c>
       <c r="B188" t="n">
@@ -27998,37 +27998,37 @@
         <v>0.92</v>
       </c>
       <c r="D188" t="n">
-        <v>0.8387096774193549</v>
+        <v>0.8709677419354839</v>
       </c>
       <c r="E188" t="n">
-        <v>0.8366666666666667</v>
+        <v>0.7933333333333333</v>
       </c>
       <c r="F188" t="n">
         <v>0.6666666666666666</v>
       </c>
       <c r="G188" t="n">
-        <v>0.7801418439716312</v>
+        <v>0.7933333333333333</v>
       </c>
       <c r="H188" t="n">
-        <v>0.8387096774193549</v>
+        <v>0.8709677419354839</v>
       </c>
       <c r="I188" t="n">
         <v>0.7236111111111111</v>
       </c>
       <c r="J188" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="K188" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L188" t="n">
-        <v>-0.3729440687489057</v>
+        <v>-0.2875085179669168</v>
       </c>
       <c r="M188" t="n">
-        <v>0.1980751829726312</v>
+        <v>0.3563145183814318</v>
       </c>
       <c r="N188" t="n">
-        <v>0.7143855483708174</v>
+        <v>0.7175254292562729</v>
       </c>
       <c r="O188" t="inlineStr">
         <is>
@@ -28036,22 +28036,22 @@
         </is>
       </c>
       <c r="P188" t="n">
-        <v>0</v>
+        <v>0.01002407073974609</v>
       </c>
       <c r="Q188" t="n">
-        <v>0.009261846542358398</v>
+        <v>0.007768154144287109</v>
       </c>
       <c r="R188" t="n">
-        <v>1.759599924087524</v>
+        <v>1.175941944122314</v>
       </c>
       <c r="S188" t="n">
-        <v>0</v>
+        <v>0.01002407073974609</v>
       </c>
       <c r="T188" t="n">
-        <v>0.009261846542358398</v>
+        <v>0.007768154144287109</v>
       </c>
       <c r="U188" t="n">
-        <v>1.759599924087524</v>
+        <v>1.175941944122314</v>
       </c>
       <c r="V188" t="n">
         <v>1</v>
@@ -28060,7 +28060,7 @@
         <v>1</v>
       </c>
       <c r="X188" t="n">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="Y188" t="n">
         <v>19</v>
@@ -28072,16 +28072,16 @@
         <v>1</v>
       </c>
       <c r="AB188" t="n">
-        <v>83982</v>
+        <v>29297</v>
       </c>
       <c r="AC188" t="n">
-        <v>83982</v>
+        <v>29297</v>
       </c>
       <c r="AD188" t="n">
-        <v>83982</v>
+        <v>29297</v>
       </c>
       <c r="AE188" t="n">
-        <v>83982</v>
+        <v>29297</v>
       </c>
       <c r="AF188" t="n">
         <v>0</v>
@@ -28091,23 +28091,23 @@
       </c>
       <c r="AH188" t="inlineStr">
         <is>
-          <t>NNFastAiTabularModel</t>
+          <t>TabularNeuralNetTorchModel</t>
         </is>
       </c>
       <c r="AI188" t="inlineStr"/>
       <c r="AJ188" t="inlineStr">
         <is>
-          <t>log_loss</t>
+          <t>roc_auc</t>
         </is>
       </c>
       <c r="AK188" t="inlineStr">
         <is>
-          <t>{'layers': [400], 'emb_drop': 0.22771721361129746, 'ps': 0.3734259772256502, 'bs': 1024, 'lr': 0.0005383511954451698, 'epochs': 38, 'early.stopping.min_delta': 0.0001, 'early.stopping.patience': 20, 'smoothing': 0.0}</t>
+          <t>{'num_epochs': 1000, 'epochs_wo_improve': None, 'activation': 'relu', 'embedding_size_factor': 1.0, 'embed_exponent': 0.56, 'max_embedding_dim': 100, 'y_range': None, 'y_range_extend': 0.05, 'dropout_prob': 0.3905837860053583, 'optimizer': 'adam', 'learning_rate': 0.0018297905295930797, 'weight_decay': 9.178069874232892e-08, 'proc.embed_min_categories': 4, 'proc.impute_strategy': 'median', 'proc.max_category_levels': 100, 'proc.skew_threshold': 0.99, 'use_ngram_features': False, 'num_layers': 1, 'hidden_size': 106, 'max_batch_size': 512, 'use_batchnorm': True, 'loss_function': 'auto'}</t>
         </is>
       </c>
       <c r="AL188" t="inlineStr">
         <is>
-          <t>{'epochs': 38, 'best_epoch': 30}</t>
+          <t>{'batch_size': 32, 'num_epochs': 37}</t>
         </is>
       </c>
       <c r="AM188" t="inlineStr">
@@ -28138,7 +28138,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>NeuralNetTorch_r1</t>
+          <t>NeuralNetFastAI_r65</t>
         </is>
       </c>
       <c r="B189" t="n">
@@ -28151,13 +28151,13 @@
         <v>0.8387096774193549</v>
       </c>
       <c r="E189" t="n">
-        <v>0.7733333333333333</v>
+        <v>0.8366666666666667</v>
       </c>
       <c r="F189" t="n">
-        <v>0.6153846153846154</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G189" t="n">
-        <v>0.7566718995290425</v>
+        <v>0.7801418439716312</v>
       </c>
       <c r="H189" t="n">
         <v>0.8387096774193549</v>
@@ -28166,19 +28166,19 @@
         <v>0.7236111111111111</v>
       </c>
       <c r="J189" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="K189" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L189" t="n">
-        <v>-0.3424685500879498</v>
+        <v>-0.3729440687489057</v>
       </c>
       <c r="M189" t="n">
-        <v>0.2529757318720354</v>
+        <v>0.1980751829726312</v>
       </c>
       <c r="N189" t="n">
-        <v>0.7879938633646798</v>
+        <v>0.7143855483708174</v>
       </c>
       <c r="O189" t="inlineStr">
         <is>
@@ -28186,22 +28186,22 @@
         </is>
       </c>
       <c r="P189" t="n">
-        <v>0.01278233528137207</v>
+        <v>0.01202583312988281</v>
       </c>
       <c r="Q189" t="n">
-        <v>0.008023262023925781</v>
+        <v>0.01201963424682617</v>
       </c>
       <c r="R189" t="n">
-        <v>1.376742124557495</v>
+        <v>2.487923622131348</v>
       </c>
       <c r="S189" t="n">
-        <v>0.01278233528137207</v>
+        <v>0.01202583312988281</v>
       </c>
       <c r="T189" t="n">
-        <v>0.008023262023925781</v>
+        <v>0.01201963424682617</v>
       </c>
       <c r="U189" t="n">
-        <v>1.376742124557495</v>
+        <v>2.487923622131348</v>
       </c>
       <c r="V189" t="n">
         <v>1</v>
@@ -28210,7 +28210,7 @@
         <v>1</v>
       </c>
       <c r="X189" t="n">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="Y189" t="n">
         <v>19</v>
@@ -28222,16 +28222,16 @@
         <v>1</v>
       </c>
       <c r="AB189" t="n">
-        <v>537116</v>
+        <v>83982</v>
       </c>
       <c r="AC189" t="n">
-        <v>537116</v>
+        <v>83982</v>
       </c>
       <c r="AD189" t="n">
-        <v>537116</v>
+        <v>83982</v>
       </c>
       <c r="AE189" t="n">
-        <v>537116</v>
+        <v>83982</v>
       </c>
       <c r="AF189" t="n">
         <v>0</v>
@@ -28241,23 +28241,23 @@
       </c>
       <c r="AH189" t="inlineStr">
         <is>
-          <t>TabularNeuralNetTorchModel</t>
+          <t>NNFastAiTabularModel</t>
         </is>
       </c>
       <c r="AI189" t="inlineStr"/>
       <c r="AJ189" t="inlineStr">
         <is>
-          <t>roc_auc</t>
+          <t>log_loss</t>
         </is>
       </c>
       <c r="AK189" t="inlineStr">
         <is>
-          <t>{'num_epochs': 1000, 'epochs_wo_improve': None, 'activation': 'relu', 'embedding_size_factor': 1.0, 'embed_exponent': 0.56, 'max_embedding_dim': 100, 'y_range': None, 'y_range_extend': 0.05, 'dropout_prob': 0.23713784729000734, 'optimizer': 'adam', 'learning_rate': 0.00311256170909018, 'weight_decay': 4.573016756474468e-08, 'proc.embed_min_categories': 4, 'proc.impute_strategy': 'median', 'proc.max_category_levels': 100, 'proc.skew_threshold': 0.99, 'use_ngram_features': False, 'num_layers': 4, 'hidden_size': 200, 'max_batch_size': 512, 'use_batchnorm': True, 'loss_function': 'auto'}</t>
+          <t>{'layers': [400], 'emb_drop': 0.22771721361129746, 'ps': 0.3734259772256502, 'bs': 1024, 'lr': 0.0005383511954451698, 'epochs': 38, 'early.stopping.min_delta': 0.0001, 'early.stopping.patience': 20, 'smoothing': 0.0}</t>
         </is>
       </c>
       <c r="AL189" t="inlineStr">
         <is>
-          <t>{'batch_size': 32, 'num_epochs': 14}</t>
+          <t>{'epochs': 38, 'best_epoch': 30}</t>
         </is>
       </c>
       <c r="AM189" t="inlineStr">
@@ -28288,7 +28288,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>NeuralNetTorch_r14</t>
+          <t>NeuralNetTorch_r1</t>
         </is>
       </c>
       <c r="B190" t="n">
@@ -28298,37 +28298,37 @@
         <v>0.92</v>
       </c>
       <c r="D190" t="n">
-        <v>0.8709677419354839</v>
+        <v>0.8387096774193549</v>
       </c>
       <c r="E190" t="n">
-        <v>0.7933333333333333</v>
+        <v>0.7733333333333333</v>
       </c>
       <c r="F190" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="G190" t="n">
-        <v>0.7933333333333333</v>
+        <v>0.7566718995290425</v>
       </c>
       <c r="H190" t="n">
-        <v>0.8709677419354839</v>
+        <v>0.8387096774193549</v>
       </c>
       <c r="I190" t="n">
         <v>0.7236111111111111</v>
       </c>
       <c r="J190" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="K190" t="n">
         <v>0.6666666666666666</v>
       </c>
       <c r="L190" t="n">
-        <v>-0.2875085179669168</v>
+        <v>-0.3424685500879498</v>
       </c>
       <c r="M190" t="n">
-        <v>0.3563145183814318</v>
+        <v>0.2529757318720354</v>
       </c>
       <c r="N190" t="n">
-        <v>0.7175254292562729</v>
+        <v>0.7879938633646798</v>
       </c>
       <c r="O190" t="inlineStr">
         <is>
@@ -28336,22 +28336,22 @@
         </is>
       </c>
       <c r="P190" t="n">
-        <v>0.03205680847167969</v>
+        <v>0.01577234268188477</v>
       </c>
       <c r="Q190" t="n">
-        <v>0.005747556686401367</v>
+        <v>0.009762048721313477</v>
       </c>
       <c r="R190" t="n">
-        <v>0.8232793807983398</v>
+        <v>1.818248510360718</v>
       </c>
       <c r="S190" t="n">
-        <v>0.03205680847167969</v>
+        <v>0.01577234268188477</v>
       </c>
       <c r="T190" t="n">
-        <v>0.005747556686401367</v>
+        <v>0.009762048721313477</v>
       </c>
       <c r="U190" t="n">
-        <v>0.8232793807983398</v>
+        <v>1.818248510360718</v>
       </c>
       <c r="V190" t="n">
         <v>1</v>
@@ -28360,7 +28360,7 @@
         <v>1</v>
       </c>
       <c r="X190" t="n">
-        <v>37</v>
+        <v>107</v>
       </c>
       <c r="Y190" t="n">
         <v>19</v>
@@ -28372,16 +28372,16 @@
         <v>1</v>
       </c>
       <c r="AB190" t="n">
-        <v>29297</v>
+        <v>537116</v>
       </c>
       <c r="AC190" t="n">
-        <v>29297</v>
+        <v>537116</v>
       </c>
       <c r="AD190" t="n">
-        <v>29297</v>
+        <v>537116</v>
       </c>
       <c r="AE190" t="n">
-        <v>29297</v>
+        <v>537116</v>
       </c>
       <c r="AF190" t="n">
         <v>0</v>
@@ -28402,12 +28402,12 @@
       </c>
       <c r="AK190" t="inlineStr">
         <is>
-          <t>{'num_epochs': 1000, 'epochs_wo_improve': None, 'activation': 'relu', 'embedding_size_factor': 1.0, 'embed_exponent': 0.56, 'max_embedding_dim': 100, 'y_range': None, 'y_range_extend': 0.05, 'dropout_prob': 0.3905837860053583, 'optimizer': 'adam', 'learning_rate': 0.0018297905295930797, 'weight_decay': 9.178069874232892e-08, 'proc.embed_min_categories': 4, 'proc.impute_strategy': 'median', 'proc.max_category_levels': 100, 'proc.skew_threshold': 0.99, 'use_ngram_features': False, 'num_layers': 1, 'hidden_size': 106, 'max_batch_size': 512, 'use_batchnorm': True, 'loss_function': 'auto'}</t>
+          <t>{'num_epochs': 1000, 'epochs_wo_improve': None, 'activation': 'relu', 'embedding_size_factor': 1.0, 'embed_exponent': 0.56, 'max_embedding_dim': 100, 'y_range': None, 'y_range_extend': 0.05, 'dropout_prob': 0.23713784729000734, 'optimizer': 'adam', 'learning_rate': 0.00311256170909018, 'weight_decay': 4.573016756474468e-08, 'proc.embed_min_categories': 4, 'proc.impute_strategy': 'median', 'proc.max_category_levels': 100, 'proc.skew_threshold': 0.99, 'use_ngram_features': False, 'num_layers': 4, 'hidden_size': 200, 'max_batch_size': 512, 'use_batchnorm': True, 'loss_function': 'auto'}</t>
         </is>
       </c>
       <c r="AL190" t="inlineStr">
         <is>
-          <t>{'batch_size': 32, 'num_epochs': 37}</t>
+          <t>{'batch_size': 32, 'num_epochs': 14}</t>
         </is>
       </c>
       <c r="AM190" t="inlineStr">
@@ -28486,22 +28486,22 @@
         </is>
       </c>
       <c r="P191" t="n">
-        <v>0.01176810264587402</v>
+        <v>0.01162385940551758</v>
       </c>
       <c r="Q191" t="n">
-        <v>0.01234865188598633</v>
+        <v>0.009761333465576172</v>
       </c>
       <c r="R191" t="n">
-        <v>2.0026695728302</v>
+        <v>2.689913749694824</v>
       </c>
       <c r="S191" t="n">
-        <v>0.01176810264587402</v>
+        <v>0.01162385940551758</v>
       </c>
       <c r="T191" t="n">
-        <v>0.01234865188598633</v>
+        <v>0.009761333465576172</v>
       </c>
       <c r="U191" t="n">
-        <v>2.0026695728302</v>
+        <v>2.689913749694824</v>
       </c>
       <c r="V191" t="n">
         <v>1</v>
@@ -28636,22 +28636,22 @@
         </is>
       </c>
       <c r="P192" t="n">
-        <v>0.01201581954956055</v>
+        <v>0.01731348037719727</v>
       </c>
       <c r="Q192" t="n">
-        <v>0.00574803352355957</v>
+        <v>0.009759902954101562</v>
       </c>
       <c r="R192" t="n">
-        <v>2.324675559997559</v>
+        <v>3.051052570343018</v>
       </c>
       <c r="S192" t="n">
-        <v>0.01201581954956055</v>
+        <v>0.01731348037719727</v>
       </c>
       <c r="T192" t="n">
-        <v>0.00574803352355957</v>
+        <v>0.009759902954101562</v>
       </c>
       <c r="U192" t="n">
-        <v>2.324675559997559</v>
+        <v>3.051052570343018</v>
       </c>
       <c r="V192" t="n">
         <v>1</v>
@@ -28786,22 +28786,22 @@
         </is>
       </c>
       <c r="P193" t="n">
-        <v>0.06408500671386719</v>
+        <v>0.05730605125427246</v>
       </c>
       <c r="Q193" t="n">
-        <v>0.0391688346862793</v>
+        <v>0.05215358734130859</v>
       </c>
       <c r="R193" t="n">
-        <v>0.5372569561004639</v>
+        <v>0.7021322250366211</v>
       </c>
       <c r="S193" t="n">
-        <v>0.06408500671386719</v>
+        <v>0.05730605125427246</v>
       </c>
       <c r="T193" t="n">
-        <v>0.0391688346862793</v>
+        <v>0.05215358734130859</v>
       </c>
       <c r="U193" t="n">
-        <v>0.5372569561004639</v>
+        <v>0.7021322250366211</v>
       </c>
       <c r="V193" t="n">
         <v>1</v>
@@ -28936,22 +28936,22 @@
         </is>
       </c>
       <c r="P194" t="n">
-        <v>0.01376676559448242</v>
+        <v>0.01581931114196777</v>
       </c>
       <c r="Q194" t="n">
-        <v>0.008012056350708008</v>
+        <v>0.007023811340332031</v>
       </c>
       <c r="R194" t="n">
-        <v>1.071805953979492</v>
+        <v>1.476800441741943</v>
       </c>
       <c r="S194" t="n">
-        <v>0.01376676559448242</v>
+        <v>0.01581931114196777</v>
       </c>
       <c r="T194" t="n">
-        <v>0.008012056350708008</v>
+        <v>0.007023811340332031</v>
       </c>
       <c r="U194" t="n">
-        <v>1.071805953979492</v>
+        <v>1.476800441741943</v>
       </c>
       <c r="V194" t="n">
         <v>1</v>
@@ -29084,18 +29084,18 @@
         </is>
       </c>
       <c r="P195" t="n">
-        <v>0.01577043533325195</v>
+        <v>0.01786565780639648</v>
       </c>
       <c r="Q195" t="inlineStr"/>
       <c r="R195" t="n">
-        <v>0.5608420372009277</v>
+        <v>0.7918052673339844</v>
       </c>
       <c r="S195" t="n">
-        <v>0.01577043533325195</v>
+        <v>0.01786565780639648</v>
       </c>
       <c r="T195" t="inlineStr"/>
       <c r="U195" t="n">
-        <v>0.5608420372009277</v>
+        <v>0.7918052673339844</v>
       </c>
       <c r="V195" t="n">
         <v>1</v>
@@ -29230,22 +29230,22 @@
         </is>
       </c>
       <c r="P196" t="n">
-        <v>0.01376986503601074</v>
+        <v>0.01599979400634766</v>
       </c>
       <c r="Q196" t="n">
-        <v>0.00374913215637207</v>
+        <v>0.008019447326660156</v>
       </c>
       <c r="R196" t="n">
-        <v>0.3740372657775879</v>
+        <v>0.4546637535095215</v>
       </c>
       <c r="S196" t="n">
-        <v>0.01376986503601074</v>
+        <v>0.01599979400634766</v>
       </c>
       <c r="T196" t="n">
-        <v>0.00374913215637207</v>
+        <v>0.008019447326660156</v>
       </c>
       <c r="U196" t="n">
-        <v>0.3740372657775879</v>
+        <v>0.4546637535095215</v>
       </c>
       <c r="V196" t="n">
         <v>1</v>
@@ -29378,18 +29378,18 @@
         </is>
       </c>
       <c r="P197" t="n">
-        <v>0.01153659820556641</v>
+        <v>0.01378631591796875</v>
       </c>
       <c r="Q197" t="inlineStr"/>
       <c r="R197" t="n">
-        <v>1.285337686538696</v>
+        <v>1.293941497802734</v>
       </c>
       <c r="S197" t="n">
-        <v>0.01153659820556641</v>
+        <v>0.01378631591796875</v>
       </c>
       <c r="T197" t="inlineStr"/>
       <c r="U197" t="n">
-        <v>1.285337686538696</v>
+        <v>1.293941497802734</v>
       </c>
       <c r="V197" t="n">
         <v>1</v>
@@ -29524,22 +29524,22 @@
         </is>
       </c>
       <c r="P198" t="n">
-        <v>0.00775146484375</v>
+        <v>0.01102519035339355</v>
       </c>
       <c r="Q198" t="n">
-        <v>0</v>
+        <v>0.007764339447021484</v>
       </c>
       <c r="R198" t="n">
-        <v>0.8529465198516846</v>
+        <v>1.245618581771851</v>
       </c>
       <c r="S198" t="n">
-        <v>0.00775146484375</v>
+        <v>0.01102519035339355</v>
       </c>
       <c r="T198" t="n">
-        <v>0</v>
+        <v>0.007764339447021484</v>
       </c>
       <c r="U198" t="n">
-        <v>0.8529465198516846</v>
+        <v>1.245618581771851</v>
       </c>
       <c r="V198" t="n">
         <v>1</v>
@@ -29672,18 +29672,18 @@
         </is>
       </c>
       <c r="P199" t="n">
-        <v>0</v>
+        <v>0.009768486022949219</v>
       </c>
       <c r="Q199" t="inlineStr"/>
       <c r="R199" t="n">
-        <v>0.1919662952423096</v>
+        <v>0.3171875476837158</v>
       </c>
       <c r="S199" t="n">
-        <v>0</v>
+        <v>0.009768486022949219</v>
       </c>
       <c r="T199" t="inlineStr"/>
       <c r="U199" t="n">
-        <v>0.1919662952423096</v>
+        <v>0.3171875476837158</v>
       </c>
       <c r="V199" t="n">
         <v>1</v>
@@ -29818,22 +29818,22 @@
         </is>
       </c>
       <c r="P200" t="n">
-        <v>0.01747679710388184</v>
+        <v>0.01559543609619141</v>
       </c>
       <c r="Q200" t="n">
-        <v>0.01099586486816406</v>
+        <v>0.007019758224487305</v>
       </c>
       <c r="R200" t="n">
-        <v>1.052406549453735</v>
+        <v>1.147479295730591</v>
       </c>
       <c r="S200" t="n">
-        <v>0.01747679710388184</v>
+        <v>0.01559543609619141</v>
       </c>
       <c r="T200" t="n">
-        <v>0.01099586486816406</v>
+        <v>0.007019758224487305</v>
       </c>
       <c r="U200" t="n">
-        <v>1.052406549453735</v>
+        <v>1.147479295730591</v>
       </c>
       <c r="V200" t="n">
         <v>1</v>
@@ -29968,22 +29968,22 @@
         </is>
       </c>
       <c r="P201" t="n">
-        <v>0.05346059799194336</v>
+        <v>0.06446218490600586</v>
       </c>
       <c r="Q201" t="n">
-        <v>0.04101943969726562</v>
+        <v>0.04262638092041016</v>
       </c>
       <c r="R201" t="n">
-        <v>0.7551758289337158</v>
+        <v>0.9659073352813721</v>
       </c>
       <c r="S201" t="n">
-        <v>0.05346059799194336</v>
+        <v>0.06446218490600586</v>
       </c>
       <c r="T201" t="n">
-        <v>0.04101943969726562</v>
+        <v>0.04262638092041016</v>
       </c>
       <c r="U201" t="n">
-        <v>0.7551758289337158</v>
+        <v>0.9659073352813721</v>
       </c>
       <c r="V201" t="n">
         <v>1</v>
@@ -30118,22 +30118,22 @@
         </is>
       </c>
       <c r="P202" t="n">
-        <v>0.01353549957275391</v>
+        <v>0.0004074573516845703</v>
       </c>
       <c r="Q202" t="n">
-        <v>0.006996393203735352</v>
+        <v>0</v>
       </c>
       <c r="R202" t="n">
-        <v>0.4478569030761719</v>
+        <v>0.5534892082214355</v>
       </c>
       <c r="S202" t="n">
-        <v>0.01353549957275391</v>
+        <v>0.0004074573516845703</v>
       </c>
       <c r="T202" t="n">
-        <v>0.006996393203735352</v>
+        <v>0</v>
       </c>
       <c r="U202" t="n">
-        <v>0.4478569030761719</v>
+        <v>0.5534892082214355</v>
       </c>
       <c r="V202" t="n">
         <v>1</v>
@@ -30268,22 +30268,22 @@
         </is>
       </c>
       <c r="P203" t="n">
-        <v>0.01377296447753906</v>
+        <v>0.01484823226928711</v>
       </c>
       <c r="Q203" t="n">
-        <v>0</v>
+        <v>0.009000062942504883</v>
       </c>
       <c r="R203" t="n">
-        <v>2.313634157180786</v>
+        <v>2.972068309783936</v>
       </c>
       <c r="S203" t="n">
-        <v>0.01377296447753906</v>
+        <v>0.01484823226928711</v>
       </c>
       <c r="T203" t="n">
-        <v>0</v>
+        <v>0.009000062942504883</v>
       </c>
       <c r="U203" t="n">
-        <v>2.313634157180786</v>
+        <v>2.972068309783936</v>
       </c>
       <c r="V203" t="n">
         <v>1</v>
@@ -30418,22 +30418,22 @@
         </is>
       </c>
       <c r="P204" t="n">
-        <v>0.05479836463928223</v>
+        <v>0.05338931083679199</v>
       </c>
       <c r="Q204" t="n">
-        <v>0.0393681526184082</v>
+        <v>0.03974795341491699</v>
       </c>
       <c r="R204" t="n">
-        <v>0.500399112701416</v>
+        <v>0.6099038124084473</v>
       </c>
       <c r="S204" t="n">
-        <v>0.05479836463928223</v>
+        <v>0.05338931083679199</v>
       </c>
       <c r="T204" t="n">
-        <v>0.0393681526184082</v>
+        <v>0.03974795341491699</v>
       </c>
       <c r="U204" t="n">
-        <v>0.500399112701416</v>
+        <v>0.6099038124084473</v>
       </c>
       <c r="V204" t="n">
         <v>1</v>
@@ -30568,22 +30568,22 @@
         </is>
       </c>
       <c r="P205" t="n">
-        <v>0.05716371536254883</v>
+        <v>0.05356454849243164</v>
       </c>
       <c r="Q205" t="n">
-        <v>0.0403130054473877</v>
+        <v>0.03935933113098145</v>
       </c>
       <c r="R205" t="n">
-        <v>0.5088276863098145</v>
+        <v>0.5965993404388428</v>
       </c>
       <c r="S205" t="n">
-        <v>0.05716371536254883</v>
+        <v>0.05356454849243164</v>
       </c>
       <c r="T205" t="n">
-        <v>0.0403130054473877</v>
+        <v>0.03935933113098145</v>
       </c>
       <c r="U205" t="n">
-        <v>0.5088276863098145</v>
+        <v>0.5965993404388428</v>
       </c>
       <c r="V205" t="n">
         <v>1</v>
@@ -30718,22 +30718,22 @@
         </is>
       </c>
       <c r="P206" t="n">
-        <v>0.06717824935913086</v>
+        <v>0.07617688179016113</v>
       </c>
       <c r="Q206" t="n">
-        <v>0.06702041625976562</v>
+        <v>0.03965854644775391</v>
       </c>
       <c r="R206" t="n">
-        <v>0.8927760124206543</v>
+        <v>0.7465472221374512</v>
       </c>
       <c r="S206" t="n">
-        <v>0.06717824935913086</v>
+        <v>0.07617688179016113</v>
       </c>
       <c r="T206" t="n">
-        <v>0.06702041625976562</v>
+        <v>0.03965854644775391</v>
       </c>
       <c r="U206" t="n">
-        <v>0.8927760124206543</v>
+        <v>0.7465472221374512</v>
       </c>
       <c r="V206" t="n">
         <v>1</v>
@@ -30868,22 +30868,22 @@
         </is>
       </c>
       <c r="P207" t="n">
-        <v>0.05267858505249023</v>
+        <v>0.06930804252624512</v>
       </c>
       <c r="Q207" t="n">
-        <v>0.03896427154541016</v>
+        <v>0.03830814361572266</v>
       </c>
       <c r="R207" t="n">
-        <v>0.9604706764221191</v>
+        <v>0.7871639728546143</v>
       </c>
       <c r="S207" t="n">
-        <v>0.05267858505249023</v>
+        <v>0.06930804252624512</v>
       </c>
       <c r="T207" t="n">
-        <v>0.03896427154541016</v>
+        <v>0.03830814361572266</v>
       </c>
       <c r="U207" t="n">
-        <v>0.9604706764221191</v>
+        <v>0.7871639728546143</v>
       </c>
       <c r="V207" t="n">
         <v>1</v>
@@ -31016,18 +31016,18 @@
         </is>
       </c>
       <c r="P208" t="n">
-        <v>0.01376891136169434</v>
+        <v>0.01778078079223633</v>
       </c>
       <c r="Q208" t="inlineStr"/>
       <c r="R208" t="n">
-        <v>2.59137749671936</v>
+        <v>3.277344465255737</v>
       </c>
       <c r="S208" t="n">
-        <v>0.01376891136169434</v>
+        <v>0.01778078079223633</v>
       </c>
       <c r="T208" t="inlineStr"/>
       <c r="U208" t="n">
-        <v>2.59137749671936</v>
+        <v>3.277344465255737</v>
       </c>
       <c r="V208" t="n">
         <v>1</v>
@@ -31162,22 +31162,22 @@
         </is>
       </c>
       <c r="P209" t="n">
-        <v>0.01349520683288574</v>
+        <v>0.01339578628540039</v>
       </c>
       <c r="Q209" t="n">
-        <v>0.01604247093200684</v>
+        <v>0.009881019592285156</v>
       </c>
       <c r="R209" t="n">
-        <v>0.7665648460388184</v>
+        <v>1.133777618408203</v>
       </c>
       <c r="S209" t="n">
-        <v>0.01349520683288574</v>
+        <v>0.01339578628540039</v>
       </c>
       <c r="T209" t="n">
-        <v>0.01604247093200684</v>
+        <v>0.009881019592285156</v>
       </c>
       <c r="U209" t="n">
-        <v>0.7665648460388184</v>
+        <v>1.133777618408203</v>
       </c>
       <c r="V209" t="n">
         <v>1</v>
@@ -31312,22 +31312,22 @@
         </is>
       </c>
       <c r="P210" t="n">
-        <v>0.01084184646606445</v>
+        <v>0.01073503494262695</v>
       </c>
       <c r="Q210" t="n">
-        <v>0.0156705379486084</v>
+        <v>0.008642673492431641</v>
       </c>
       <c r="R210" t="n">
-        <v>2.896888732910156</v>
+        <v>3.482703924179077</v>
       </c>
       <c r="S210" t="n">
-        <v>0.01084184646606445</v>
+        <v>0.01073503494262695</v>
       </c>
       <c r="T210" t="n">
-        <v>0.0156705379486084</v>
+        <v>0.008642673492431641</v>
       </c>
       <c r="U210" t="n">
-        <v>2.896888732910156</v>
+        <v>3.482703924179077</v>
       </c>
       <c r="V210" t="n">
         <v>1</v>
@@ -31462,22 +31462,22 @@
         </is>
       </c>
       <c r="P211" t="n">
-        <v>0.0139007568359375</v>
+        <v>0.01576924324035645</v>
       </c>
       <c r="Q211" t="n">
-        <v>0.008998870849609375</v>
+        <v>0.009007692337036133</v>
       </c>
       <c r="R211" t="n">
-        <v>1.509705305099487</v>
+        <v>1.771971702575684</v>
       </c>
       <c r="S211" t="n">
-        <v>0.0139007568359375</v>
+        <v>0.01576924324035645</v>
       </c>
       <c r="T211" t="n">
-        <v>0.008998870849609375</v>
+        <v>0.009007692337036133</v>
       </c>
       <c r="U211" t="n">
-        <v>1.509705305099487</v>
+        <v>1.771971702575684</v>
       </c>
       <c r="V211" t="n">
         <v>1</v>
@@ -31612,22 +31612,22 @@
         </is>
       </c>
       <c r="P212" t="n">
-        <v>0.0130314826965332</v>
+        <v>0.01354289054870605</v>
       </c>
       <c r="Q212" t="n">
-        <v>0.01223659515380859</v>
+        <v>0.009000062942504883</v>
       </c>
       <c r="R212" t="n">
-        <v>0.5310957431793213</v>
+        <v>0.6714997291564941</v>
       </c>
       <c r="S212" t="n">
-        <v>0.0130314826965332</v>
+        <v>0.01354289054870605</v>
       </c>
       <c r="T212" t="n">
-        <v>0.01223659515380859</v>
+        <v>0.009000062942504883</v>
       </c>
       <c r="U212" t="n">
-        <v>0.5310957431793213</v>
+        <v>0.6714997291564941</v>
       </c>
       <c r="V212" t="n">
         <v>1</v>
@@ -31760,18 +31760,18 @@
         </is>
       </c>
       <c r="P213" t="n">
-        <v>0.01377487182617188</v>
+        <v>0.01561617851257324</v>
       </c>
       <c r="Q213" t="inlineStr"/>
       <c r="R213" t="n">
-        <v>0.2599203586578369</v>
+        <v>0.3482668399810791</v>
       </c>
       <c r="S213" t="n">
-        <v>0.01377487182617188</v>
+        <v>0.01561617851257324</v>
       </c>
       <c r="T213" t="inlineStr"/>
       <c r="U213" t="n">
-        <v>0.2599203586578369</v>
+        <v>0.3482668399810791</v>
       </c>
       <c r="V213" t="n">
         <v>1</v>
@@ -31906,22 +31906,22 @@
         </is>
       </c>
       <c r="P214" t="n">
-        <v>0.0534052848815918</v>
+        <v>0.06422758102416992</v>
       </c>
       <c r="Q214" t="n">
-        <v>0.03933930397033691</v>
+        <v>0.05932879447937012</v>
       </c>
       <c r="R214" t="n">
-        <v>0.9263646602630615</v>
+        <v>0.9350490570068359</v>
       </c>
       <c r="S214" t="n">
-        <v>0.0534052848815918</v>
+        <v>0.06422758102416992</v>
       </c>
       <c r="T214" t="n">
-        <v>0.03933930397033691</v>
+        <v>0.05932879447937012</v>
       </c>
       <c r="U214" t="n">
-        <v>0.9263646602630615</v>
+        <v>0.9350490570068359</v>
       </c>
       <c r="V214" t="n">
         <v>1</v>
@@ -32056,22 +32056,22 @@
         </is>
       </c>
       <c r="P215" t="n">
-        <v>0.0667567253112793</v>
+        <v>0.06813836097717285</v>
       </c>
       <c r="Q215" t="n">
-        <v>0.03842902183532715</v>
+        <v>0.0526270866394043</v>
       </c>
       <c r="R215" t="n">
-        <v>0.5359361171722412</v>
+        <v>0.6772105693817139</v>
       </c>
       <c r="S215" t="n">
-        <v>0.0667567253112793</v>
+        <v>0.06813836097717285</v>
       </c>
       <c r="T215" t="n">
-        <v>0.03842902183532715</v>
+        <v>0.0526270866394043</v>
       </c>
       <c r="U215" t="n">
-        <v>0.5359361171722412</v>
+        <v>0.6772105693817139</v>
       </c>
       <c r="V215" t="n">
         <v>1</v>
@@ -32206,22 +32206,22 @@
         </is>
       </c>
       <c r="P216" t="n">
-        <v>0</v>
+        <v>0.01148676872253418</v>
       </c>
       <c r="Q216" t="n">
-        <v>0.007837772369384766</v>
+        <v>0.00195622444152832</v>
       </c>
       <c r="R216" t="n">
-        <v>1.557899475097656</v>
+        <v>2.300973892211914</v>
       </c>
       <c r="S216" t="n">
-        <v>0</v>
+        <v>0.01148676872253418</v>
       </c>
       <c r="T216" t="n">
-        <v>0.007837772369384766</v>
+        <v>0.00195622444152832</v>
       </c>
       <c r="U216" t="n">
-        <v>1.557899475097656</v>
+        <v>2.300973892211914</v>
       </c>
       <c r="V216" t="n">
         <v>1</v>
@@ -32354,18 +32354,18 @@
         </is>
       </c>
       <c r="P217" t="n">
-        <v>0.01077461242675781</v>
+        <v>0.01427650451660156</v>
       </c>
       <c r="Q217" t="inlineStr"/>
       <c r="R217" t="n">
-        <v>0.6351118087768555</v>
+        <v>0.7837004661560059</v>
       </c>
       <c r="S217" t="n">
-        <v>0.01077461242675781</v>
+        <v>0.01427650451660156</v>
       </c>
       <c r="T217" t="inlineStr"/>
       <c r="U217" t="n">
-        <v>0.6351118087768555</v>
+        <v>0.7837004661560059</v>
       </c>
       <c r="V217" t="n">
         <v>1</v>
@@ -32500,22 +32500,22 @@
         </is>
       </c>
       <c r="P218" t="n">
-        <v>0.003008604049682617</v>
+        <v>0.01594328880310059</v>
       </c>
       <c r="Q218" t="n">
-        <v>0.0119166374206543</v>
+        <v>0.01117277145385742</v>
       </c>
       <c r="R218" t="n">
-        <v>2.374303579330444</v>
+        <v>2.940354824066162</v>
       </c>
       <c r="S218" t="n">
-        <v>0.003008604049682617</v>
+        <v>0.01594328880310059</v>
       </c>
       <c r="T218" t="n">
-        <v>0.0119166374206543</v>
+        <v>0.01117277145385742</v>
       </c>
       <c r="U218" t="n">
-        <v>2.374303579330444</v>
+        <v>2.940354824066162</v>
       </c>
       <c r="V218" t="n">
         <v>1</v>
@@ -32648,18 +32648,18 @@
         </is>
       </c>
       <c r="P219" t="n">
-        <v>0.002198457717895508</v>
+        <v>0.002005577087402344</v>
       </c>
       <c r="Q219" t="inlineStr"/>
       <c r="R219" t="n">
-        <v>0.1032266616821289</v>
+        <v>0.1041905879974365</v>
       </c>
       <c r="S219" t="n">
-        <v>0.002198457717895508</v>
+        <v>0.002005577087402344</v>
       </c>
       <c r="T219" t="inlineStr"/>
       <c r="U219" t="n">
-        <v>0.1032266616821289</v>
+        <v>0.1041905879974365</v>
       </c>
       <c r="V219" t="n">
         <v>1</v>
